--- a/Excel/Bulanan/Excel/List Tugas Bulanan Ke-2 (30 Juli 2021 - 27 September 2021).xlsx
+++ b/Excel/Bulanan/Excel/List Tugas Bulanan Ke-2 (30 Juli 2021 - 27 September 2021).xlsx
@@ -80,7 +80,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -207,39 +207,11 @@
       <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -295,14 +267,12 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -646,10 +616,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F38" sqref="A1:F38"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -677,6 +647,7 @@
       <c r="D1" s="17" t="n"/>
       <c r="E1" s="17" t="n"/>
       <c r="F1" s="17" t="n"/>
+      <c r="G1" s="17" t="n"/>
     </row>
     <row r="2" ht="18" customHeight="1">
       <c r="A2" s="18" t="n"/>
@@ -701,6 +672,11 @@
           <t>Tugas 4</t>
         </is>
       </c>
+      <c r="G2" s="19" t="inlineStr">
+        <is>
+          <t>Tugas 5</t>
+        </is>
+      </c>
     </row>
     <row r="3" ht="15.6" customHeight="1">
       <c r="A3" s="20" t="n"/>
@@ -725,6 +701,11 @@
           <t>BING4</t>
         </is>
       </c>
+      <c r="G3" s="21" t="inlineStr">
+        <is>
+          <t>PKK3</t>
+        </is>
+      </c>
     </row>
     <row r="4" ht="15.6" customHeight="1">
       <c r="A4" s="15" t="n">
@@ -740,17 +721,22 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="D4" s="23" t="inlineStr"/>
+      <c r="D4" s="23" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="E4" s="22" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
-      <c r="F4" s="24" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
+      <c r="F4" s="23" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G4" s="21" t="inlineStr"/>
     </row>
     <row r="5" ht="15.6" customHeight="1">
       <c r="A5" s="15" t="n">
@@ -762,9 +748,22 @@
         </is>
       </c>
       <c r="C5" s="21" t="inlineStr"/>
-      <c r="D5" s="23" t="inlineStr"/>
-      <c r="E5" s="21" t="inlineStr"/>
-      <c r="F5" s="23" t="inlineStr"/>
+      <c r="D5" s="23" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E5" s="22" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F5" s="23" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G5" s="21" t="inlineStr"/>
     </row>
     <row r="6" ht="15.6" customHeight="1">
       <c r="A6" s="15" t="n">
@@ -776,13 +775,18 @@
         </is>
       </c>
       <c r="C6" s="21" t="inlineStr"/>
-      <c r="D6" s="23" t="inlineStr"/>
+      <c r="D6" s="23" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="E6" s="22" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
-      <c r="F6" s="23" t="inlineStr"/>
+      <c r="F6" s="24" t="inlineStr"/>
+      <c r="G6" s="21" t="inlineStr"/>
     </row>
     <row r="7" ht="15.6" customHeight="1">
       <c r="A7" s="15" t="n">
@@ -794,13 +798,22 @@
         </is>
       </c>
       <c r="C7" s="21" t="inlineStr"/>
-      <c r="D7" s="23" t="inlineStr"/>
+      <c r="D7" s="23" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="E7" s="22" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
-      <c r="F7" s="23" t="inlineStr"/>
+      <c r="F7" s="23" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G7" s="21" t="inlineStr"/>
     </row>
     <row r="8" ht="15.6" customHeight="1">
       <c r="A8" s="15" t="n">
@@ -812,13 +825,14 @@
         </is>
       </c>
       <c r="C8" s="21" t="inlineStr"/>
-      <c r="D8" s="23" t="inlineStr"/>
+      <c r="D8" s="24" t="inlineStr"/>
       <c r="E8" s="22" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
-      <c r="F8" s="23" t="inlineStr"/>
+      <c r="F8" s="24" t="inlineStr"/>
+      <c r="G8" s="21" t="inlineStr"/>
     </row>
     <row r="9" ht="15.6" customHeight="1">
       <c r="A9" s="15" t="n">
@@ -830,9 +844,10 @@
         </is>
       </c>
       <c r="C9" s="21" t="inlineStr"/>
-      <c r="D9" s="23" t="inlineStr"/>
+      <c r="D9" s="24" t="inlineStr"/>
       <c r="E9" s="21" t="inlineStr"/>
-      <c r="F9" s="23" t="inlineStr"/>
+      <c r="F9" s="24" t="inlineStr"/>
+      <c r="G9" s="21" t="inlineStr"/>
     </row>
     <row r="10" ht="15.6" customHeight="1">
       <c r="A10" s="15" t="n">
@@ -848,17 +863,18 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="D10" s="23" t="inlineStr"/>
+      <c r="D10" s="24" t="inlineStr"/>
       <c r="E10" s="22" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
-      <c r="F10" s="24" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
+      <c r="F10" s="23" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G10" s="21" t="inlineStr"/>
     </row>
     <row r="11" ht="15.6" customHeight="1">
       <c r="A11" s="15" t="n">
@@ -870,9 +886,10 @@
         </is>
       </c>
       <c r="C11" s="21" t="inlineStr"/>
-      <c r="D11" s="23" t="inlineStr"/>
+      <c r="D11" s="24" t="inlineStr"/>
       <c r="E11" s="21" t="inlineStr"/>
-      <c r="F11" s="23" t="inlineStr"/>
+      <c r="F11" s="24" t="inlineStr"/>
+      <c r="G11" s="21" t="inlineStr"/>
     </row>
     <row r="12" ht="15.6" customHeight="1">
       <c r="A12" s="15" t="n">
@@ -888,7 +905,7 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="D12" s="24" t="inlineStr">
+      <c r="D12" s="23" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -898,7 +915,12 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="F12" s="23" t="inlineStr"/>
+      <c r="F12" s="23" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G12" s="21" t="inlineStr"/>
     </row>
     <row r="13" ht="15.6" customHeight="1">
       <c r="A13" s="15" t="n">
@@ -910,9 +932,10 @@
         </is>
       </c>
       <c r="C13" s="21" t="inlineStr"/>
-      <c r="D13" s="23" t="inlineStr"/>
+      <c r="D13" s="24" t="inlineStr"/>
       <c r="E13" s="21" t="inlineStr"/>
-      <c r="F13" s="23" t="inlineStr"/>
+      <c r="F13" s="24" t="inlineStr"/>
+      <c r="G13" s="21" t="inlineStr"/>
     </row>
     <row r="14" ht="15.6" customHeight="1">
       <c r="A14" s="15" t="n">
@@ -928,13 +951,14 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="D14" s="23" t="inlineStr"/>
+      <c r="D14" s="24" t="inlineStr"/>
       <c r="E14" s="21" t="inlineStr"/>
-      <c r="F14" s="24" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
+      <c r="F14" s="23" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G14" s="21" t="inlineStr"/>
     </row>
     <row r="15" ht="15.6" customHeight="1">
       <c r="A15" s="15" t="n">
@@ -945,14 +969,27 @@
           <t>Keatryn Kezia P. Sihombing</t>
         </is>
       </c>
-      <c r="C15" s="21" t="inlineStr"/>
-      <c r="D15" s="24" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E15" s="21" t="inlineStr"/>
-      <c r="F15" s="23" t="inlineStr"/>
+      <c r="C15" s="22" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D15" s="23" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E15" s="21" t="inlineStr">
+        <is>
+          <t>KRISTEN</t>
+        </is>
+      </c>
+      <c r="F15" s="23" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G15" s="21" t="inlineStr"/>
     </row>
     <row r="16" ht="15.6" customHeight="1">
       <c r="A16" s="15" t="n">
@@ -964,7 +1001,7 @@
         </is>
       </c>
       <c r="C16" s="21" t="inlineStr"/>
-      <c r="D16" s="24" t="inlineStr">
+      <c r="D16" s="23" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -974,7 +1011,12 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="F16" s="24" t="inlineStr">
+      <c r="F16" s="23" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G16" s="22" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -990,9 +1032,10 @@
         </is>
       </c>
       <c r="C17" s="21" t="inlineStr"/>
-      <c r="D17" s="23" t="inlineStr"/>
+      <c r="D17" s="24" t="inlineStr"/>
       <c r="E17" s="21" t="inlineStr"/>
-      <c r="F17" s="23" t="inlineStr"/>
+      <c r="F17" s="24" t="inlineStr"/>
+      <c r="G17" s="21" t="inlineStr"/>
     </row>
     <row r="18" ht="15.6" customHeight="1">
       <c r="A18" s="15" t="n">
@@ -1004,9 +1047,18 @@
         </is>
       </c>
       <c r="C18" s="21" t="inlineStr"/>
-      <c r="D18" s="23" t="inlineStr"/>
-      <c r="E18" s="21" t="inlineStr"/>
-      <c r="F18" s="23" t="inlineStr"/>
+      <c r="D18" s="24" t="inlineStr"/>
+      <c r="E18" s="22" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F18" s="23" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G18" s="21" t="inlineStr"/>
     </row>
     <row r="19" ht="15.6" customHeight="1">
       <c r="A19" s="15" t="n">
@@ -1017,14 +1069,23 @@
           <t>Muhammad Athala Romero</t>
         </is>
       </c>
-      <c r="C19" s="21" t="inlineStr"/>
-      <c r="D19" s="23" t="inlineStr"/>
+      <c r="C19" s="22" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D19" s="23" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="E19" s="22" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
-      <c r="F19" s="23" t="inlineStr"/>
+      <c r="F19" s="24" t="inlineStr"/>
+      <c r="G19" s="21" t="inlineStr"/>
     </row>
     <row r="20" ht="15.6" customHeight="1">
       <c r="A20" s="15" t="n">
@@ -1036,13 +1097,14 @@
         </is>
       </c>
       <c r="C20" s="21" t="inlineStr"/>
-      <c r="D20" s="23" t="inlineStr"/>
+      <c r="D20" s="24" t="inlineStr"/>
       <c r="E20" s="22" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
-      <c r="F20" s="23" t="inlineStr"/>
+      <c r="F20" s="24" t="inlineStr"/>
+      <c r="G20" s="21" t="inlineStr"/>
     </row>
     <row r="21" ht="15.6" customHeight="1">
       <c r="A21" s="15" t="n">
@@ -1058,17 +1120,18 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="D21" s="24" t="inlineStr">
+      <c r="D21" s="23" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
       <c r="E21" s="21" t="inlineStr"/>
-      <c r="F21" s="24" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
+      <c r="F21" s="23" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G21" s="21" t="inlineStr"/>
     </row>
     <row r="22" ht="15.6" customHeight="1">
       <c r="A22" s="15" t="n">
@@ -1079,10 +1142,27 @@
           <t>Muhammad Ridwan</t>
         </is>
       </c>
-      <c r="C22" s="21" t="inlineStr"/>
-      <c r="D22" s="23" t="inlineStr"/>
-      <c r="E22" s="21" t="inlineStr"/>
-      <c r="F22" s="23" t="inlineStr"/>
+      <c r="C22" s="22" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D22" s="23" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E22" s="22" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F22" s="23" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G22" s="21" t="inlineStr"/>
     </row>
     <row r="23" ht="15.6" customHeight="1">
       <c r="A23" s="15" t="n">
@@ -1094,9 +1174,10 @@
         </is>
       </c>
       <c r="C23" s="21" t="inlineStr"/>
-      <c r="D23" s="23" t="inlineStr"/>
+      <c r="D23" s="24" t="inlineStr"/>
       <c r="E23" s="21" t="inlineStr"/>
-      <c r="F23" s="23" t="inlineStr"/>
+      <c r="F23" s="24" t="inlineStr"/>
+      <c r="G23" s="21" t="inlineStr"/>
     </row>
     <row r="24" ht="15.6" customHeight="1">
       <c r="A24" s="15" t="n">
@@ -1108,9 +1189,10 @@
         </is>
       </c>
       <c r="C24" s="21" t="inlineStr"/>
-      <c r="D24" s="23" t="inlineStr"/>
+      <c r="D24" s="24" t="inlineStr"/>
       <c r="E24" s="21" t="inlineStr"/>
-      <c r="F24" s="23" t="inlineStr"/>
+      <c r="F24" s="24" t="inlineStr"/>
+      <c r="G24" s="21" t="inlineStr"/>
     </row>
     <row r="25" ht="15.6" customHeight="1">
       <c r="A25" s="15" t="n">
@@ -1121,18 +1203,27 @@
           <t>Nasywa Mawaddah</t>
         </is>
       </c>
-      <c r="C25" s="21" t="inlineStr"/>
-      <c r="D25" s="23" t="inlineStr"/>
+      <c r="C25" s="22" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D25" s="23" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="E25" s="22" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
-      <c r="F25" s="24" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
+      <c r="F25" s="23" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G25" s="21" t="inlineStr"/>
     </row>
     <row r="26" ht="15.6" customHeight="1">
       <c r="A26" s="15" t="n">
@@ -1148,7 +1239,7 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="D26" s="24" t="inlineStr">
+      <c r="D26" s="23" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -1158,7 +1249,12 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="F26" s="24" t="inlineStr">
+      <c r="F26" s="23" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G26" s="22" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -1173,10 +1269,27 @@
           <t>Nicholas Davin Yang</t>
         </is>
       </c>
-      <c r="C27" s="21" t="inlineStr"/>
-      <c r="D27" s="23" t="inlineStr"/>
-      <c r="E27" s="21" t="inlineStr"/>
-      <c r="F27" s="23" t="inlineStr"/>
+      <c r="C27" s="22" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D27" s="23" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E27" s="21" t="inlineStr">
+        <is>
+          <t>KRISTEN</t>
+        </is>
+      </c>
+      <c r="F27" s="23" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G27" s="21" t="inlineStr"/>
     </row>
     <row r="28" ht="15.6" customHeight="1">
       <c r="A28" s="15" t="n">
@@ -1192,13 +1305,14 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="D28" s="23" t="inlineStr"/>
+      <c r="D28" s="24" t="inlineStr"/>
       <c r="E28" s="22" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
-      <c r="F28" s="23" t="inlineStr"/>
+      <c r="F28" s="24" t="inlineStr"/>
+      <c r="G28" s="21" t="inlineStr"/>
     </row>
     <row r="29" ht="15.6" customHeight="1">
       <c r="A29" s="15" t="n">
@@ -1214,9 +1328,22 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="D29" s="23" t="inlineStr"/>
-      <c r="E29" s="21" t="inlineStr"/>
-      <c r="F29" s="23" t="inlineStr"/>
+      <c r="D29" s="24" t="inlineStr"/>
+      <c r="E29" s="21" t="inlineStr">
+        <is>
+          <t>KRISTEN</t>
+        </is>
+      </c>
+      <c r="F29" s="23" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G29" s="22" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="30" ht="15.6" customHeight="1">
       <c r="A30" s="15" t="n">
@@ -1228,9 +1355,10 @@
         </is>
       </c>
       <c r="C30" s="21" t="inlineStr"/>
-      <c r="D30" s="23" t="inlineStr"/>
+      <c r="D30" s="24" t="inlineStr"/>
       <c r="E30" s="21" t="inlineStr"/>
-      <c r="F30" s="23" t="inlineStr"/>
+      <c r="F30" s="24" t="inlineStr"/>
+      <c r="G30" s="21" t="inlineStr"/>
     </row>
     <row r="31" ht="15.6" customHeight="1">
       <c r="A31" s="15" t="n">
@@ -1241,18 +1369,23 @@
           <t>Raihan Pratama Putra</t>
         </is>
       </c>
-      <c r="C31" s="21" t="inlineStr"/>
-      <c r="D31" s="23" t="inlineStr"/>
+      <c r="C31" s="22" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D31" s="24" t="inlineStr"/>
       <c r="E31" s="22" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
-      <c r="F31" s="24" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
+      <c r="F31" s="23" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G31" s="21" t="inlineStr"/>
     </row>
     <row r="32" ht="15.6" customHeight="1">
       <c r="A32" s="15" t="n">
@@ -1268,7 +1401,7 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="D32" s="24" t="inlineStr">
+      <c r="D32" s="23" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -1278,11 +1411,12 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="F32" s="24" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
+      <c r="F32" s="23" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G32" s="21" t="inlineStr"/>
     </row>
     <row r="33" ht="15.6" customHeight="1">
       <c r="A33" s="15" t="n">
@@ -1294,9 +1428,14 @@
         </is>
       </c>
       <c r="C33" s="21" t="inlineStr"/>
-      <c r="D33" s="23" t="inlineStr"/>
-      <c r="E33" s="21" t="inlineStr"/>
-      <c r="F33" s="23" t="inlineStr"/>
+      <c r="D33" s="24" t="inlineStr"/>
+      <c r="E33" s="22" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F33" s="24" t="inlineStr"/>
+      <c r="G33" s="21" t="inlineStr"/>
     </row>
     <row r="34" ht="15.6" customHeight="1">
       <c r="A34" s="15" t="n">
@@ -1312,7 +1451,7 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="D34" s="24" t="inlineStr">
+      <c r="D34" s="23" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -1322,7 +1461,12 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="F34" s="23" t="inlineStr"/>
+      <c r="F34" s="23" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G34" s="21" t="inlineStr"/>
     </row>
     <row r="35" ht="15.6" customHeight="1">
       <c r="A35" s="15" t="n">
@@ -1334,17 +1478,22 @@
         </is>
       </c>
       <c r="C35" s="21" t="inlineStr"/>
-      <c r="D35" s="23" t="inlineStr"/>
+      <c r="D35" s="23" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="E35" s="22" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
-      <c r="F35" s="24" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
+      <c r="F35" s="23" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G35" s="21" t="inlineStr"/>
     </row>
     <row r="36" ht="15.6" customHeight="1">
       <c r="A36" s="15" t="n">
@@ -1360,7 +1509,7 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="D36" s="24" t="inlineStr">
+      <c r="D36" s="23" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -1370,11 +1519,12 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="F36" s="24" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
+      <c r="F36" s="23" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G36" s="21" t="inlineStr"/>
     </row>
     <row r="37" ht="15.6" customHeight="1">
       <c r="A37" s="15" t="n">
@@ -1386,9 +1536,10 @@
         </is>
       </c>
       <c r="C37" s="21" t="inlineStr"/>
-      <c r="D37" s="23" t="inlineStr"/>
+      <c r="D37" s="24" t="inlineStr"/>
       <c r="E37" s="21" t="inlineStr"/>
-      <c r="F37" s="23" t="inlineStr"/>
+      <c r="F37" s="24" t="inlineStr"/>
+      <c r="G37" s="21" t="inlineStr"/>
     </row>
     <row r="38" ht="15.6" customHeight="1">
       <c r="A38" s="15" t="n">
@@ -1400,19 +1551,24 @@
         </is>
       </c>
       <c r="C38" s="21" t="inlineStr"/>
-      <c r="D38" s="23" t="inlineStr"/>
-      <c r="E38" s="21" t="inlineStr"/>
-      <c r="F38" s="24" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
+      <c r="D38" s="24" t="inlineStr"/>
+      <c r="E38" s="21" t="inlineStr">
+        <is>
+          <t>KRISTEN</t>
+        </is>
+      </c>
+      <c r="F38" s="23" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G38" s="21" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="C1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Excel/Bulanan/Excel/List Tugas Bulanan Ke-2 (30 Juli 2021 - 27 September 2021).xlsx
+++ b/Excel/Bulanan/Excel/List Tugas Bulanan Ke-2 (30 Juli 2021 - 27 September 2021).xlsx
@@ -100,7 +100,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -227,11 +227,39 @@
       <bottom style="thin"/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -323,6 +351,8 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1011,7 +1041,11 @@
         </is>
       </c>
       <c r="G12" s="28" t="inlineStr"/>
-      <c r="H12" s="32" t="inlineStr"/>
+      <c r="H12" s="34" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="13" ht="15.6" customHeight="1">
       <c r="A13" s="20" t="n">
@@ -1463,7 +1497,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="D29" s="33" t="inlineStr"/>
+      <c r="D29" s="31" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="E29" s="28" t="inlineStr">
         <is>
           <t>KRISTEN</t>
@@ -1567,7 +1605,11 @@
         </is>
       </c>
       <c r="C33" s="28" t="inlineStr"/>
-      <c r="D33" s="33" t="inlineStr"/>
+      <c r="D33" s="31" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="E33" s="30" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1666,8 +1708,16 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="G36" s="28" t="inlineStr"/>
-      <c r="H36" s="32" t="inlineStr"/>
+      <c r="G36" s="30" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="H36" s="34" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="37" ht="15.6" customHeight="1">
       <c r="A37" s="20" t="n">

--- a/Excel/Bulanan/Excel/List Tugas Bulanan Ke-2 (30 Juli 2021 - 27 September 2021).xlsx
+++ b/Excel/Bulanan/Excel/List Tugas Bulanan Ke-2 (30 Juli 2021 - 27 September 2021).xlsx
@@ -981,7 +981,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="D10" s="33" t="inlineStr"/>
+      <c r="D10" s="31" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="E10" s="30" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1112,7 +1116,7 @@
       </c>
       <c r="E15" s="28" t="inlineStr">
         <is>
-          <t>KRISTEN</t>
+          <t>NON-MUS</t>
         </is>
       </c>
       <c r="F15" s="31" t="inlineStr">
@@ -1448,7 +1452,7 @@
       </c>
       <c r="E27" s="28" t="inlineStr">
         <is>
-          <t>KRISTEN</t>
+          <t>NON-MUS</t>
         </is>
       </c>
       <c r="F27" s="31" t="inlineStr">
@@ -1504,7 +1508,7 @@
       </c>
       <c r="E29" s="28" t="inlineStr">
         <is>
-          <t>KRISTEN</t>
+          <t>NON-MUS</t>
         </is>
       </c>
       <c r="F29" s="31" t="inlineStr">
@@ -1756,7 +1760,7 @@
       </c>
       <c r="E38" s="28" t="inlineStr">
         <is>
-          <t>KRISTEN</t>
+          <t>NON-MUS</t>
         </is>
       </c>
       <c r="F38" s="31" t="inlineStr">

--- a/Excel/Bulanan/Excel/List Tugas Bulanan Ke-2 (30 Juli 2021 - 27 September 2021).xlsx
+++ b/Excel/Bulanan/Excel/List Tugas Bulanan Ke-2 (30 Juli 2021 - 27 September 2021).xlsx
@@ -100,7 +100,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -227,11 +227,39 @@
       <bottom style="thin"/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -323,6 +351,8 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -967,8 +997,16 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="G10" s="28" t="inlineStr"/>
-      <c r="H10" s="32" t="inlineStr"/>
+      <c r="G10" s="30" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="H10" s="34" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="11" ht="15.6" customHeight="1">
       <c r="A11" s="20" t="n">
@@ -1731,10 +1769,26 @@
           <t>Usama Fadlillah</t>
         </is>
       </c>
-      <c r="C37" s="28" t="inlineStr"/>
-      <c r="D37" s="33" t="inlineStr"/>
-      <c r="E37" s="28" t="inlineStr"/>
-      <c r="F37" s="33" t="inlineStr"/>
+      <c r="C37" s="30" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D37" s="31" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E37" s="30" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F37" s="31" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="G37" s="28" t="inlineStr"/>
       <c r="H37" s="32" t="inlineStr"/>
     </row>

--- a/Excel/Bulanan/Excel/List Tugas Bulanan Ke-2 (30 Juli 2021 - 27 September 2021).xlsx
+++ b/Excel/Bulanan/Excel/List Tugas Bulanan Ke-2 (30 Juli 2021 - 27 September 2021).xlsx
@@ -888,7 +888,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="F6" s="33" t="inlineStr"/>
+      <c r="F6" s="31" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="G6" s="28" t="inlineStr"/>
       <c r="H6" s="32" t="inlineStr"/>
     </row>
@@ -1071,7 +1075,11 @@
       </c>
       <c r="C13" s="28" t="inlineStr"/>
       <c r="D13" s="33" t="inlineStr"/>
-      <c r="E13" s="28" t="inlineStr"/>
+      <c r="E13" s="30" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="F13" s="33" t="inlineStr"/>
       <c r="G13" s="28" t="inlineStr"/>
       <c r="H13" s="32" t="inlineStr"/>
@@ -1134,7 +1142,11 @@
         </is>
       </c>
       <c r="G15" s="28" t="inlineStr"/>
-      <c r="H15" s="32" t="inlineStr"/>
+      <c r="H15" s="34" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="16" ht="15.6" customHeight="1">
       <c r="A16" s="20" t="n">
@@ -1287,14 +1299,22 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="E21" s="28" t="inlineStr"/>
+      <c r="E21" s="30" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="F21" s="31" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
       <c r="G21" s="28" t="inlineStr"/>
-      <c r="H21" s="32" t="inlineStr"/>
+      <c r="H21" s="34" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="22" ht="15.6" customHeight="1">
       <c r="A22" s="20" t="n">
@@ -1325,7 +1345,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="G22" s="28" t="inlineStr"/>
+      <c r="G22" s="30" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="H22" s="34" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1554,11 +1578,7 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="H29" s="34" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
+      <c r="H29" s="32" t="inlineStr"/>
     </row>
     <row r="30" ht="15.6" customHeight="1">
       <c r="A30" s="20" t="n">
@@ -1602,7 +1622,11 @@
         </is>
       </c>
       <c r="G31" s="28" t="inlineStr"/>
-      <c r="H31" s="32" t="inlineStr"/>
+      <c r="H31" s="34" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="32" ht="15.6" customHeight="1">
       <c r="A32" s="20" t="n">

--- a/Excel/Bulanan/Excel/List Tugas Bulanan Ke-2 (30 Juli 2021 - 27 September 2021).xlsx
+++ b/Excel/Bulanan/Excel/List Tugas Bulanan Ke-2 (30 Juli 2021 - 27 September 2021).xlsx
@@ -100,7 +100,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -227,11 +227,39 @@
       <bottom style="thin"/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -321,6 +349,11 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -815,7 +848,11 @@
       </c>
       <c r="G4" s="28" t="inlineStr"/>
       <c r="H4" s="32" t="inlineStr"/>
-      <c r="I4" s="29" t="inlineStr"/>
+      <c r="I4" s="37" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="5" ht="15.6" customHeight="1">
       <c r="A5" s="20" t="n">
@@ -877,7 +914,11 @@
       </c>
       <c r="G6" s="28" t="inlineStr"/>
       <c r="H6" s="32" t="inlineStr"/>
-      <c r="I6" s="29" t="inlineStr"/>
+      <c r="I6" s="37" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="7" ht="15.6" customHeight="1">
       <c r="A7" s="20" t="n">
@@ -906,7 +947,11 @@
       </c>
       <c r="G7" s="28" t="inlineStr"/>
       <c r="H7" s="32" t="inlineStr"/>
-      <c r="I7" s="29" t="inlineStr"/>
+      <c r="I7" s="37" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="8" ht="15.6" customHeight="1">
       <c r="A8" s="20" t="n">
@@ -939,7 +984,11 @@
       </c>
       <c r="G8" s="28" t="inlineStr"/>
       <c r="H8" s="32" t="inlineStr"/>
-      <c r="I8" s="29" t="inlineStr"/>
+      <c r="I8" s="37" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="9" ht="15.6" customHeight="1">
       <c r="A9" s="20" t="n">
@@ -997,7 +1046,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="I10" s="29" t="inlineStr"/>
+      <c r="I10" s="37" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="11" ht="15.6" customHeight="1">
       <c r="A11" s="20" t="n">
@@ -1055,7 +1108,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="I12" s="29" t="inlineStr"/>
+      <c r="I12" s="37" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="13" ht="15.6" customHeight="1">
       <c r="A13" s="20" t="n">
@@ -1075,7 +1132,11 @@
       </c>
       <c r="F13" s="33" t="inlineStr"/>
       <c r="G13" s="28" t="inlineStr"/>
-      <c r="H13" s="32" t="inlineStr"/>
+      <c r="H13" s="34" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="I13" s="29" t="inlineStr"/>
     </row>
     <row r="14" ht="15.6" customHeight="1">
@@ -1105,7 +1166,11 @@
       </c>
       <c r="G14" s="28" t="inlineStr"/>
       <c r="H14" s="32" t="inlineStr"/>
-      <c r="I14" s="29" t="inlineStr"/>
+      <c r="I14" s="37" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="15" ht="15.6" customHeight="1">
       <c r="A15" s="20" t="n">
@@ -1142,7 +1207,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="I15" s="29" t="inlineStr"/>
+      <c r="I15" s="37" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="16" ht="15.6" customHeight="1">
       <c r="A16" s="20" t="n">
@@ -1212,7 +1281,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="I17" s="29" t="inlineStr"/>
+      <c r="I17" s="37" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="18" ht="15.6" customHeight="1">
       <c r="A18" s="20" t="n">
@@ -1266,7 +1339,11 @@
       <c r="F19" s="33" t="inlineStr"/>
       <c r="G19" s="28" t="inlineStr"/>
       <c r="H19" s="32" t="inlineStr"/>
-      <c r="I19" s="29" t="inlineStr"/>
+      <c r="I19" s="37" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="20" ht="15.6" customHeight="1">
       <c r="A20" s="20" t="n">
@@ -1291,7 +1368,11 @@
       <c r="F20" s="33" t="inlineStr"/>
       <c r="G20" s="28" t="inlineStr"/>
       <c r="H20" s="32" t="inlineStr"/>
-      <c r="I20" s="29" t="inlineStr"/>
+      <c r="I20" s="37" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="21" ht="15.6" customHeight="1">
       <c r="A21" s="20" t="n">
@@ -1328,7 +1409,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="I21" s="29" t="inlineStr"/>
+      <c r="I21" s="37" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="22" ht="15.6" customHeight="1">
       <c r="A22" s="20" t="n">
@@ -1369,7 +1454,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="I22" s="29" t="inlineStr"/>
+      <c r="I22" s="37" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="23" ht="15.6" customHeight="1">
       <c r="A23" s="20" t="n">
@@ -1456,7 +1545,11 @@
       </c>
       <c r="G25" s="28" t="inlineStr"/>
       <c r="H25" s="32" t="inlineStr"/>
-      <c r="I25" s="29" t="inlineStr"/>
+      <c r="I25" s="37" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="26" ht="15.6" customHeight="1">
       <c r="A26" s="20" t="n">
@@ -1497,7 +1590,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="I26" s="29" t="inlineStr"/>
+      <c r="I26" s="37" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="27" ht="15.6" customHeight="1">
       <c r="A27" s="20" t="n">
@@ -1530,7 +1627,11 @@
       </c>
       <c r="G27" s="28" t="inlineStr"/>
       <c r="H27" s="32" t="inlineStr"/>
-      <c r="I27" s="29" t="inlineStr"/>
+      <c r="I27" s="37" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="28" ht="15.6" customHeight="1">
       <c r="A28" s="20" t="n">
@@ -1563,7 +1664,11 @@
       </c>
       <c r="G28" s="28" t="inlineStr"/>
       <c r="H28" s="32" t="inlineStr"/>
-      <c r="I28" s="29" t="inlineStr"/>
+      <c r="I28" s="37" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="29" ht="15.6" customHeight="1">
       <c r="A29" s="20" t="n">
@@ -1600,7 +1705,11 @@
         </is>
       </c>
       <c r="H29" s="32" t="inlineStr"/>
-      <c r="I29" s="29" t="inlineStr"/>
+      <c r="I29" s="37" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="30" ht="15.6" customHeight="1">
       <c r="A30" s="20" t="n">
@@ -1683,7 +1792,11 @@
       </c>
       <c r="G32" s="28" t="inlineStr"/>
       <c r="H32" s="32" t="inlineStr"/>
-      <c r="I32" s="29" t="inlineStr"/>
+      <c r="I32" s="37" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="33" ht="15.6" customHeight="1">
       <c r="A33" s="20" t="n">
@@ -1708,7 +1821,11 @@
       <c r="F33" s="33" t="inlineStr"/>
       <c r="G33" s="28" t="inlineStr"/>
       <c r="H33" s="32" t="inlineStr"/>
-      <c r="I33" s="29" t="inlineStr"/>
+      <c r="I33" s="37" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="34" ht="15.6" customHeight="1">
       <c r="A34" s="20" t="n">
@@ -1741,7 +1858,11 @@
       </c>
       <c r="G34" s="28" t="inlineStr"/>
       <c r="H34" s="32" t="inlineStr"/>
-      <c r="I34" s="29" t="inlineStr"/>
+      <c r="I34" s="37" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="35" ht="15.6" customHeight="1">
       <c r="A35" s="20" t="n">
@@ -1752,7 +1873,11 @@
           <t>Silvana Putri Ariani</t>
         </is>
       </c>
-      <c r="C35" s="28" t="inlineStr"/>
+      <c r="C35" s="30" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="D35" s="31" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1770,7 +1895,11 @@
       </c>
       <c r="G35" s="28" t="inlineStr"/>
       <c r="H35" s="32" t="inlineStr"/>
-      <c r="I35" s="29" t="inlineStr"/>
+      <c r="I35" s="37" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="36" ht="15.6" customHeight="1">
       <c r="A36" s="20" t="n">
@@ -1811,7 +1940,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="I36" s="29" t="inlineStr"/>
+      <c r="I36" s="37" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="37" ht="15.6" customHeight="1">
       <c r="A37" s="20" t="n">
@@ -1842,9 +1975,17 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="G37" s="28" t="inlineStr"/>
+      <c r="G37" s="30" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="H37" s="32" t="inlineStr"/>
-      <c r="I37" s="29" t="inlineStr"/>
+      <c r="I37" s="37" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="38" ht="15.6" customHeight="1">
       <c r="A38" s="20" t="n">
@@ -1877,7 +2018,11 @@
       </c>
       <c r="G38" s="28" t="inlineStr"/>
       <c r="H38" s="32" t="inlineStr"/>
-      <c r="I38" s="29" t="inlineStr"/>
+      <c r="I38" s="37" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/Excel/Bulanan/Excel/List Tugas Bulanan Ke-2 (30 Juli 2021 - 27 September 2021).xlsx
+++ b/Excel/Bulanan/Excel/List Tugas Bulanan Ke-2 (30 Juli 2021 - 27 September 2021).xlsx
@@ -881,7 +881,11 @@
       </c>
       <c r="G5" s="28" t="inlineStr"/>
       <c r="H5" s="32" t="inlineStr"/>
-      <c r="I5" s="29" t="inlineStr"/>
+      <c r="I5" s="37" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="6" ht="15.6" customHeight="1">
       <c r="A6" s="20" t="n">

--- a/Excel/Bulanan/Excel/List Tugas Bulanan Ke-2 (30 Juli 2021 - 27 September 2021).xlsx
+++ b/Excel/Bulanan/Excel/List Tugas Bulanan Ke-2 (30 Juli 2021 - 27 September 2021).xlsx
@@ -917,7 +917,11 @@
         </is>
       </c>
       <c r="G6" s="28" t="inlineStr"/>
-      <c r="H6" s="32" t="inlineStr"/>
+      <c r="H6" s="34" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="I6" s="37" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1141,7 +1145,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="I13" s="29" t="inlineStr"/>
+      <c r="I13" s="37" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="14" ht="15.6" customHeight="1">
       <c r="A14" s="20" t="n">
@@ -1205,7 +1213,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="G15" s="28" t="inlineStr"/>
+      <c r="G15" s="30" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="H15" s="34" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1256,7 +1268,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="I16" s="29" t="inlineStr"/>
+      <c r="I16" s="37" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="17" ht="15.6" customHeight="1">
       <c r="A17" s="20" t="n">
@@ -1314,7 +1330,11 @@
       </c>
       <c r="G18" s="28" t="inlineStr"/>
       <c r="H18" s="32" t="inlineStr"/>
-      <c r="I18" s="29" t="inlineStr"/>
+      <c r="I18" s="37" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="19" ht="15.6" customHeight="1">
       <c r="A19" s="20" t="n">
@@ -1363,7 +1383,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="D20" s="33" t="inlineStr"/>
+      <c r="D20" s="31" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="E20" s="30" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1516,7 +1540,11 @@
       </c>
       <c r="G24" s="28" t="inlineStr"/>
       <c r="H24" s="32" t="inlineStr"/>
-      <c r="I24" s="29" t="inlineStr"/>
+      <c r="I24" s="37" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="25" ht="15.6" customHeight="1">
       <c r="A25" s="20" t="n">
@@ -1629,7 +1657,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="G27" s="28" t="inlineStr"/>
+      <c r="G27" s="30" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="H27" s="32" t="inlineStr"/>
       <c r="I27" s="37" t="inlineStr">
         <is>
@@ -1708,7 +1740,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="H29" s="32" t="inlineStr"/>
+      <c r="H29" s="34" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="I29" s="37" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1763,7 +1799,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="I31" s="29" t="inlineStr"/>
+      <c r="I31" s="37" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="32" ht="15.6" customHeight="1">
       <c r="A32" s="20" t="n">
@@ -1795,7 +1835,11 @@
         </is>
       </c>
       <c r="G32" s="28" t="inlineStr"/>
-      <c r="H32" s="32" t="inlineStr"/>
+      <c r="H32" s="34" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="I32" s="37" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1897,7 +1941,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="G35" s="28" t="inlineStr"/>
+      <c r="G35" s="30" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="H35" s="32" t="inlineStr"/>
       <c r="I35" s="37" t="inlineStr">
         <is>

--- a/Excel/Bulanan/Excel/List Tugas Bulanan Ke-2 (30 Juli 2021 - 27 September 2021).xlsx
+++ b/Excel/Bulanan/Excel/List Tugas Bulanan Ke-2 (30 Juli 2021 - 27 September 2021).xlsx
@@ -1284,7 +1284,11 @@
         </is>
       </c>
       <c r="C17" s="28" t="inlineStr"/>
-      <c r="D17" s="33" t="inlineStr"/>
+      <c r="D17" s="31" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="E17" s="30" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1904,8 +1908,16 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="G34" s="28" t="inlineStr"/>
-      <c r="H34" s="32" t="inlineStr"/>
+      <c r="G34" s="30" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="H34" s="34" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="I34" s="37" t="inlineStr">
         <is>
           <t>ü</t>

--- a/Excel/Bulanan/Excel/List Tugas Bulanan Ke-2 (30 Juli 2021 - 27 September 2021).xlsx
+++ b/Excel/Bulanan/Excel/List Tugas Bulanan Ke-2 (30 Juli 2021 - 27 September 2021).xlsx
@@ -699,7 +699,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I38"/>
+  <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="M4" sqref="M4"/>
@@ -738,6 +738,7 @@
         </is>
       </c>
       <c r="I1" s="23" t="n"/>
+      <c r="J1" s="23" t="n"/>
     </row>
     <row r="2" ht="18" customHeight="1">
       <c r="A2" s="24" t="n"/>
@@ -777,6 +778,11 @@
           <t>Tugas 2</t>
         </is>
       </c>
+      <c r="J2" s="26" t="inlineStr">
+        <is>
+          <t>Tugas 3</t>
+        </is>
+      </c>
     </row>
     <row r="3" ht="15.6" customHeight="1">
       <c r="A3" s="27" t="n"/>
@@ -816,6 +822,11 @@
           <t>BINDO4</t>
         </is>
       </c>
+      <c r="J3" s="29" t="inlineStr">
+        <is>
+          <t>PAI7</t>
+        </is>
+      </c>
     </row>
     <row r="4" ht="15.6" customHeight="1">
       <c r="A4" s="20" t="n">
@@ -853,6 +864,11 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="J4" s="34" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="5" ht="15.6" customHeight="1">
       <c r="A5" s="20" t="n">
@@ -886,6 +902,7 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="J5" s="32" t="inlineStr"/>
     </row>
     <row r="6" ht="15.6" customHeight="1">
       <c r="A6" s="20" t="n">
@@ -927,6 +944,11 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="J6" s="34" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="7" ht="15.6" customHeight="1">
       <c r="A7" s="20" t="n">
@@ -960,6 +982,7 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="J7" s="32" t="inlineStr"/>
     </row>
     <row r="8" ht="15.6" customHeight="1">
       <c r="A8" s="20" t="n">
@@ -997,6 +1020,7 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="J8" s="32" t="inlineStr"/>
     </row>
     <row r="9" ht="15.6" customHeight="1">
       <c r="A9" s="20" t="n">
@@ -1014,6 +1038,7 @@
       <c r="G9" s="28" t="inlineStr"/>
       <c r="H9" s="32" t="inlineStr"/>
       <c r="I9" s="29" t="inlineStr"/>
+      <c r="J9" s="32" t="inlineStr"/>
     </row>
     <row r="10" ht="15.6" customHeight="1">
       <c r="A10" s="20" t="n">
@@ -1055,6 +1080,11 @@
         </is>
       </c>
       <c r="I10" s="37" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="J10" s="34" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -1076,6 +1106,7 @@
       <c r="G11" s="28" t="inlineStr"/>
       <c r="H11" s="32" t="inlineStr"/>
       <c r="I11" s="29" t="inlineStr"/>
+      <c r="J11" s="32" t="inlineStr"/>
     </row>
     <row r="12" ht="15.6" customHeight="1">
       <c r="A12" s="20" t="n">
@@ -1121,6 +1152,7 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="J12" s="32" t="inlineStr"/>
     </row>
     <row r="13" ht="15.6" customHeight="1">
       <c r="A13" s="20" t="n">
@@ -1150,6 +1182,7 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="J13" s="32" t="inlineStr"/>
     </row>
     <row r="14" ht="15.6" customHeight="1">
       <c r="A14" s="20" t="n">
@@ -1183,6 +1216,7 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="J14" s="32" t="inlineStr"/>
     </row>
     <row r="15" ht="15.6" customHeight="1">
       <c r="A15" s="20" t="n">
@@ -1228,6 +1262,7 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="J15" s="32" t="inlineStr"/>
     </row>
     <row r="16" ht="15.6" customHeight="1">
       <c r="A16" s="20" t="n">
@@ -1273,6 +1308,7 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="J16" s="32" t="inlineStr"/>
     </row>
     <row r="17" ht="15.6" customHeight="1">
       <c r="A17" s="20" t="n">
@@ -1310,6 +1346,11 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="J17" s="34" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="18" ht="15.6" customHeight="1">
       <c r="A18" s="20" t="n">
@@ -1339,6 +1380,7 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="J18" s="32" t="inlineStr"/>
     </row>
     <row r="19" ht="15.6" customHeight="1">
       <c r="A19" s="20" t="n">
@@ -1372,6 +1414,11 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="J19" s="34" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="20" ht="15.6" customHeight="1">
       <c r="A20" s="20" t="n">
@@ -1405,6 +1452,11 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="J20" s="34" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="21" ht="15.6" customHeight="1">
       <c r="A21" s="20" t="n">
@@ -1446,6 +1498,11 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="J21" s="34" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="22" ht="15.6" customHeight="1">
       <c r="A22" s="20" t="n">
@@ -1491,6 +1548,7 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="J22" s="32" t="inlineStr"/>
     </row>
     <row r="23" ht="15.6" customHeight="1">
       <c r="A23" s="20" t="n">
@@ -1516,6 +1574,7 @@
       <c r="G23" s="28" t="inlineStr"/>
       <c r="H23" s="32" t="inlineStr"/>
       <c r="I23" s="29" t="inlineStr"/>
+      <c r="J23" s="32" t="inlineStr"/>
     </row>
     <row r="24" ht="15.6" customHeight="1">
       <c r="A24" s="20" t="n">
@@ -1549,6 +1608,7 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="J24" s="32" t="inlineStr"/>
     </row>
     <row r="25" ht="15.6" customHeight="1">
       <c r="A25" s="20" t="n">
@@ -1586,6 +1646,11 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="J25" s="34" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="26" ht="15.6" customHeight="1">
       <c r="A26" s="20" t="n">
@@ -1631,6 +1696,11 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="J26" s="34" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="27" ht="15.6" customHeight="1">
       <c r="A27" s="20" t="n">
@@ -1672,6 +1742,7 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="J27" s="32" t="inlineStr"/>
     </row>
     <row r="28" ht="15.6" customHeight="1">
       <c r="A28" s="20" t="n">
@@ -1709,6 +1780,7 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="J28" s="32" t="inlineStr"/>
     </row>
     <row r="29" ht="15.6" customHeight="1">
       <c r="A29" s="20" t="n">
@@ -1754,6 +1826,7 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="J29" s="32" t="inlineStr"/>
     </row>
     <row r="30" ht="15.6" customHeight="1">
       <c r="A30" s="20" t="n">
@@ -1771,6 +1844,7 @@
       <c r="G30" s="28" t="inlineStr"/>
       <c r="H30" s="32" t="inlineStr"/>
       <c r="I30" s="29" t="inlineStr"/>
+      <c r="J30" s="32" t="inlineStr"/>
     </row>
     <row r="31" ht="15.6" customHeight="1">
       <c r="A31" s="20" t="n">
@@ -1808,6 +1882,7 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="J31" s="32" t="inlineStr"/>
     </row>
     <row r="32" ht="15.6" customHeight="1">
       <c r="A32" s="20" t="n">
@@ -1845,6 +1920,11 @@
         </is>
       </c>
       <c r="I32" s="37" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="J32" s="34" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -1878,6 +1958,7 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="J33" s="32" t="inlineStr"/>
     </row>
     <row r="34" ht="15.6" customHeight="1">
       <c r="A34" s="20" t="n">
@@ -1923,6 +2004,11 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="J34" s="34" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="35" ht="15.6" customHeight="1">
       <c r="A35" s="20" t="n">
@@ -1964,6 +2050,11 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="J35" s="34" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="36" ht="15.6" customHeight="1">
       <c r="A36" s="20" t="n">
@@ -2009,6 +2100,11 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="J36" s="34" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="37" ht="15.6" customHeight="1">
       <c r="A37" s="20" t="n">
@@ -2050,6 +2146,7 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="J37" s="32" t="inlineStr"/>
     </row>
     <row r="38" ht="15.6" customHeight="1">
       <c r="A38" s="20" t="n">
@@ -2087,13 +2184,14 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="J38" s="32" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:B3"/>
     <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="H1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Excel/Bulanan/Excel/List Tugas Bulanan Ke-2 (30 Juli 2021 - 27 September 2021).xlsx
+++ b/Excel/Bulanan/Excel/List Tugas Bulanan Ke-2 (30 Juli 2021 - 27 September 2021).xlsx
@@ -857,8 +857,16 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="G4" s="28" t="inlineStr"/>
-      <c r="H4" s="32" t="inlineStr"/>
+      <c r="G4" s="30" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="H4" s="34" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="I4" s="37" t="inlineStr">
         <is>
           <t>ü</t>
@@ -902,7 +910,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="J5" s="32" t="inlineStr"/>
+      <c r="J5" s="34" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="6" ht="15.6" customHeight="1">
       <c r="A6" s="20" t="n">
@@ -1020,7 +1032,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="J8" s="32" t="inlineStr"/>
+      <c r="J8" s="34" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="9" ht="15.6" customHeight="1">
       <c r="A9" s="20" t="n">
@@ -1038,7 +1054,11 @@
       <c r="G9" s="28" t="inlineStr"/>
       <c r="H9" s="32" t="inlineStr"/>
       <c r="I9" s="29" t="inlineStr"/>
-      <c r="J9" s="32" t="inlineStr"/>
+      <c r="J9" s="34" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="10" ht="15.6" customHeight="1">
       <c r="A10" s="20" t="n">
@@ -1152,7 +1172,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="J12" s="32" t="inlineStr"/>
+      <c r="J12" s="34" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="13" ht="15.6" customHeight="1">
       <c r="A13" s="20" t="n">
@@ -1203,20 +1227,36 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="E14" s="28" t="inlineStr"/>
+      <c r="E14" s="30" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="F14" s="31" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
-      <c r="G14" s="28" t="inlineStr"/>
-      <c r="H14" s="32" t="inlineStr"/>
+      <c r="G14" s="30" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="H14" s="34" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="I14" s="37" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
-      <c r="J14" s="32" t="inlineStr"/>
+      <c r="J14" s="34" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="15" ht="15.6" customHeight="1">
       <c r="A15" s="20" t="n">
@@ -1262,7 +1302,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="J15" s="32" t="inlineStr"/>
+      <c r="J15" s="32" t="inlineStr">
+        <is>
+          <t>NON-MUS</t>
+        </is>
+      </c>
     </row>
     <row r="16" ht="15.6" customHeight="1">
       <c r="A16" s="20" t="n">
@@ -1308,7 +1352,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="J16" s="32" t="inlineStr"/>
+      <c r="J16" s="34" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="17" ht="15.6" customHeight="1">
       <c r="A17" s="20" t="n">
@@ -1487,7 +1535,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="G21" s="28" t="inlineStr"/>
+      <c r="G21" s="30" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="H21" s="34" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1548,7 +1600,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="J22" s="32" t="inlineStr"/>
+      <c r="J22" s="34" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="23" ht="15.6" customHeight="1">
       <c r="A23" s="20" t="n">
@@ -1608,7 +1664,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="J24" s="32" t="inlineStr"/>
+      <c r="J24" s="34" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="25" ht="15.6" customHeight="1">
       <c r="A25" s="20" t="n">
@@ -1742,7 +1802,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="J27" s="32" t="inlineStr"/>
+      <c r="J27" s="32" t="inlineStr">
+        <is>
+          <t>NON-MUS</t>
+        </is>
+      </c>
     </row>
     <row r="28" ht="15.6" customHeight="1">
       <c r="A28" s="20" t="n">
@@ -1826,7 +1890,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="J29" s="32" t="inlineStr"/>
+      <c r="J29" s="32" t="inlineStr">
+        <is>
+          <t>NON-MUS</t>
+        </is>
+      </c>
     </row>
     <row r="30" ht="15.6" customHeight="1">
       <c r="A30" s="20" t="n">
@@ -1882,7 +1950,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="J31" s="32" t="inlineStr"/>
+      <c r="J31" s="34" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="32" ht="15.6" customHeight="1">
       <c r="A32" s="20" t="n">
@@ -2146,7 +2218,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="J37" s="32" t="inlineStr"/>
+      <c r="J37" s="34" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="38" ht="15.6" customHeight="1">
       <c r="A38" s="20" t="n">
@@ -2184,7 +2260,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="J38" s="32" t="inlineStr"/>
+      <c r="J38" s="32" t="inlineStr">
+        <is>
+          <t>NON-MUS</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/Excel/Bulanan/Excel/List Tugas Bulanan Ke-2 (30 Juli 2021 - 27 September 2021).xlsx
+++ b/Excel/Bulanan/Excel/List Tugas Bulanan Ke-2 (30 Juli 2021 - 27 September 2021).xlsx
@@ -945,7 +945,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="G6" s="28" t="inlineStr"/>
+      <c r="G6" s="30" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="H6" s="34" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1025,7 +1029,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="G8" s="28" t="inlineStr"/>
+      <c r="G8" s="30" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="H8" s="32" t="inlineStr"/>
       <c r="I8" s="37" t="inlineStr">
         <is>
@@ -1492,8 +1500,16 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="F20" s="33" t="inlineStr"/>
-      <c r="G20" s="28" t="inlineStr"/>
+      <c r="F20" s="31" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G20" s="30" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="H20" s="32" t="inlineStr"/>
       <c r="I20" s="37" t="inlineStr">
         <is>
@@ -1699,7 +1715,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="G25" s="28" t="inlineStr"/>
+      <c r="G25" s="30" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="H25" s="32" t="inlineStr"/>
       <c r="I25" s="37" t="inlineStr">
         <is>
@@ -1838,13 +1858,21 @@
         </is>
       </c>
       <c r="G28" s="28" t="inlineStr"/>
-      <c r="H28" s="32" t="inlineStr"/>
+      <c r="H28" s="34" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="I28" s="37" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
-      <c r="J28" s="32" t="inlineStr"/>
+      <c r="J28" s="34" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="29" ht="15.6" customHeight="1">
       <c r="A29" s="20" t="n">
@@ -1985,7 +2013,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="G32" s="28" t="inlineStr"/>
+      <c r="G32" s="30" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="H32" s="34" t="inlineStr">
         <is>
           <t>ü</t>

--- a/Excel/Bulanan/Excel/List Tugas Bulanan Ke-2 (30 Juli 2021 - 27 September 2021).xlsx
+++ b/Excel/Bulanan/Excel/List Tugas Bulanan Ke-2 (30 Juli 2021 - 27 September 2021).xlsx
@@ -1134,7 +1134,11 @@
       <c r="G11" s="28" t="inlineStr"/>
       <c r="H11" s="32" t="inlineStr"/>
       <c r="I11" s="29" t="inlineStr"/>
-      <c r="J11" s="32" t="inlineStr"/>
+      <c r="J11" s="34" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="12" ht="15.6" customHeight="1">
       <c r="A12" s="20" t="n">
@@ -1214,7 +1218,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="J13" s="32" t="inlineStr"/>
+      <c r="J13" s="34" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="14" ht="15.6" customHeight="1">
       <c r="A14" s="20" t="n">
@@ -1436,7 +1444,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="J18" s="32" t="inlineStr"/>
+      <c r="J18" s="34" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="19" ht="15.6" customHeight="1">
       <c r="A19" s="20" t="n">
@@ -1463,7 +1475,11 @@
         </is>
       </c>
       <c r="F19" s="33" t="inlineStr"/>
-      <c r="G19" s="28" t="inlineStr"/>
+      <c r="G19" s="30" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="H19" s="32" t="inlineStr"/>
       <c r="I19" s="37" t="inlineStr">
         <is>
@@ -1644,9 +1660,17 @@
       </c>
       <c r="F23" s="33" t="inlineStr"/>
       <c r="G23" s="28" t="inlineStr"/>
-      <c r="H23" s="32" t="inlineStr"/>
+      <c r="H23" s="34" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="I23" s="29" t="inlineStr"/>
-      <c r="J23" s="32" t="inlineStr"/>
+      <c r="J23" s="34" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="24" ht="15.6" customHeight="1">
       <c r="A24" s="20" t="n">
@@ -1940,7 +1964,11 @@
       <c r="G30" s="28" t="inlineStr"/>
       <c r="H30" s="32" t="inlineStr"/>
       <c r="I30" s="29" t="inlineStr"/>
-      <c r="J30" s="32" t="inlineStr"/>
+      <c r="J30" s="34" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="31" ht="15.6" customHeight="1">
       <c r="A31" s="20" t="n">

--- a/Excel/Bulanan/Excel/List Tugas Bulanan Ke-2 (30 Juli 2021 - 27 September 2021).xlsx
+++ b/Excel/Bulanan/Excel/List Tugas Bulanan Ke-2 (30 Juli 2021 - 27 September 2021).xlsx
@@ -887,7 +887,11 @@
           <t>Alief Faza Rizqi Adi Jaya</t>
         </is>
       </c>
-      <c r="C5" s="28" t="inlineStr"/>
+      <c r="C5" s="30" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="D5" s="31" t="inlineStr">
         <is>
           <t>ü</t>
@@ -903,8 +907,16 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="G5" s="28" t="inlineStr"/>
-      <c r="H5" s="32" t="inlineStr"/>
+      <c r="G5" s="30" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="H5" s="34" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="I5" s="37" t="inlineStr">
         <is>
           <t>ü</t>
@@ -975,7 +987,11 @@
           <t>Arif Fathurrahman</t>
         </is>
       </c>
-      <c r="C7" s="28" t="inlineStr"/>
+      <c r="C7" s="30" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="D7" s="31" t="inlineStr">
         <is>
           <t>ü</t>
@@ -992,13 +1008,21 @@
         </is>
       </c>
       <c r="G7" s="28" t="inlineStr"/>
-      <c r="H7" s="32" t="inlineStr"/>
+      <c r="H7" s="34" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="I7" s="37" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
-      <c r="J7" s="32" t="inlineStr"/>
+      <c r="J7" s="34" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="8" ht="15.6" customHeight="1">
       <c r="A8" s="20" t="n">
@@ -1034,7 +1058,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="H8" s="32" t="inlineStr"/>
+      <c r="H8" s="34" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="I8" s="37" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1061,7 +1089,11 @@
       <c r="F9" s="33" t="inlineStr"/>
       <c r="G9" s="28" t="inlineStr"/>
       <c r="H9" s="32" t="inlineStr"/>
-      <c r="I9" s="29" t="inlineStr"/>
+      <c r="I9" s="37" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="J9" s="34" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1474,13 +1506,21 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="F19" s="33" t="inlineStr"/>
+      <c r="F19" s="31" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="G19" s="30" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
-      <c r="H19" s="32" t="inlineStr"/>
+      <c r="H19" s="34" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="I19" s="37" t="inlineStr">
         <is>
           <t>ü</t>

--- a/Excel/Bulanan/Excel/List Tugas Bulanan Ke-2 (30 Juli 2021 - 27 September 2021).xlsx
+++ b/Excel/Bulanan/Excel/List Tugas Bulanan Ke-2 (30 Juli 2021 - 27 September 2021).xlsx
@@ -1084,9 +1084,21 @@
         </is>
       </c>
       <c r="C9" s="28" t="inlineStr"/>
-      <c r="D9" s="33" t="inlineStr"/>
-      <c r="E9" s="28" t="inlineStr"/>
-      <c r="F9" s="33" t="inlineStr"/>
+      <c r="D9" s="31" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E9" s="30" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F9" s="31" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="G9" s="28" t="inlineStr"/>
       <c r="H9" s="32" t="inlineStr"/>
       <c r="I9" s="37" t="inlineStr">
@@ -1705,7 +1717,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="I23" s="29" t="inlineStr"/>
+      <c r="I23" s="37" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="J23" s="34" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1784,7 +1800,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="H25" s="32" t="inlineStr"/>
+      <c r="H25" s="34" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="I25" s="37" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1921,7 +1941,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="G28" s="28" t="inlineStr"/>
+      <c r="G28" s="30" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="H28" s="34" t="inlineStr">
         <is>
           <t>ü</t>

--- a/Excel/Bulanan/Excel/List Tugas Bulanan Ke-2 (30 Juli 2021 - 27 September 2021).xlsx
+++ b/Excel/Bulanan/Excel/List Tugas Bulanan Ke-2 (30 Juli 2021 - 27 September 2021).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Web Dev\Web Kelas\Excel\Bulanan\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19F6E6C4-1E44-4686-A007-44E82723C117}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{884FED48-4ABE-40A9-B1F7-48784B7C2625}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="57">
   <si>
     <t>No.</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t>MAT8</t>
+  </si>
+  <si>
+    <t>PBO3</t>
   </si>
   <si>
     <t>Abu Abdirrahman Zenky</t>
@@ -220,7 +223,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -239,6 +242,11 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFC8DD0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFEB972A"/>
       </patternFill>
     </fill>
@@ -249,7 +257,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFC8DD0"/>
+        <fgColor rgb="FFE66CB5"/>
       </patternFill>
     </fill>
   </fills>
@@ -304,7 +312,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -318,34 +326,43 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -359,7 +376,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -642,10 +659,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K38"/>
+  <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -657,32 +674,33 @@
     <col min="11" max="11" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18" customHeight="1">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:12" ht="18" customHeight="1">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="19" t="s">
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="20" t="s">
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="23" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="18" customHeight="1">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
+      <c r="L1" s="23"/>
+    </row>
+    <row r="2" spans="1:12" ht="18" customHeight="1">
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
       <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
@@ -707,1109 +725,1162 @@
       <c r="J2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="K2" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="15.6" customHeight="1">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="5" t="s">
+      <c r="L2" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15.6" customHeight="1">
+      <c r="A3" s="20"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="14" t="s">
+      <c r="K3" s="8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" ht="15.6" customHeight="1">
+      <c r="L3" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15.6" customHeight="1">
       <c r="A4" s="1">
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>20</v>
+      <c r="C4" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" s="14"/>
-    </row>
-    <row r="5" spans="1:11" ht="15.6" customHeight="1">
+        <v>21</v>
+      </c>
+      <c r="K4" s="8"/>
+      <c r="L4" s="16"/>
+    </row>
+    <row r="5" spans="1:12" ht="15.6" customHeight="1">
       <c r="A5" s="1">
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" s="14"/>
-    </row>
-    <row r="6" spans="1:11" ht="15.6" customHeight="1">
+        <v>21</v>
+      </c>
+      <c r="K5" s="8"/>
+      <c r="L5" s="16"/>
+    </row>
+    <row r="6" spans="1:12" ht="15.6" customHeight="1">
       <c r="A6" s="1">
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>20</v>
+        <v>23</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="K6" s="14"/>
-    </row>
-    <row r="7" spans="1:11" ht="15.6" customHeight="1">
+        <v>21</v>
+      </c>
+      <c r="K6" s="8"/>
+      <c r="L6" s="16"/>
+    </row>
+    <row r="7" spans="1:12" ht="15.6" customHeight="1">
       <c r="A7" s="1">
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="5"/>
+        <v>24</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="6"/>
       <c r="H7" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="K7" s="14"/>
-    </row>
-    <row r="8" spans="1:11" ht="15.6" customHeight="1">
+        <v>21</v>
+      </c>
+      <c r="K7" s="8"/>
+      <c r="L7" s="16"/>
+    </row>
+    <row r="8" spans="1:12" ht="15.6" customHeight="1">
       <c r="A8" s="1">
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>20</v>
+        <v>25</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="K8" s="14"/>
-    </row>
-    <row r="9" spans="1:11" ht="15.6" customHeight="1">
+        <v>21</v>
+      </c>
+      <c r="K8" s="8"/>
+      <c r="L8" s="16"/>
+    </row>
+    <row r="9" spans="1:12" ht="15.6" customHeight="1">
       <c r="A9" s="1">
         <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="9"/>
+        <v>26</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="6"/>
+      <c r="H9" s="13"/>
       <c r="I9" s="12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="K9" s="14"/>
-    </row>
-    <row r="10" spans="1:11" ht="15.6" customHeight="1">
+        <v>21</v>
+      </c>
+      <c r="K9" s="8"/>
+      <c r="L9" s="16"/>
+    </row>
+    <row r="10" spans="1:12" ht="15.6" customHeight="1">
       <c r="A10" s="1">
         <v>7</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>20</v>
+        <v>27</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="K10" s="14"/>
-    </row>
-    <row r="11" spans="1:11" ht="15.6" customHeight="1">
+        <v>21</v>
+      </c>
+      <c r="K10" s="8"/>
+      <c r="L10" s="16"/>
+    </row>
+    <row r="11" spans="1:12" ht="15.6" customHeight="1">
       <c r="A11" s="1">
         <v>8</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="6"/>
+        <v>28</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="7"/>
       <c r="J11" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="K11" s="14"/>
-    </row>
-    <row r="12" spans="1:11" ht="15.6" customHeight="1">
+        <v>21</v>
+      </c>
+      <c r="K11" s="8"/>
+      <c r="L11" s="16"/>
+    </row>
+    <row r="12" spans="1:12" ht="15.6" customHeight="1">
       <c r="A12" s="1">
         <v>9</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>20</v>
+        <v>29</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I12" s="12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="K12" s="14"/>
-    </row>
-    <row r="13" spans="1:11" ht="15.6" customHeight="1">
+        <v>21</v>
+      </c>
+      <c r="K12" s="8"/>
+      <c r="L12" s="16"/>
+    </row>
+    <row r="13" spans="1:12" ht="15.6" customHeight="1">
       <c r="A13" s="1">
         <v>10</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" s="10"/>
-      <c r="G13" s="5"/>
+        <v>30</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="14"/>
+      <c r="G13" s="6"/>
       <c r="H13" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="K13" s="14"/>
-    </row>
-    <row r="14" spans="1:11" ht="15.6" customHeight="1">
+        <v>21</v>
+      </c>
+      <c r="K13" s="8"/>
+      <c r="L13" s="16"/>
+    </row>
+    <row r="14" spans="1:12" ht="15.6" customHeight="1">
       <c r="A14" s="1">
         <v>11</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>20</v>
+        <v>31</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="K14" s="14"/>
-    </row>
-    <row r="15" spans="1:11" ht="15.6" customHeight="1">
+        <v>21</v>
+      </c>
+      <c r="K14" s="8"/>
+      <c r="L14" s="16"/>
+    </row>
+    <row r="15" spans="1:12" ht="15.6" customHeight="1">
       <c r="A15" s="1">
         <v>12</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F15" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>20</v>
+      <c r="C15" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I15" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="J15" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="K15" s="14"/>
-    </row>
-    <row r="16" spans="1:11" ht="15.6" customHeight="1">
+        <v>21</v>
+      </c>
+      <c r="J15" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="K15" s="8"/>
+      <c r="L15" s="16"/>
+    </row>
+    <row r="16" spans="1:12" ht="15.6" customHeight="1">
       <c r="A16" s="1">
         <v>13</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>20</v>
+        <v>34</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I16" s="12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="K16" s="14"/>
-    </row>
-    <row r="17" spans="1:11" ht="15.6" customHeight="1">
+        <v>21</v>
+      </c>
+      <c r="K16" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="L16" s="16"/>
+    </row>
+    <row r="17" spans="1:12" ht="15.6" customHeight="1">
       <c r="A17" s="1">
         <v>14</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G17" s="5"/>
+        <v>35</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" s="6"/>
       <c r="H17" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I17" s="12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J17" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="K17" s="14"/>
-    </row>
-    <row r="18" spans="1:11" ht="15.6" customHeight="1">
+        <v>21</v>
+      </c>
+      <c r="K17" s="8"/>
+      <c r="L17" s="16"/>
+    </row>
+    <row r="18" spans="1:12" ht="15.6" customHeight="1">
       <c r="A18" s="1">
         <v>15</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G18" s="5"/>
-      <c r="H18" s="9"/>
+        <v>36</v>
+      </c>
+      <c r="C18" s="6"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="6"/>
+      <c r="H18" s="13"/>
       <c r="I18" s="12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J18" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="K18" s="14"/>
-    </row>
-    <row r="19" spans="1:11" ht="15.6" customHeight="1">
+        <v>21</v>
+      </c>
+      <c r="K18" s="8"/>
+      <c r="L18" s="16"/>
+    </row>
+    <row r="19" spans="1:12" ht="15.6" customHeight="1">
       <c r="A19" s="1">
         <v>16</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>20</v>
+        <v>37</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I19" s="12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J19" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="K19" s="14"/>
-    </row>
-    <row r="20" spans="1:11" ht="15.6" customHeight="1">
+        <v>21</v>
+      </c>
+      <c r="K19" s="8"/>
+      <c r="L19" s="16"/>
+    </row>
+    <row r="20" spans="1:12" ht="15.6" customHeight="1">
       <c r="A20" s="1">
         <v>17</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>20</v>
+        <v>38</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I20" s="12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J20" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="K20" s="14"/>
-    </row>
-    <row r="21" spans="1:11" ht="15.6" customHeight="1">
+        <v>21</v>
+      </c>
+      <c r="K20" s="8"/>
+      <c r="L20" s="16"/>
+    </row>
+    <row r="21" spans="1:12" ht="15.6" customHeight="1">
       <c r="A21" s="1">
         <v>18</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>20</v>
+        <v>39</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I21" s="12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J21" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="K21" s="14"/>
-    </row>
-    <row r="22" spans="1:11" ht="15.6" customHeight="1">
+        <v>21</v>
+      </c>
+      <c r="K21" s="8"/>
+      <c r="L21" s="16"/>
+    </row>
+    <row r="22" spans="1:12" ht="15.6" customHeight="1">
       <c r="A22" s="1">
         <v>19</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>20</v>
+        <v>40</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I22" s="12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J22" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="K22" s="14"/>
-    </row>
-    <row r="23" spans="1:11" ht="15.6" customHeight="1">
+        <v>21</v>
+      </c>
+      <c r="K22" s="8"/>
+      <c r="L22" s="16"/>
+    </row>
+    <row r="23" spans="1:12" ht="15.6" customHeight="1">
       <c r="A23" s="1">
         <v>20</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F23" s="10"/>
-      <c r="G23" s="5"/>
+        <v>41</v>
+      </c>
+      <c r="C23" s="6"/>
+      <c r="D23" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" s="14"/>
+      <c r="G23" s="6"/>
       <c r="H23" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I23" s="12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J23" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="K23" s="14"/>
-    </row>
-    <row r="24" spans="1:11" ht="15.6" customHeight="1">
+        <v>21</v>
+      </c>
+      <c r="K23" s="8"/>
+      <c r="L23" s="16"/>
+    </row>
+    <row r="24" spans="1:12" ht="15.6" customHeight="1">
       <c r="A24" s="1">
         <v>21</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D24" s="10"/>
-      <c r="E24" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G24" s="5"/>
-      <c r="H24" s="9"/>
+        <v>42</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="14"/>
+      <c r="E24" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G24" s="6"/>
+      <c r="H24" s="13"/>
       <c r="I24" s="12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J24" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="K24" s="14"/>
-    </row>
-    <row r="25" spans="1:11" ht="15.6" customHeight="1">
+        <v>21</v>
+      </c>
+      <c r="K24" s="8"/>
+      <c r="L24" s="16"/>
+    </row>
+    <row r="25" spans="1:12" ht="15.6" customHeight="1">
       <c r="A25" s="1">
         <v>22</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>20</v>
+        <v>43</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I25" s="12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J25" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="K25" s="14"/>
-    </row>
-    <row r="26" spans="1:11" ht="15.6" customHeight="1">
+        <v>21</v>
+      </c>
+      <c r="K25" s="8"/>
+      <c r="L25" s="16"/>
+    </row>
+    <row r="26" spans="1:12" ht="15.6" customHeight="1">
       <c r="A26" s="1">
         <v>23</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>20</v>
+        <v>44</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I26" s="12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J26" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="K26" s="14"/>
-    </row>
-    <row r="27" spans="1:11" ht="15.6" customHeight="1">
+        <v>21</v>
+      </c>
+      <c r="K26" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="L26" s="16"/>
+    </row>
+    <row r="27" spans="1:12" ht="15.6" customHeight="1">
       <c r="A27" s="1">
         <v>24</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>20</v>
+        <v>45</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I27" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="J27" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="K27" s="14"/>
-    </row>
-    <row r="28" spans="1:11" ht="15.6" customHeight="1">
+        <v>21</v>
+      </c>
+      <c r="J27" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="K27" s="8"/>
+      <c r="L27" s="16"/>
+    </row>
+    <row r="28" spans="1:12" ht="15.6" customHeight="1">
       <c r="A28" s="1">
         <v>25</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>20</v>
+        <v>46</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I28" s="12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J28" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="K28" s="14"/>
-    </row>
-    <row r="29" spans="1:11" ht="15.6" customHeight="1">
+        <v>21</v>
+      </c>
+      <c r="K28" s="8"/>
+      <c r="L28" s="16"/>
+    </row>
+    <row r="29" spans="1:12" ht="15.6" customHeight="1">
       <c r="A29" s="1">
         <v>26</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>20</v>
+        <v>47</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I29" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="J29" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="K29" s="14"/>
-    </row>
-    <row r="30" spans="1:11" ht="15.6" customHeight="1">
+        <v>21</v>
+      </c>
+      <c r="J29" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="K29" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="L29" s="16"/>
+    </row>
+    <row r="30" spans="1:12" ht="15.6" customHeight="1">
       <c r="A30" s="1">
         <v>27</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C30" s="5"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="6"/>
+        <v>48</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="7"/>
       <c r="J30" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="K30" s="14"/>
-    </row>
-    <row r="31" spans="1:11" ht="15.6" customHeight="1">
+        <v>21</v>
+      </c>
+      <c r="K30" s="8"/>
+      <c r="L30" s="16"/>
+    </row>
+    <row r="31" spans="1:12" ht="15.6" customHeight="1">
       <c r="A31" s="1">
         <v>28</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>20</v>
+        <v>49</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I31" s="12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J31" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="K31" s="14"/>
-    </row>
-    <row r="32" spans="1:11" ht="15.6" customHeight="1">
+        <v>21</v>
+      </c>
+      <c r="K31" s="8"/>
+      <c r="L31" s="16"/>
+    </row>
+    <row r="32" spans="1:12" ht="15.6" customHeight="1">
       <c r="A32" s="1">
         <v>29</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F32" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>20</v>
+        <v>50</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I32" s="12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J32" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="K32" s="14"/>
-    </row>
-    <row r="33" spans="1:11" ht="15.6" customHeight="1">
+        <v>21</v>
+      </c>
+      <c r="K32" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="L32" s="16"/>
+    </row>
+    <row r="33" spans="1:12" ht="15.6" customHeight="1">
       <c r="A33" s="1">
         <v>30</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C33" s="5"/>
-      <c r="D33" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F33" s="10"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="9"/>
+        <v>51</v>
+      </c>
+      <c r="C33" s="6"/>
+      <c r="D33" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F33" s="14"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="13"/>
       <c r="I33" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="J33" s="9"/>
-      <c r="K33" s="14"/>
-    </row>
-    <row r="34" spans="1:11" ht="15.6" customHeight="1">
+        <v>21</v>
+      </c>
+      <c r="J33" s="13"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="16"/>
+    </row>
+    <row r="34" spans="1:12" ht="15.6" customHeight="1">
       <c r="A34" s="1">
         <v>31</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F34" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>20</v>
+        <v>52</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I34" s="12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J34" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="K34" s="14"/>
-    </row>
-    <row r="35" spans="1:11" ht="15.6" customHeight="1">
+        <v>21</v>
+      </c>
+      <c r="K34" s="8"/>
+      <c r="L34" s="16"/>
+    </row>
+    <row r="35" spans="1:12" ht="15.6" customHeight="1">
       <c r="A35" s="1">
         <v>32</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F35" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H35" s="9"/>
+        <v>53</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H35" s="13"/>
       <c r="I35" s="12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J35" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="K35" s="14"/>
-    </row>
-    <row r="36" spans="1:11" ht="15.6" customHeight="1">
+        <v>21</v>
+      </c>
+      <c r="K35" s="8"/>
+      <c r="L35" s="16"/>
+    </row>
+    <row r="36" spans="1:12" ht="15.6" customHeight="1">
       <c r="A36" s="1">
         <v>33</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F36" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>20</v>
+        <v>54</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I36" s="12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J36" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="K36" s="14"/>
-    </row>
-    <row r="37" spans="1:11" ht="15.6" customHeight="1">
+        <v>21</v>
+      </c>
+      <c r="K36" s="8"/>
+      <c r="L36" s="17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="15.6" customHeight="1">
       <c r="A37" s="1">
         <v>34</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F37" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H37" s="9"/>
+        <v>55</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F37" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G37" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H37" s="13"/>
       <c r="I37" s="12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J37" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="K37" s="14"/>
-    </row>
-    <row r="38" spans="1:11" ht="15.6" customHeight="1">
+        <v>21</v>
+      </c>
+      <c r="K37" s="8"/>
+      <c r="L37" s="16"/>
+    </row>
+    <row r="38" spans="1:12" ht="15.6" customHeight="1">
       <c r="A38" s="1">
         <v>35</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F38" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G38" s="5"/>
-      <c r="H38" s="9"/>
+        <v>56</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G38" s="6"/>
+      <c r="H38" s="11" t="s">
+        <v>21</v>
+      </c>
       <c r="I38" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="J38" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="K38" s="14"/>
+        <v>21</v>
+      </c>
+      <c r="J38" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="K38" s="8"/>
+      <c r="L38" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1817,7 +1888,7 @@
     <mergeCell ref="B1:B3"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:J1"/>
-    <mergeCell ref="K1"/>
+    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Excel/Bulanan/Excel/List Tugas Bulanan Ke-2 (30 Juli 2021 - 27 September 2021).xlsx
+++ b/Excel/Bulanan/Excel/List Tugas Bulanan Ke-2 (30 Juli 2021 - 27 September 2021).xlsx
@@ -289,19 +289,19 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -373,6 +373,9 @@
     <xf numFmtId="0" fontId="5" fillId="13" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -380,9 +383,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -728,10 +728,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L38"/>
+  <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -778,6 +778,8 @@
         </is>
       </c>
       <c r="L1" s="31" t="n"/>
+      <c r="M1" s="31" t="n"/>
+      <c r="N1" s="31" t="n"/>
     </row>
     <row r="2" ht="18" customHeight="1">
       <c r="A2" s="32" t="n"/>
@@ -832,6 +834,16 @@
           <t>Tugas 2</t>
         </is>
       </c>
+      <c r="M2" s="35" t="inlineStr">
+        <is>
+          <t>Tugas 3</t>
+        </is>
+      </c>
+      <c r="N2" s="35" t="inlineStr">
+        <is>
+          <t>Tugas 4</t>
+        </is>
+      </c>
     </row>
     <row r="3" ht="15.6" customHeight="1">
       <c r="A3" s="36" t="n"/>
@@ -886,6 +898,16 @@
           <t>PBO3</t>
         </is>
       </c>
+      <c r="M3" s="39" t="inlineStr">
+        <is>
+          <t>PAI8</t>
+        </is>
+      </c>
+      <c r="N3" s="39" t="inlineStr">
+        <is>
+          <t>BING5</t>
+        </is>
+      </c>
     </row>
     <row r="4" ht="15.6" customHeight="1">
       <c r="A4" s="27" t="n">
@@ -938,6 +960,12 @@
       </c>
       <c r="K4" s="39" t="inlineStr"/>
       <c r="L4" s="44" t="inlineStr"/>
+      <c r="M4" s="45" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="N4" s="44" t="inlineStr"/>
     </row>
     <row r="5" ht="15.6" customHeight="1">
       <c r="A5" s="27" t="n">
@@ -990,6 +1018,12 @@
       </c>
       <c r="K5" s="39" t="inlineStr"/>
       <c r="L5" s="44" t="inlineStr"/>
+      <c r="M5" s="45" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="N5" s="44" t="inlineStr"/>
     </row>
     <row r="6" ht="15.6" customHeight="1">
       <c r="A6" s="27" t="n">
@@ -1042,6 +1076,12 @@
       </c>
       <c r="K6" s="39" t="inlineStr"/>
       <c r="L6" s="44" t="inlineStr"/>
+      <c r="M6" s="45" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="N6" s="44" t="inlineStr"/>
     </row>
     <row r="7" ht="15.6" customHeight="1">
       <c r="A7" s="27" t="n">
@@ -1090,6 +1130,8 @@
       </c>
       <c r="K7" s="39" t="inlineStr"/>
       <c r="L7" s="44" t="inlineStr"/>
+      <c r="M7" s="39" t="inlineStr"/>
+      <c r="N7" s="44" t="inlineStr"/>
     </row>
     <row r="8" ht="15.6" customHeight="1">
       <c r="A8" s="27" t="n">
@@ -1142,6 +1184,8 @@
       </c>
       <c r="K8" s="39" t="inlineStr"/>
       <c r="L8" s="44" t="inlineStr"/>
+      <c r="M8" s="39" t="inlineStr"/>
+      <c r="N8" s="44" t="inlineStr"/>
     </row>
     <row r="9" ht="15.6" customHeight="1">
       <c r="A9" s="27" t="n">
@@ -1169,7 +1213,7 @@
         </is>
       </c>
       <c r="G9" s="37" t="inlineStr"/>
-      <c r="H9" s="45" t="inlineStr"/>
+      <c r="H9" s="46" t="inlineStr"/>
       <c r="I9" s="43" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1182,6 +1226,8 @@
       </c>
       <c r="K9" s="39" t="inlineStr"/>
       <c r="L9" s="44" t="inlineStr"/>
+      <c r="M9" s="39" t="inlineStr"/>
+      <c r="N9" s="44" t="inlineStr"/>
     </row>
     <row r="10" ht="15.6" customHeight="1">
       <c r="A10" s="27" t="n">
@@ -1233,11 +1279,17 @@
         </is>
       </c>
       <c r="K10" s="39" t="inlineStr"/>
-      <c r="L10" s="46" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
+      <c r="L10" s="47" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="M10" s="45" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="N10" s="44" t="inlineStr"/>
     </row>
     <row r="11" ht="15.6" customHeight="1">
       <c r="A11" s="27" t="n">
@@ -1249,11 +1301,11 @@
         </is>
       </c>
       <c r="C11" s="37" t="inlineStr"/>
-      <c r="D11" s="47" t="inlineStr"/>
+      <c r="D11" s="48" t="inlineStr"/>
       <c r="E11" s="37" t="inlineStr"/>
-      <c r="F11" s="47" t="inlineStr"/>
+      <c r="F11" s="48" t="inlineStr"/>
       <c r="G11" s="37" t="inlineStr"/>
-      <c r="H11" s="45" t="inlineStr"/>
+      <c r="H11" s="46" t="inlineStr"/>
       <c r="I11" s="38" t="inlineStr"/>
       <c r="J11" s="42" t="inlineStr">
         <is>
@@ -1262,6 +1314,8 @@
       </c>
       <c r="K11" s="39" t="inlineStr"/>
       <c r="L11" s="44" t="inlineStr"/>
+      <c r="M11" s="39" t="inlineStr"/>
+      <c r="N11" s="44" t="inlineStr"/>
     </row>
     <row r="12" ht="15.6" customHeight="1">
       <c r="A12" s="27" t="n">
@@ -1312,8 +1366,22 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="K12" s="39" t="inlineStr"/>
-      <c r="L12" s="44" t="inlineStr"/>
+      <c r="K12" s="45" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="L12" s="47" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="M12" s="45" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="N12" s="44" t="inlineStr"/>
     </row>
     <row r="13" ht="15.6" customHeight="1">
       <c r="A13" s="27" t="n">
@@ -1325,13 +1393,13 @@
         </is>
       </c>
       <c r="C13" s="37" t="inlineStr"/>
-      <c r="D13" s="47" t="inlineStr"/>
+      <c r="D13" s="48" t="inlineStr"/>
       <c r="E13" s="40" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
-      <c r="F13" s="47" t="inlineStr"/>
+      <c r="F13" s="48" t="inlineStr"/>
       <c r="G13" s="37" t="inlineStr"/>
       <c r="H13" s="42" t="inlineStr">
         <is>
@@ -1350,6 +1418,8 @@
       </c>
       <c r="K13" s="39" t="inlineStr"/>
       <c r="L13" s="44" t="inlineStr"/>
+      <c r="M13" s="39" t="inlineStr"/>
+      <c r="N13" s="44" t="inlineStr"/>
     </row>
     <row r="14" ht="15.6" customHeight="1">
       <c r="A14" s="27" t="n">
@@ -1400,16 +1470,22 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="K14" s="48" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="L14" s="46" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
+      <c r="K14" s="45" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="L14" s="47" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="M14" s="45" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="N14" s="44" t="inlineStr"/>
     </row>
     <row r="15" ht="15.6" customHeight="1">
       <c r="A15" s="27" t="n">
@@ -1455,13 +1531,23 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="J15" s="45" t="inlineStr">
+      <c r="J15" s="46" t="inlineStr">
         <is>
           <t>NON-MUS</t>
         </is>
       </c>
       <c r="K15" s="39" t="inlineStr"/>
-      <c r="L15" s="44" t="inlineStr"/>
+      <c r="L15" s="47" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="M15" s="39" t="inlineStr">
+        <is>
+          <t>NON-MUS</t>
+        </is>
+      </c>
+      <c r="N15" s="44" t="inlineStr"/>
     </row>
     <row r="16" ht="15.6" customHeight="1">
       <c r="A16" s="27" t="n">
@@ -1512,12 +1598,18 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="K16" s="48" t="inlineStr">
+      <c r="K16" s="45" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
       <c r="L16" s="44" t="inlineStr"/>
+      <c r="M16" s="45" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="N16" s="44" t="inlineStr"/>
     </row>
     <row r="17" ht="15.6" customHeight="1">
       <c r="A17" s="27" t="n">
@@ -1562,6 +1654,12 @@
       </c>
       <c r="K17" s="39" t="inlineStr"/>
       <c r="L17" s="44" t="inlineStr"/>
+      <c r="M17" s="45" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="N17" s="44" t="inlineStr"/>
     </row>
     <row r="18" ht="15.6" customHeight="1">
       <c r="A18" s="27" t="n">
@@ -1573,7 +1671,7 @@
         </is>
       </c>
       <c r="C18" s="37" t="inlineStr"/>
-      <c r="D18" s="47" t="inlineStr"/>
+      <c r="D18" s="48" t="inlineStr"/>
       <c r="E18" s="40" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1585,7 +1683,7 @@
         </is>
       </c>
       <c r="G18" s="37" t="inlineStr"/>
-      <c r="H18" s="45" t="inlineStr"/>
+      <c r="H18" s="46" t="inlineStr"/>
       <c r="I18" s="43" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1598,6 +1696,8 @@
       </c>
       <c r="K18" s="39" t="inlineStr"/>
       <c r="L18" s="44" t="inlineStr"/>
+      <c r="M18" s="39" t="inlineStr"/>
+      <c r="N18" s="44" t="inlineStr"/>
     </row>
     <row r="19" ht="15.6" customHeight="1">
       <c r="A19" s="27" t="n">
@@ -1650,6 +1750,8 @@
       </c>
       <c r="K19" s="39" t="inlineStr"/>
       <c r="L19" s="44" t="inlineStr"/>
+      <c r="M19" s="39" t="inlineStr"/>
+      <c r="N19" s="44" t="inlineStr"/>
     </row>
     <row r="20" ht="15.6" customHeight="1">
       <c r="A20" s="27" t="n">
@@ -1702,6 +1804,8 @@
       </c>
       <c r="K20" s="39" t="inlineStr"/>
       <c r="L20" s="44" t="inlineStr"/>
+      <c r="M20" s="39" t="inlineStr"/>
+      <c r="N20" s="44" t="inlineStr"/>
     </row>
     <row r="21" ht="15.6" customHeight="1">
       <c r="A21" s="27" t="n">
@@ -1752,8 +1856,22 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="K21" s="39" t="inlineStr"/>
+      <c r="K21" s="45" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="L21" s="44" t="inlineStr"/>
+      <c r="M21" s="45" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="N21" s="47" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="22" ht="15.6" customHeight="1">
       <c r="A22" s="27" t="n">
@@ -1804,12 +1922,14 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="K22" s="48" t="inlineStr">
+      <c r="K22" s="45" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
       <c r="L22" s="44" t="inlineStr"/>
+      <c r="M22" s="39" t="inlineStr"/>
+      <c r="N22" s="44" t="inlineStr"/>
     </row>
     <row r="23" ht="15.6" customHeight="1">
       <c r="A23" s="27" t="n">
@@ -1831,7 +1951,7 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="F23" s="47" t="inlineStr"/>
+      <c r="F23" s="48" t="inlineStr"/>
       <c r="G23" s="37" t="inlineStr"/>
       <c r="H23" s="42" t="inlineStr">
         <is>
@@ -1850,6 +1970,8 @@
       </c>
       <c r="K23" s="39" t="inlineStr"/>
       <c r="L23" s="44" t="inlineStr"/>
+      <c r="M23" s="39" t="inlineStr"/>
+      <c r="N23" s="44" t="inlineStr"/>
     </row>
     <row r="24" ht="15.6" customHeight="1">
       <c r="A24" s="27" t="n">
@@ -1865,7 +1987,7 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="D24" s="47" t="inlineStr"/>
+      <c r="D24" s="48" t="inlineStr"/>
       <c r="E24" s="40" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1877,7 +1999,7 @@
         </is>
       </c>
       <c r="G24" s="37" t="inlineStr"/>
-      <c r="H24" s="45" t="inlineStr"/>
+      <c r="H24" s="46" t="inlineStr"/>
       <c r="I24" s="43" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1890,6 +2012,8 @@
       </c>
       <c r="K24" s="39" t="inlineStr"/>
       <c r="L24" s="44" t="inlineStr"/>
+      <c r="M24" s="39" t="inlineStr"/>
+      <c r="N24" s="44" t="inlineStr"/>
     </row>
     <row r="25" ht="15.6" customHeight="1">
       <c r="A25" s="27" t="n">
@@ -1942,6 +2066,12 @@
       </c>
       <c r="K25" s="39" t="inlineStr"/>
       <c r="L25" s="44" t="inlineStr"/>
+      <c r="M25" s="45" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="N25" s="44" t="inlineStr"/>
     </row>
     <row r="26" ht="15.6" customHeight="1">
       <c r="A26" s="27" t="n">
@@ -1992,16 +2122,22 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="K26" s="48" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="L26" s="46" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
+      <c r="K26" s="45" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="L26" s="47" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="M26" s="45" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="N26" s="44" t="inlineStr"/>
     </row>
     <row r="27" ht="15.6" customHeight="1">
       <c r="A27" s="27" t="n">
@@ -2047,13 +2183,19 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="J27" s="45" t="inlineStr">
+      <c r="J27" s="46" t="inlineStr">
         <is>
           <t>NON-MUS</t>
         </is>
       </c>
       <c r="K27" s="39" t="inlineStr"/>
       <c r="L27" s="44" t="inlineStr"/>
+      <c r="M27" s="39" t="inlineStr">
+        <is>
+          <t>NON-MUS</t>
+        </is>
+      </c>
+      <c r="N27" s="44" t="inlineStr"/>
     </row>
     <row r="28" ht="15.6" customHeight="1">
       <c r="A28" s="27" t="n">
@@ -2106,6 +2248,8 @@
       </c>
       <c r="K28" s="39" t="inlineStr"/>
       <c r="L28" s="44" t="inlineStr"/>
+      <c r="M28" s="39" t="inlineStr"/>
+      <c r="N28" s="44" t="inlineStr"/>
     </row>
     <row r="29" ht="15.6" customHeight="1">
       <c r="A29" s="27" t="n">
@@ -2151,17 +2295,23 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="J29" s="45" t="inlineStr">
+      <c r="J29" s="46" t="inlineStr">
         <is>
           <t>NON-MUS</t>
         </is>
       </c>
-      <c r="K29" s="48" t="inlineStr">
+      <c r="K29" s="45" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
       <c r="L29" s="44" t="inlineStr"/>
+      <c r="M29" s="39" t="inlineStr">
+        <is>
+          <t>NON-MUS</t>
+        </is>
+      </c>
+      <c r="N29" s="44" t="inlineStr"/>
     </row>
     <row r="30" ht="15.6" customHeight="1">
       <c r="A30" s="27" t="n">
@@ -2173,11 +2323,11 @@
         </is>
       </c>
       <c r="C30" s="37" t="inlineStr"/>
-      <c r="D30" s="47" t="inlineStr"/>
+      <c r="D30" s="48" t="inlineStr"/>
       <c r="E30" s="37" t="inlineStr"/>
-      <c r="F30" s="47" t="inlineStr"/>
+      <c r="F30" s="48" t="inlineStr"/>
       <c r="G30" s="37" t="inlineStr"/>
-      <c r="H30" s="45" t="inlineStr"/>
+      <c r="H30" s="46" t="inlineStr"/>
       <c r="I30" s="38" t="inlineStr"/>
       <c r="J30" s="42" t="inlineStr">
         <is>
@@ -2186,6 +2336,12 @@
       </c>
       <c r="K30" s="39" t="inlineStr"/>
       <c r="L30" s="44" t="inlineStr"/>
+      <c r="M30" s="45" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="N30" s="44" t="inlineStr"/>
     </row>
     <row r="31" ht="15.6" customHeight="1">
       <c r="A31" s="27" t="n">
@@ -2236,8 +2392,14 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="K31" s="39" t="inlineStr"/>
+      <c r="K31" s="45" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="L31" s="44" t="inlineStr"/>
+      <c r="M31" s="39" t="inlineStr"/>
+      <c r="N31" s="44" t="inlineStr"/>
     </row>
     <row r="32" ht="15.6" customHeight="1">
       <c r="A32" s="27" t="n">
@@ -2288,12 +2450,22 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="K32" s="48" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="L32" s="44" t="inlineStr"/>
+      <c r="K32" s="45" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="L32" s="47" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="M32" s="45" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="N32" s="44" t="inlineStr"/>
     </row>
     <row r="33" ht="15.6" customHeight="1">
       <c r="A33" s="27" t="n">
@@ -2315,17 +2487,19 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="F33" s="47" t="inlineStr"/>
+      <c r="F33" s="48" t="inlineStr"/>
       <c r="G33" s="37" t="inlineStr"/>
-      <c r="H33" s="45" t="inlineStr"/>
+      <c r="H33" s="46" t="inlineStr"/>
       <c r="I33" s="43" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
-      <c r="J33" s="45" t="inlineStr"/>
+      <c r="J33" s="46" t="inlineStr"/>
       <c r="K33" s="39" t="inlineStr"/>
       <c r="L33" s="44" t="inlineStr"/>
+      <c r="M33" s="39" t="inlineStr"/>
+      <c r="N33" s="44" t="inlineStr"/>
     </row>
     <row r="34" ht="15.6" customHeight="1">
       <c r="A34" s="27" t="n">
@@ -2378,6 +2552,12 @@
       </c>
       <c r="K34" s="39" t="inlineStr"/>
       <c r="L34" s="44" t="inlineStr"/>
+      <c r="M34" s="45" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="N34" s="44" t="inlineStr"/>
     </row>
     <row r="35" ht="15.6" customHeight="1">
       <c r="A35" s="27" t="n">
@@ -2413,7 +2593,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="H35" s="45" t="inlineStr"/>
+      <c r="H35" s="42" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="I35" s="43" t="inlineStr">
         <is>
           <t>ü</t>
@@ -2425,7 +2609,17 @@
         </is>
       </c>
       <c r="K35" s="39" t="inlineStr"/>
-      <c r="L35" s="44" t="inlineStr"/>
+      <c r="L35" s="47" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="M35" s="45" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="N35" s="44" t="inlineStr"/>
     </row>
     <row r="36" ht="15.6" customHeight="1">
       <c r="A36" s="27" t="n">
@@ -2476,8 +2670,22 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="K36" s="39" t="inlineStr"/>
-      <c r="L36" s="46" t="inlineStr">
+      <c r="K36" s="45" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="L36" s="47" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="M36" s="45" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="N36" s="47" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -2517,7 +2725,7 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="H37" s="45" t="inlineStr"/>
+      <c r="H37" s="46" t="inlineStr"/>
       <c r="I37" s="43" t="inlineStr">
         <is>
           <t>ü</t>
@@ -2530,6 +2738,12 @@
       </c>
       <c r="K37" s="39" t="inlineStr"/>
       <c r="L37" s="44" t="inlineStr"/>
+      <c r="M37" s="45" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="N37" s="44" t="inlineStr"/>
     </row>
     <row r="38" ht="15.6" customHeight="1">
       <c r="A38" s="27" t="n">
@@ -2571,13 +2785,19 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="J38" s="45" t="inlineStr">
+      <c r="J38" s="46" t="inlineStr">
         <is>
           <t>NON-MUS</t>
         </is>
       </c>
       <c r="K38" s="39" t="inlineStr"/>
       <c r="L38" s="44" t="inlineStr"/>
+      <c r="M38" s="39" t="inlineStr">
+        <is>
+          <t>NON-MUS</t>
+        </is>
+      </c>
+      <c r="N38" s="44" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2585,7 +2805,7 @@
     <mergeCell ref="B1:B3"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:J1"/>
-    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="K1:N1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Excel/Bulanan/Excel/List Tugas Bulanan Ke-2 (30 Juli 2021 - 27 September 2021).xlsx
+++ b/Excel/Bulanan/Excel/List Tugas Bulanan Ke-2 (30 Juli 2021 - 27 September 2021).xlsx
@@ -120,7 +120,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -247,11 +247,39 @@
       <bottom style="thin"/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -385,6 +413,8 @@
     <xf numFmtId="0" fontId="5" fillId="11" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -728,7 +758,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N38"/>
+  <dimension ref="A1:O38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="K1" sqref="K1:N1"/>
@@ -780,6 +810,7 @@
       <c r="L1" s="31" t="n"/>
       <c r="M1" s="31" t="n"/>
       <c r="N1" s="31" t="n"/>
+      <c r="O1" s="31" t="n"/>
     </row>
     <row r="2" ht="18" customHeight="1">
       <c r="A2" s="32" t="n"/>
@@ -844,6 +875,11 @@
           <t>Tugas 4</t>
         </is>
       </c>
+      <c r="O2" s="35" t="inlineStr">
+        <is>
+          <t>Tugas 5</t>
+        </is>
+      </c>
     </row>
     <row r="3" ht="15.6" customHeight="1">
       <c r="A3" s="36" t="n"/>
@@ -908,6 +944,11 @@
           <t>BING5</t>
         </is>
       </c>
+      <c r="O3" s="39" t="inlineStr">
+        <is>
+          <t>PKK4</t>
+        </is>
+      </c>
     </row>
     <row r="4" ht="15.6" customHeight="1">
       <c r="A4" s="27" t="n">
@@ -966,6 +1007,11 @@
         </is>
       </c>
       <c r="N4" s="44" t="inlineStr"/>
+      <c r="O4" s="45" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="5" ht="15.6" customHeight="1">
       <c r="A5" s="27" t="n">
@@ -1024,6 +1070,7 @@
         </is>
       </c>
       <c r="N5" s="44" t="inlineStr"/>
+      <c r="O5" s="39" t="inlineStr"/>
     </row>
     <row r="6" ht="15.6" customHeight="1">
       <c r="A6" s="27" t="n">
@@ -1074,7 +1121,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="K6" s="39" t="inlineStr"/>
+      <c r="K6" s="45" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="L6" s="44" t="inlineStr"/>
       <c r="M6" s="45" t="inlineStr">
         <is>
@@ -1082,6 +1133,11 @@
         </is>
       </c>
       <c r="N6" s="44" t="inlineStr"/>
+      <c r="O6" s="45" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="7" ht="15.6" customHeight="1">
       <c r="A7" s="27" t="n">
@@ -1132,6 +1188,7 @@
       <c r="L7" s="44" t="inlineStr"/>
       <c r="M7" s="39" t="inlineStr"/>
       <c r="N7" s="44" t="inlineStr"/>
+      <c r="O7" s="39" t="inlineStr"/>
     </row>
     <row r="8" ht="15.6" customHeight="1">
       <c r="A8" s="27" t="n">
@@ -1184,8 +1241,17 @@
       </c>
       <c r="K8" s="39" t="inlineStr"/>
       <c r="L8" s="44" t="inlineStr"/>
-      <c r="M8" s="39" t="inlineStr"/>
+      <c r="M8" s="45" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="N8" s="44" t="inlineStr"/>
+      <c r="O8" s="45" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="9" ht="15.6" customHeight="1">
       <c r="A9" s="27" t="n">
@@ -1228,6 +1294,7 @@
       <c r="L9" s="44" t="inlineStr"/>
       <c r="M9" s="39" t="inlineStr"/>
       <c r="N9" s="44" t="inlineStr"/>
+      <c r="O9" s="39" t="inlineStr"/>
     </row>
     <row r="10" ht="15.6" customHeight="1">
       <c r="A10" s="27" t="n">
@@ -1290,6 +1357,11 @@
         </is>
       </c>
       <c r="N10" s="44" t="inlineStr"/>
+      <c r="O10" s="45" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="11" ht="15.6" customHeight="1">
       <c r="A11" s="27" t="n">
@@ -1316,6 +1388,7 @@
       <c r="L11" s="44" t="inlineStr"/>
       <c r="M11" s="39" t="inlineStr"/>
       <c r="N11" s="44" t="inlineStr"/>
+      <c r="O11" s="39" t="inlineStr"/>
     </row>
     <row r="12" ht="15.6" customHeight="1">
       <c r="A12" s="27" t="n">
@@ -1382,6 +1455,11 @@
         </is>
       </c>
       <c r="N12" s="44" t="inlineStr"/>
+      <c r="O12" s="45" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="13" ht="15.6" customHeight="1">
       <c r="A13" s="27" t="n">
@@ -1418,8 +1496,13 @@
       </c>
       <c r="K13" s="39" t="inlineStr"/>
       <c r="L13" s="44" t="inlineStr"/>
-      <c r="M13" s="39" t="inlineStr"/>
+      <c r="M13" s="45" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="N13" s="44" t="inlineStr"/>
+      <c r="O13" s="39" t="inlineStr"/>
     </row>
     <row r="14" ht="15.6" customHeight="1">
       <c r="A14" s="27" t="n">
@@ -1485,7 +1568,16 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="N14" s="44" t="inlineStr"/>
+      <c r="N14" s="47" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="O14" s="45" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="15" ht="15.6" customHeight="1">
       <c r="A15" s="27" t="n">
@@ -1548,6 +1640,11 @@
         </is>
       </c>
       <c r="N15" s="44" t="inlineStr"/>
+      <c r="O15" s="45" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="16" ht="15.6" customHeight="1">
       <c r="A16" s="27" t="n">
@@ -1610,6 +1707,7 @@
         </is>
       </c>
       <c r="N16" s="44" t="inlineStr"/>
+      <c r="O16" s="39" t="inlineStr"/>
     </row>
     <row r="17" ht="15.6" customHeight="1">
       <c r="A17" s="27" t="n">
@@ -1660,6 +1758,7 @@
         </is>
       </c>
       <c r="N17" s="44" t="inlineStr"/>
+      <c r="O17" s="39" t="inlineStr"/>
     </row>
     <row r="18" ht="15.6" customHeight="1">
       <c r="A18" s="27" t="n">
@@ -1698,6 +1797,7 @@
       <c r="L18" s="44" t="inlineStr"/>
       <c r="M18" s="39" t="inlineStr"/>
       <c r="N18" s="44" t="inlineStr"/>
+      <c r="O18" s="39" t="inlineStr"/>
     </row>
     <row r="19" ht="15.6" customHeight="1">
       <c r="A19" s="27" t="n">
@@ -1750,8 +1850,21 @@
       </c>
       <c r="K19" s="39" t="inlineStr"/>
       <c r="L19" s="44" t="inlineStr"/>
-      <c r="M19" s="39" t="inlineStr"/>
-      <c r="N19" s="44" t="inlineStr"/>
+      <c r="M19" s="45" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="N19" s="47" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="O19" s="45" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="20" ht="15.6" customHeight="1">
       <c r="A20" s="27" t="n">
@@ -1804,8 +1917,13 @@
       </c>
       <c r="K20" s="39" t="inlineStr"/>
       <c r="L20" s="44" t="inlineStr"/>
-      <c r="M20" s="39" t="inlineStr"/>
+      <c r="M20" s="45" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="N20" s="44" t="inlineStr"/>
+      <c r="O20" s="39" t="inlineStr"/>
     </row>
     <row r="21" ht="15.6" customHeight="1">
       <c r="A21" s="27" t="n">
@@ -1861,13 +1979,22 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="L21" s="44" t="inlineStr"/>
+      <c r="L21" s="47" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="M21" s="45" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
       <c r="N21" s="47" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="O21" s="45" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -1928,8 +2055,17 @@
         </is>
       </c>
       <c r="L22" s="44" t="inlineStr"/>
-      <c r="M22" s="39" t="inlineStr"/>
+      <c r="M22" s="45" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="N22" s="44" t="inlineStr"/>
+      <c r="O22" s="45" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="23" ht="15.6" customHeight="1">
       <c r="A23" s="27" t="n">
@@ -1972,6 +2108,7 @@
       <c r="L23" s="44" t="inlineStr"/>
       <c r="M23" s="39" t="inlineStr"/>
       <c r="N23" s="44" t="inlineStr"/>
+      <c r="O23" s="39" t="inlineStr"/>
     </row>
     <row r="24" ht="15.6" customHeight="1">
       <c r="A24" s="27" t="n">
@@ -2014,6 +2151,7 @@
       <c r="L24" s="44" t="inlineStr"/>
       <c r="M24" s="39" t="inlineStr"/>
       <c r="N24" s="44" t="inlineStr"/>
+      <c r="O24" s="39" t="inlineStr"/>
     </row>
     <row r="25" ht="15.6" customHeight="1">
       <c r="A25" s="27" t="n">
@@ -2072,6 +2210,11 @@
         </is>
       </c>
       <c r="N25" s="44" t="inlineStr"/>
+      <c r="O25" s="45" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="26" ht="15.6" customHeight="1">
       <c r="A26" s="27" t="n">
@@ -2138,6 +2281,11 @@
         </is>
       </c>
       <c r="N26" s="44" t="inlineStr"/>
+      <c r="O26" s="45" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="27" ht="15.6" customHeight="1">
       <c r="A27" s="27" t="n">
@@ -2196,6 +2344,11 @@
         </is>
       </c>
       <c r="N27" s="44" t="inlineStr"/>
+      <c r="O27" s="45" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="28" ht="15.6" customHeight="1">
       <c r="A28" s="27" t="n">
@@ -2248,8 +2401,17 @@
       </c>
       <c r="K28" s="39" t="inlineStr"/>
       <c r="L28" s="44" t="inlineStr"/>
-      <c r="M28" s="39" t="inlineStr"/>
+      <c r="M28" s="45" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="N28" s="44" t="inlineStr"/>
+      <c r="O28" s="45" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="29" ht="15.6" customHeight="1">
       <c r="A29" s="27" t="n">
@@ -2312,6 +2474,7 @@
         </is>
       </c>
       <c r="N29" s="44" t="inlineStr"/>
+      <c r="O29" s="39" t="inlineStr"/>
     </row>
     <row r="30" ht="15.6" customHeight="1">
       <c r="A30" s="27" t="n">
@@ -2341,7 +2504,12 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="N30" s="44" t="inlineStr"/>
+      <c r="N30" s="47" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="O30" s="39" t="inlineStr"/>
     </row>
     <row r="31" ht="15.6" customHeight="1">
       <c r="A31" s="27" t="n">
@@ -2397,9 +2565,18 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="L31" s="44" t="inlineStr"/>
-      <c r="M31" s="39" t="inlineStr"/>
+      <c r="L31" s="47" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="M31" s="45" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="N31" s="44" t="inlineStr"/>
+      <c r="O31" s="39" t="inlineStr"/>
     </row>
     <row r="32" ht="15.6" customHeight="1">
       <c r="A32" s="27" t="n">
@@ -2465,7 +2642,16 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="N32" s="44" t="inlineStr"/>
+      <c r="N32" s="47" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="O32" s="45" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="33" ht="15.6" customHeight="1">
       <c r="A33" s="27" t="n">
@@ -2500,6 +2686,7 @@
       <c r="L33" s="44" t="inlineStr"/>
       <c r="M33" s="39" t="inlineStr"/>
       <c r="N33" s="44" t="inlineStr"/>
+      <c r="O33" s="39" t="inlineStr"/>
     </row>
     <row r="34" ht="15.6" customHeight="1">
       <c r="A34" s="27" t="n">
@@ -2550,14 +2737,27 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="K34" s="39" t="inlineStr"/>
-      <c r="L34" s="44" t="inlineStr"/>
+      <c r="K34" s="45" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="L34" s="47" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="M34" s="45" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
       <c r="N34" s="44" t="inlineStr"/>
+      <c r="O34" s="45" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="35" ht="15.6" customHeight="1">
       <c r="A35" s="27" t="n">
@@ -2620,6 +2820,11 @@
         </is>
       </c>
       <c r="N35" s="44" t="inlineStr"/>
+      <c r="O35" s="45" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="36" ht="15.6" customHeight="1">
       <c r="A36" s="27" t="n">
@@ -2690,6 +2895,11 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="O36" s="45" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="37" ht="15.6" customHeight="1">
       <c r="A37" s="27" t="n">
@@ -2744,6 +2954,7 @@
         </is>
       </c>
       <c r="N37" s="44" t="inlineStr"/>
+      <c r="O37" s="39" t="inlineStr"/>
     </row>
     <row r="38" ht="15.6" customHeight="1">
       <c r="A38" s="27" t="n">
@@ -2791,13 +3002,18 @@
         </is>
       </c>
       <c r="K38" s="39" t="inlineStr"/>
-      <c r="L38" s="44" t="inlineStr"/>
+      <c r="L38" s="47" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="M38" s="39" t="inlineStr">
         <is>
           <t>NON-MUS</t>
         </is>
       </c>
       <c r="N38" s="44" t="inlineStr"/>
+      <c r="O38" s="39" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2805,7 +3021,7 @@
     <mergeCell ref="B1:B3"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:J1"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="K1:O1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Excel/Bulanan/Excel/List Tugas Bulanan Ke-2 (30 Juli 2021 - 27 September 2021).xlsx
+++ b/Excel/Bulanan/Excel/List Tugas Bulanan Ke-2 (30 Juli 2021 - 27 September 2021).xlsx
@@ -1923,7 +1923,11 @@
         </is>
       </c>
       <c r="N20" s="44" t="inlineStr"/>
-      <c r="O20" s="39" t="inlineStr"/>
+      <c r="O20" s="45" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="21" ht="15.6" customHeight="1">
       <c r="A21" s="27" t="n">

--- a/Excel/Bulanan/Excel/List Tugas Bulanan Ke-2 (30 Juli 2021 - 27 September 2021).xlsx
+++ b/Excel/Bulanan/Excel/List Tugas Bulanan Ke-2 (30 Juli 2021 - 27 September 2021).xlsx
@@ -1006,7 +1006,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="N4" s="44" t="inlineStr"/>
+      <c r="N4" s="47" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="O4" s="45" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1070,7 +1074,11 @@
         </is>
       </c>
       <c r="N5" s="44" t="inlineStr"/>
-      <c r="O5" s="39" t="inlineStr"/>
+      <c r="O5" s="45" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="6" ht="15.6" customHeight="1">
       <c r="A6" s="27" t="n">
@@ -1707,7 +1715,11 @@
         </is>
       </c>
       <c r="N16" s="44" t="inlineStr"/>
-      <c r="O16" s="39" t="inlineStr"/>
+      <c r="O16" s="45" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="17" ht="15.6" customHeight="1">
       <c r="A17" s="27" t="n">
@@ -2064,7 +2076,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="N22" s="44" t="inlineStr"/>
+      <c r="N22" s="47" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="O22" s="45" t="inlineStr">
         <is>
           <t>ü</t>
@@ -2110,7 +2126,11 @@
       </c>
       <c r="K23" s="39" t="inlineStr"/>
       <c r="L23" s="44" t="inlineStr"/>
-      <c r="M23" s="39" t="inlineStr"/>
+      <c r="M23" s="45" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="N23" s="44" t="inlineStr"/>
       <c r="O23" s="39" t="inlineStr"/>
     </row>
@@ -2471,14 +2491,22 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="L29" s="44" t="inlineStr"/>
+      <c r="L29" s="47" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="M29" s="39" t="inlineStr">
         <is>
           <t>NON-MUS</t>
         </is>
       </c>
       <c r="N29" s="44" t="inlineStr"/>
-      <c r="O29" s="39" t="inlineStr"/>
+      <c r="O29" s="45" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="30" ht="15.6" customHeight="1">
       <c r="A30" s="27" t="n">
@@ -3017,7 +3045,11 @@
         </is>
       </c>
       <c r="N38" s="44" t="inlineStr"/>
-      <c r="O38" s="39" t="inlineStr"/>
+      <c r="O38" s="45" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/Excel/Bulanan/Excel/List Tugas Bulanan Ke-2 (30 Juli 2021 - 27 September 2021).xlsx
+++ b/Excel/Bulanan/Excel/List Tugas Bulanan Ke-2 (30 Juli 2021 - 27 September 2021).xlsx
@@ -1247,7 +1247,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="K8" s="39" t="inlineStr"/>
+      <c r="K8" s="45" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="L8" s="44" t="inlineStr"/>
       <c r="M8" s="45" t="inlineStr">
         <is>
@@ -1807,7 +1811,11 @@
       </c>
       <c r="K18" s="39" t="inlineStr"/>
       <c r="L18" s="44" t="inlineStr"/>
-      <c r="M18" s="39" t="inlineStr"/>
+      <c r="M18" s="45" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="N18" s="44" t="inlineStr"/>
       <c r="O18" s="39" t="inlineStr"/>
     </row>
@@ -2226,7 +2234,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="K25" s="39" t="inlineStr"/>
+      <c r="K25" s="45" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="L25" s="44" t="inlineStr"/>
       <c r="M25" s="45" t="inlineStr">
         <is>
@@ -2360,7 +2372,11 @@
           <t>NON-MUS</t>
         </is>
       </c>
-      <c r="K27" s="39" t="inlineStr"/>
+      <c r="K27" s="45" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="L27" s="44" t="inlineStr"/>
       <c r="M27" s="39" t="inlineStr">
         <is>

--- a/Excel/Bulanan/Excel/List Tugas Bulanan Ke-2 (30 Juli 2021 - 27 September 2021).xlsx
+++ b/Excel/Bulanan/Excel/List Tugas Bulanan Ke-2 (30 Juli 2021 - 27 September 2021).xlsx
@@ -52,7 +52,7 @@
       <sz val="14"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="16">
     <fill>
       <patternFill/>
     </fill>
@@ -117,6 +117,16 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="00e66cb5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008ef5f3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0038e8e5"/>
       </patternFill>
     </fill>
   </fills>
@@ -279,7 +289,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -415,6 +425,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -758,7 +783,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O38"/>
+  <dimension ref="A1:Q38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="K1" sqref="K1:N1"/>
@@ -811,6 +836,12 @@
       <c r="M1" s="31" t="n"/>
       <c r="N1" s="31" t="n"/>
       <c r="O1" s="31" t="n"/>
+      <c r="P1" s="51" t="inlineStr">
+        <is>
+          <t>Minggu Ke-5</t>
+        </is>
+      </c>
+      <c r="Q1" s="51" t="n"/>
     </row>
     <row r="2" ht="18" customHeight="1">
       <c r="A2" s="32" t="n"/>
@@ -880,6 +911,16 @@
           <t>Tugas 5</t>
         </is>
       </c>
+      <c r="P2" s="52" t="inlineStr">
+        <is>
+          <t>Tugas 1</t>
+        </is>
+      </c>
+      <c r="Q2" s="52" t="inlineStr">
+        <is>
+          <t>Tugas 2</t>
+        </is>
+      </c>
     </row>
     <row r="3" ht="15.6" customHeight="1">
       <c r="A3" s="36" t="n"/>
@@ -949,6 +990,16 @@
           <t>PKK4</t>
         </is>
       </c>
+      <c r="P3" s="53" t="inlineStr">
+        <is>
+          <t>MAT9</t>
+        </is>
+      </c>
+      <c r="Q3" s="53" t="inlineStr">
+        <is>
+          <t>PJOK1</t>
+        </is>
+      </c>
     </row>
     <row r="4" ht="15.6" customHeight="1">
       <c r="A4" s="27" t="n">
@@ -999,8 +1050,16 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="K4" s="39" t="inlineStr"/>
-      <c r="L4" s="44" t="inlineStr"/>
+      <c r="K4" s="45" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="L4" s="47" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="M4" s="45" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1016,6 +1075,8 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="P4" s="54" t="inlineStr"/>
+      <c r="Q4" s="53" t="inlineStr"/>
     </row>
     <row r="5" ht="15.6" customHeight="1">
       <c r="A5" s="27" t="n">
@@ -1066,7 +1127,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="K5" s="39" t="inlineStr"/>
+      <c r="K5" s="45" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="L5" s="44" t="inlineStr"/>
       <c r="M5" s="45" t="inlineStr">
         <is>
@@ -1079,6 +1144,8 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="P5" s="54" t="inlineStr"/>
+      <c r="Q5" s="53" t="inlineStr"/>
     </row>
     <row r="6" ht="15.6" customHeight="1">
       <c r="A6" s="27" t="n">
@@ -1146,6 +1213,8 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="P6" s="54" t="inlineStr"/>
+      <c r="Q6" s="53" t="inlineStr"/>
     </row>
     <row r="7" ht="15.6" customHeight="1">
       <c r="A7" s="27" t="n">
@@ -1197,6 +1266,8 @@
       <c r="M7" s="39" t="inlineStr"/>
       <c r="N7" s="44" t="inlineStr"/>
       <c r="O7" s="39" t="inlineStr"/>
+      <c r="P7" s="54" t="inlineStr"/>
+      <c r="Q7" s="53" t="inlineStr"/>
     </row>
     <row r="8" ht="15.6" customHeight="1">
       <c r="A8" s="27" t="n">
@@ -1264,6 +1335,8 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="P8" s="54" t="inlineStr"/>
+      <c r="Q8" s="53" t="inlineStr"/>
     </row>
     <row r="9" ht="15.6" customHeight="1">
       <c r="A9" s="27" t="n">
@@ -1304,9 +1377,15 @@
       </c>
       <c r="K9" s="39" t="inlineStr"/>
       <c r="L9" s="44" t="inlineStr"/>
-      <c r="M9" s="39" t="inlineStr"/>
+      <c r="M9" s="45" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="N9" s="44" t="inlineStr"/>
       <c r="O9" s="39" t="inlineStr"/>
+      <c r="P9" s="54" t="inlineStr"/>
+      <c r="Q9" s="53" t="inlineStr"/>
     </row>
     <row r="10" ht="15.6" customHeight="1">
       <c r="A10" s="27" t="n">
@@ -1357,7 +1436,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="K10" s="39" t="inlineStr"/>
+      <c r="K10" s="45" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="L10" s="47" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1368,12 +1451,18 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="N10" s="44" t="inlineStr"/>
+      <c r="N10" s="47" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="O10" s="45" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
+      <c r="P10" s="54" t="inlineStr"/>
+      <c r="Q10" s="53" t="inlineStr"/>
     </row>
     <row r="11" ht="15.6" customHeight="1">
       <c r="A11" s="27" t="n">
@@ -1401,6 +1490,8 @@
       <c r="M11" s="39" t="inlineStr"/>
       <c r="N11" s="44" t="inlineStr"/>
       <c r="O11" s="39" t="inlineStr"/>
+      <c r="P11" s="54" t="inlineStr"/>
+      <c r="Q11" s="53" t="inlineStr"/>
     </row>
     <row r="12" ht="15.6" customHeight="1">
       <c r="A12" s="27" t="n">
@@ -1466,12 +1557,22 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="N12" s="44" t="inlineStr"/>
+      <c r="N12" s="47" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="O12" s="45" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
+      <c r="P12" s="55" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="Q12" s="53" t="inlineStr"/>
     </row>
     <row r="13" ht="15.6" customHeight="1">
       <c r="A13" s="27" t="n">
@@ -1515,6 +1616,8 @@
       </c>
       <c r="N13" s="44" t="inlineStr"/>
       <c r="O13" s="39" t="inlineStr"/>
+      <c r="P13" s="54" t="inlineStr"/>
+      <c r="Q13" s="53" t="inlineStr"/>
     </row>
     <row r="14" ht="15.6" customHeight="1">
       <c r="A14" s="27" t="n">
@@ -1590,6 +1693,8 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="P14" s="54" t="inlineStr"/>
+      <c r="Q14" s="53" t="inlineStr"/>
     </row>
     <row r="15" ht="15.6" customHeight="1">
       <c r="A15" s="27" t="n">
@@ -1640,7 +1745,11 @@
           <t>NON-MUS</t>
         </is>
       </c>
-      <c r="K15" s="39" t="inlineStr"/>
+      <c r="K15" s="45" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="L15" s="47" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1651,12 +1760,18 @@
           <t>NON-MUS</t>
         </is>
       </c>
-      <c r="N15" s="44" t="inlineStr"/>
+      <c r="N15" s="47" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="O15" s="45" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
+      <c r="P15" s="54" t="inlineStr"/>
+      <c r="Q15" s="53" t="inlineStr"/>
     </row>
     <row r="16" ht="15.6" customHeight="1">
       <c r="A16" s="27" t="n">
@@ -1724,6 +1839,8 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="P16" s="54" t="inlineStr"/>
+      <c r="Q16" s="53" t="inlineStr"/>
     </row>
     <row r="17" ht="15.6" customHeight="1">
       <c r="A17" s="27" t="n">
@@ -1766,7 +1883,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="K17" s="39" t="inlineStr"/>
+      <c r="K17" s="45" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="L17" s="44" t="inlineStr"/>
       <c r="M17" s="45" t="inlineStr">
         <is>
@@ -1775,6 +1896,8 @@
       </c>
       <c r="N17" s="44" t="inlineStr"/>
       <c r="O17" s="39" t="inlineStr"/>
+      <c r="P17" s="54" t="inlineStr"/>
+      <c r="Q17" s="53" t="inlineStr"/>
     </row>
     <row r="18" ht="15.6" customHeight="1">
       <c r="A18" s="27" t="n">
@@ -1816,8 +1939,14 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="N18" s="44" t="inlineStr"/>
+      <c r="N18" s="47" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="O18" s="39" t="inlineStr"/>
+      <c r="P18" s="54" t="inlineStr"/>
+      <c r="Q18" s="53" t="inlineStr"/>
     </row>
     <row r="19" ht="15.6" customHeight="1">
       <c r="A19" s="27" t="n">
@@ -1885,6 +2014,8 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="P19" s="54" t="inlineStr"/>
+      <c r="Q19" s="53" t="inlineStr"/>
     </row>
     <row r="20" ht="15.6" customHeight="1">
       <c r="A20" s="27" t="n">
@@ -1935,7 +2066,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="K20" s="39" t="inlineStr"/>
+      <c r="K20" s="45" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="L20" s="44" t="inlineStr"/>
       <c r="M20" s="45" t="inlineStr">
         <is>
@@ -1948,6 +2083,8 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="P20" s="54" t="inlineStr"/>
+      <c r="Q20" s="53" t="inlineStr"/>
     </row>
     <row r="21" ht="15.6" customHeight="1">
       <c r="A21" s="27" t="n">
@@ -2023,6 +2160,8 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="P21" s="54" t="inlineStr"/>
+      <c r="Q21" s="53" t="inlineStr"/>
     </row>
     <row r="22" ht="15.6" customHeight="1">
       <c r="A22" s="27" t="n">
@@ -2094,6 +2233,8 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="P22" s="54" t="inlineStr"/>
+      <c r="Q22" s="53" t="inlineStr"/>
     </row>
     <row r="23" ht="15.6" customHeight="1">
       <c r="A23" s="27" t="n">
@@ -2141,6 +2282,8 @@
       </c>
       <c r="N23" s="44" t="inlineStr"/>
       <c r="O23" s="39" t="inlineStr"/>
+      <c r="P23" s="54" t="inlineStr"/>
+      <c r="Q23" s="53" t="inlineStr"/>
     </row>
     <row r="24" ht="15.6" customHeight="1">
       <c r="A24" s="27" t="n">
@@ -2184,6 +2327,8 @@
       <c r="M24" s="39" t="inlineStr"/>
       <c r="N24" s="44" t="inlineStr"/>
       <c r="O24" s="39" t="inlineStr"/>
+      <c r="P24" s="54" t="inlineStr"/>
+      <c r="Q24" s="53" t="inlineStr"/>
     </row>
     <row r="25" ht="15.6" customHeight="1">
       <c r="A25" s="27" t="n">
@@ -2239,18 +2384,28 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="L25" s="44" t="inlineStr"/>
+      <c r="L25" s="47" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="M25" s="45" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
-      <c r="N25" s="44" t="inlineStr"/>
+      <c r="N25" s="47" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="O25" s="45" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
+      <c r="P25" s="54" t="inlineStr"/>
+      <c r="Q25" s="53" t="inlineStr"/>
     </row>
     <row r="26" ht="15.6" customHeight="1">
       <c r="A26" s="27" t="n">
@@ -2322,6 +2477,12 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="P26" s="55" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="Q26" s="53" t="inlineStr"/>
     </row>
     <row r="27" ht="15.6" customHeight="1">
       <c r="A27" s="27" t="n">
@@ -2389,6 +2550,8 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="P27" s="54" t="inlineStr"/>
+      <c r="Q27" s="53" t="inlineStr"/>
     </row>
     <row r="28" ht="15.6" customHeight="1">
       <c r="A28" s="27" t="n">
@@ -2439,19 +2602,29 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="K28" s="39" t="inlineStr"/>
+      <c r="K28" s="45" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="L28" s="44" t="inlineStr"/>
       <c r="M28" s="45" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
-      <c r="N28" s="44" t="inlineStr"/>
+      <c r="N28" s="47" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="O28" s="45" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
+      <c r="P28" s="54" t="inlineStr"/>
+      <c r="Q28" s="53" t="inlineStr"/>
     </row>
     <row r="29" ht="15.6" customHeight="1">
       <c r="A29" s="27" t="n">
@@ -2523,6 +2696,8 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="P29" s="54" t="inlineStr"/>
+      <c r="Q29" s="53" t="inlineStr"/>
     </row>
     <row r="30" ht="15.6" customHeight="1">
       <c r="A30" s="27" t="n">
@@ -2558,6 +2733,8 @@
         </is>
       </c>
       <c r="O30" s="39" t="inlineStr"/>
+      <c r="P30" s="54" t="inlineStr"/>
+      <c r="Q30" s="53" t="inlineStr"/>
     </row>
     <row r="31" ht="15.6" customHeight="1">
       <c r="A31" s="27" t="n">
@@ -2625,6 +2802,8 @@
       </c>
       <c r="N31" s="44" t="inlineStr"/>
       <c r="O31" s="39" t="inlineStr"/>
+      <c r="P31" s="54" t="inlineStr"/>
+      <c r="Q31" s="53" t="inlineStr"/>
     </row>
     <row r="32" ht="15.6" customHeight="1">
       <c r="A32" s="27" t="n">
@@ -2700,6 +2879,8 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="P32" s="54" t="inlineStr"/>
+      <c r="Q32" s="53" t="inlineStr"/>
     </row>
     <row r="33" ht="15.6" customHeight="1">
       <c r="A33" s="27" t="n">
@@ -2735,6 +2916,8 @@
       <c r="M33" s="39" t="inlineStr"/>
       <c r="N33" s="44" t="inlineStr"/>
       <c r="O33" s="39" t="inlineStr"/>
+      <c r="P33" s="54" t="inlineStr"/>
+      <c r="Q33" s="53" t="inlineStr"/>
     </row>
     <row r="34" ht="15.6" customHeight="1">
       <c r="A34" s="27" t="n">
@@ -2806,6 +2989,8 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="P34" s="54" t="inlineStr"/>
+      <c r="Q34" s="53" t="inlineStr"/>
     </row>
     <row r="35" ht="15.6" customHeight="1">
       <c r="A35" s="27" t="n">
@@ -2873,6 +3058,8 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="P35" s="54" t="inlineStr"/>
+      <c r="Q35" s="53" t="inlineStr"/>
     </row>
     <row r="36" ht="15.6" customHeight="1">
       <c r="A36" s="27" t="n">
@@ -2948,6 +3135,8 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="P36" s="54" t="inlineStr"/>
+      <c r="Q36" s="53" t="inlineStr"/>
     </row>
     <row r="37" ht="15.6" customHeight="1">
       <c r="A37" s="27" t="n">
@@ -3003,6 +3192,8 @@
       </c>
       <c r="N37" s="44" t="inlineStr"/>
       <c r="O37" s="39" t="inlineStr"/>
+      <c r="P37" s="54" t="inlineStr"/>
+      <c r="Q37" s="53" t="inlineStr"/>
     </row>
     <row r="38" ht="15.6" customHeight="1">
       <c r="A38" s="27" t="n">
@@ -3049,7 +3240,11 @@
           <t>NON-MUS</t>
         </is>
       </c>
-      <c r="K38" s="39" t="inlineStr"/>
+      <c r="K38" s="45" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="L38" s="47" t="inlineStr">
         <is>
           <t>ü</t>
@@ -3066,14 +3261,17 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="P38" s="54" t="inlineStr"/>
+      <c r="Q38" s="53" t="inlineStr"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:B3"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="K1:O1"/>
+    <mergeCell ref="P1:Q1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Excel/Bulanan/Excel/List Tugas Bulanan Ke-2 (30 Juli 2021 - 27 September 2021).xlsx
+++ b/Excel/Bulanan/Excel/List Tugas Bulanan Ke-2 (30 Juli 2021 - 27 September 2021).xlsx
@@ -1207,7 +1207,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="N6" s="44" t="inlineStr"/>
+      <c r="N6" s="47" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="O6" s="45" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1614,7 +1618,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="N13" s="44" t="inlineStr"/>
+      <c r="N13" s="47" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="O13" s="39" t="inlineStr"/>
       <c r="P13" s="54" t="inlineStr"/>
       <c r="Q13" s="53" t="inlineStr"/>
@@ -3041,7 +3049,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="K35" s="39" t="inlineStr"/>
+      <c r="K35" s="45" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="L35" s="47" t="inlineStr">
         <is>
           <t>ü</t>

--- a/Excel/Bulanan/Excel/List Tugas Bulanan Ke-2 (30 Juli 2021 - 27 September 2021).xlsx
+++ b/Excel/Bulanan/Excel/List Tugas Bulanan Ke-2 (30 Juli 2021 - 27 September 2021).xlsx
@@ -1268,7 +1268,11 @@
       <c r="K7" s="39" t="inlineStr"/>
       <c r="L7" s="44" t="inlineStr"/>
       <c r="M7" s="39" t="inlineStr"/>
-      <c r="N7" s="44" t="inlineStr"/>
+      <c r="N7" s="47" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="O7" s="39" t="inlineStr"/>
       <c r="P7" s="54" t="inlineStr"/>
       <c r="Q7" s="53" t="inlineStr"/>
@@ -2225,7 +2229,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="L22" s="44" t="inlineStr"/>
+      <c r="L22" s="47" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="M22" s="45" t="inlineStr">
         <is>
           <t>ü</t>
@@ -2546,13 +2554,21 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="L27" s="44" t="inlineStr"/>
+      <c r="L27" s="47" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="M27" s="39" t="inlineStr">
         <is>
           <t>NON-MUS</t>
         </is>
       </c>
-      <c r="N27" s="44" t="inlineStr"/>
+      <c r="N27" s="47" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="O27" s="45" t="inlineStr">
         <is>
           <t>ü</t>
@@ -3184,7 +3200,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="H37" s="46" t="inlineStr"/>
+      <c r="H37" s="42" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="I37" s="43" t="inlineStr">
         <is>
           <t>ü</t>
@@ -3195,15 +3215,27 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="K37" s="39" t="inlineStr"/>
-      <c r="L37" s="44" t="inlineStr"/>
+      <c r="K37" s="45" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="L37" s="47" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="M37" s="45" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
       <c r="N37" s="44" t="inlineStr"/>
-      <c r="O37" s="39" t="inlineStr"/>
+      <c r="O37" s="45" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="P37" s="54" t="inlineStr"/>
       <c r="Q37" s="53" t="inlineStr"/>
     </row>

--- a/Excel/Bulanan/Excel/List Tugas Bulanan Ke-2 (30 Juli 2021 - 27 September 2021).xlsx
+++ b/Excel/Bulanan/Excel/List Tugas Bulanan Ke-2 (30 Juli 2021 - 27 September 2021).xlsx
@@ -1839,7 +1839,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="L16" s="44" t="inlineStr"/>
+      <c r="L16" s="47" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="M16" s="45" t="inlineStr">
         <is>
           <t>ü</t>

--- a/Excel/Bulanan/Excel/List Tugas Bulanan Ke-2 (30 Juli 2021 - 27 September 2021).xlsx
+++ b/Excel/Bulanan/Excel/List Tugas Bulanan Ke-2 (30 Juli 2021 - 27 September 2021).xlsx
@@ -1201,7 +1201,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="L6" s="44" t="inlineStr"/>
+      <c r="L6" s="47" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="M6" s="45" t="inlineStr">
         <is>
           <t>ü</t>

--- a/Excel/Bulanan/Excel/List Tugas Bulanan Ke-2 (30 Juli 2021 - 27 September 2021).xlsx
+++ b/Excel/Bulanan/Excel/List Tugas Bulanan Ke-2 (30 Juli 2021 - 27 September 2021).xlsx
@@ -1335,13 +1335,21 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="L8" s="44" t="inlineStr"/>
+      <c r="L8" s="47" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="M8" s="45" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
-      <c r="N8" s="44" t="inlineStr"/>
+      <c r="N8" s="47" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="O8" s="45" t="inlineStr">
         <is>
           <t>ü</t>
@@ -2495,7 +2503,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="N26" s="44" t="inlineStr"/>
+      <c r="N26" s="47" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="O26" s="45" t="inlineStr">
         <is>
           <t>ü</t>
@@ -2946,7 +2958,11 @@
       <c r="K33" s="39" t="inlineStr"/>
       <c r="L33" s="44" t="inlineStr"/>
       <c r="M33" s="39" t="inlineStr"/>
-      <c r="N33" s="44" t="inlineStr"/>
+      <c r="N33" s="47" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="O33" s="39" t="inlineStr"/>
       <c r="P33" s="54" t="inlineStr"/>
       <c r="Q33" s="53" t="inlineStr"/>
@@ -3088,7 +3104,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="N35" s="44" t="inlineStr"/>
+      <c r="N35" s="47" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="O35" s="45" t="inlineStr">
         <is>
           <t>ü</t>

--- a/Excel/Bulanan/Excel/List Tugas Bulanan Ke-2 (30 Juli 2021 - 27 September 2021).xlsx
+++ b/Excel/Bulanan/Excel/List Tugas Bulanan Ke-2 (30 Juli 2021 - 27 September 2021).xlsx
@@ -2734,7 +2734,11 @@
           <t>NON-MUS</t>
         </is>
       </c>
-      <c r="N29" s="44" t="inlineStr"/>
+      <c r="N29" s="47" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="O29" s="45" t="inlineStr">
         <is>
           <t>ü</t>
@@ -3191,7 +3195,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="P36" s="54" t="inlineStr"/>
+      <c r="P36" s="55" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="Q36" s="53" t="inlineStr"/>
     </row>
     <row r="37" ht="15.6" customHeight="1">
@@ -3327,7 +3335,11 @@
           <t>NON-MUS</t>
         </is>
       </c>
-      <c r="N38" s="44" t="inlineStr"/>
+      <c r="N38" s="47" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="O38" s="45" t="inlineStr">
         <is>
           <t>ü</t>

--- a/Excel/Bulanan/Excel/List Tugas Bulanan Ke-2 (30 Juli 2021 - 27 September 2021).xlsx
+++ b/Excel/Bulanan/Excel/List Tugas Bulanan Ke-2 (30 Juli 2021 - 27 September 2021).xlsx
@@ -838,7 +838,7 @@
       <c r="O1" s="31" t="n"/>
       <c r="P1" s="51" t="inlineStr">
         <is>
-          <t>Minggu Ke-5</t>
+          <t>Minggu Ke-9</t>
         </is>
       </c>
       <c r="Q1" s="51" t="n"/>
@@ -1132,13 +1132,21 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="L5" s="44" t="inlineStr"/>
+      <c r="L5" s="47" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="M5" s="45" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
-      <c r="N5" s="44" t="inlineStr"/>
+      <c r="N5" s="47" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="O5" s="45" t="inlineStr">
         <is>
           <t>ü</t>
@@ -2099,13 +2107,21 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="L20" s="44" t="inlineStr"/>
+      <c r="L20" s="47" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="M20" s="45" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
-      <c r="N20" s="44" t="inlineStr"/>
+      <c r="N20" s="47" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="O20" s="45" t="inlineStr">
         <is>
           <t>ü</t>

--- a/Excel/Bulanan/Excel/List Tugas Bulanan Ke-2 (30 Juli 2021 - 27 September 2021).xlsx
+++ b/Excel/Bulanan/Excel/List Tugas Bulanan Ke-2 (30 Juli 2021 - 27 September 2021).xlsx
@@ -289,7 +289,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -438,6 +438,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -783,7 +786,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q38"/>
+  <dimension ref="A1:S38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="K1" sqref="K1:N1"/>
@@ -842,6 +845,8 @@
         </is>
       </c>
       <c r="Q1" s="51" t="n"/>
+      <c r="R1" s="51" t="n"/>
+      <c r="S1" s="51" t="n"/>
     </row>
     <row r="2" ht="18" customHeight="1">
       <c r="A2" s="32" t="n"/>
@@ -921,6 +926,16 @@
           <t>Tugas 2</t>
         </is>
       </c>
+      <c r="R2" s="52" t="inlineStr">
+        <is>
+          <t>Tugas 3</t>
+        </is>
+      </c>
+      <c r="S2" s="52" t="inlineStr">
+        <is>
+          <t>Tugas 4</t>
+        </is>
+      </c>
     </row>
     <row r="3" ht="15.6" customHeight="1">
       <c r="A3" s="36" t="n"/>
@@ -1000,6 +1015,16 @@
           <t>PJOK1</t>
         </is>
       </c>
+      <c r="R3" s="53" t="inlineStr">
+        <is>
+          <t>PKN5</t>
+        </is>
+      </c>
+      <c r="S3" s="53" t="inlineStr">
+        <is>
+          <t>PAI9</t>
+        </is>
+      </c>
     </row>
     <row r="4" ht="15.6" customHeight="1">
       <c r="A4" s="27" t="n">
@@ -1077,6 +1102,12 @@
       </c>
       <c r="P4" s="54" t="inlineStr"/>
       <c r="Q4" s="53" t="inlineStr"/>
+      <c r="R4" s="54" t="inlineStr"/>
+      <c r="S4" s="56" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="5" ht="15.6" customHeight="1">
       <c r="A5" s="27" t="n">
@@ -1154,6 +1185,8 @@
       </c>
       <c r="P5" s="54" t="inlineStr"/>
       <c r="Q5" s="53" t="inlineStr"/>
+      <c r="R5" s="54" t="inlineStr"/>
+      <c r="S5" s="53" t="inlineStr"/>
     </row>
     <row r="6" ht="15.6" customHeight="1">
       <c r="A6" s="27" t="n">
@@ -1231,6 +1264,12 @@
       </c>
       <c r="P6" s="54" t="inlineStr"/>
       <c r="Q6" s="53" t="inlineStr"/>
+      <c r="R6" s="54" t="inlineStr"/>
+      <c r="S6" s="56" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="7" ht="15.6" customHeight="1">
       <c r="A7" s="27" t="n">
@@ -1279,7 +1318,11 @@
       </c>
       <c r="K7" s="39" t="inlineStr"/>
       <c r="L7" s="44" t="inlineStr"/>
-      <c r="M7" s="39" t="inlineStr"/>
+      <c r="M7" s="45" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="N7" s="47" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1288,6 +1331,8 @@
       <c r="O7" s="39" t="inlineStr"/>
       <c r="P7" s="54" t="inlineStr"/>
       <c r="Q7" s="53" t="inlineStr"/>
+      <c r="R7" s="54" t="inlineStr"/>
+      <c r="S7" s="53" t="inlineStr"/>
     </row>
     <row r="8" ht="15.6" customHeight="1">
       <c r="A8" s="27" t="n">
@@ -1365,6 +1410,12 @@
       </c>
       <c r="P8" s="54" t="inlineStr"/>
       <c r="Q8" s="53" t="inlineStr"/>
+      <c r="R8" s="54" t="inlineStr"/>
+      <c r="S8" s="56" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="9" ht="15.6" customHeight="1">
       <c r="A9" s="27" t="n">
@@ -1414,6 +1465,8 @@
       <c r="O9" s="39" t="inlineStr"/>
       <c r="P9" s="54" t="inlineStr"/>
       <c r="Q9" s="53" t="inlineStr"/>
+      <c r="R9" s="54" t="inlineStr"/>
+      <c r="S9" s="53" t="inlineStr"/>
     </row>
     <row r="10" ht="15.6" customHeight="1">
       <c r="A10" s="27" t="n">
@@ -1491,6 +1544,12 @@
       </c>
       <c r="P10" s="54" t="inlineStr"/>
       <c r="Q10" s="53" t="inlineStr"/>
+      <c r="R10" s="54" t="inlineStr"/>
+      <c r="S10" s="56" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="11" ht="15.6" customHeight="1">
       <c r="A11" s="27" t="n">
@@ -1520,6 +1579,8 @@
       <c r="O11" s="39" t="inlineStr"/>
       <c r="P11" s="54" t="inlineStr"/>
       <c r="Q11" s="53" t="inlineStr"/>
+      <c r="R11" s="54" t="inlineStr"/>
+      <c r="S11" s="53" t="inlineStr"/>
     </row>
     <row r="12" ht="15.6" customHeight="1">
       <c r="A12" s="27" t="n">
@@ -1601,6 +1662,16 @@
         </is>
       </c>
       <c r="Q12" s="53" t="inlineStr"/>
+      <c r="R12" s="55" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="S12" s="56" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="13" ht="15.6" customHeight="1">
       <c r="A13" s="27" t="n">
@@ -1650,6 +1721,8 @@
       <c r="O13" s="39" t="inlineStr"/>
       <c r="P13" s="54" t="inlineStr"/>
       <c r="Q13" s="53" t="inlineStr"/>
+      <c r="R13" s="54" t="inlineStr"/>
+      <c r="S13" s="53" t="inlineStr"/>
     </row>
     <row r="14" ht="15.6" customHeight="1">
       <c r="A14" s="27" t="n">
@@ -1727,6 +1800,8 @@
       </c>
       <c r="P14" s="54" t="inlineStr"/>
       <c r="Q14" s="53" t="inlineStr"/>
+      <c r="R14" s="54" t="inlineStr"/>
+      <c r="S14" s="53" t="inlineStr"/>
     </row>
     <row r="15" ht="15.6" customHeight="1">
       <c r="A15" s="27" t="n">
@@ -1804,6 +1879,8 @@
       </c>
       <c r="P15" s="54" t="inlineStr"/>
       <c r="Q15" s="53" t="inlineStr"/>
+      <c r="R15" s="54" t="inlineStr"/>
+      <c r="S15" s="53" t="inlineStr"/>
     </row>
     <row r="16" ht="15.6" customHeight="1">
       <c r="A16" s="27" t="n">
@@ -1877,6 +1954,12 @@
       </c>
       <c r="P16" s="54" t="inlineStr"/>
       <c r="Q16" s="53" t="inlineStr"/>
+      <c r="R16" s="54" t="inlineStr"/>
+      <c r="S16" s="56" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="17" ht="15.6" customHeight="1">
       <c r="A17" s="27" t="n">
@@ -1934,6 +2017,8 @@
       <c r="O17" s="39" t="inlineStr"/>
       <c r="P17" s="54" t="inlineStr"/>
       <c r="Q17" s="53" t="inlineStr"/>
+      <c r="R17" s="54" t="inlineStr"/>
+      <c r="S17" s="53" t="inlineStr"/>
     </row>
     <row r="18" ht="15.6" customHeight="1">
       <c r="A18" s="27" t="n">
@@ -1983,6 +2068,8 @@
       <c r="O18" s="39" t="inlineStr"/>
       <c r="P18" s="54" t="inlineStr"/>
       <c r="Q18" s="53" t="inlineStr"/>
+      <c r="R18" s="54" t="inlineStr"/>
+      <c r="S18" s="53" t="inlineStr"/>
     </row>
     <row r="19" ht="15.6" customHeight="1">
       <c r="A19" s="27" t="n">
@@ -2052,6 +2139,12 @@
       </c>
       <c r="P19" s="54" t="inlineStr"/>
       <c r="Q19" s="53" t="inlineStr"/>
+      <c r="R19" s="54" t="inlineStr"/>
+      <c r="S19" s="56" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="20" ht="15.6" customHeight="1">
       <c r="A20" s="27" t="n">
@@ -2129,6 +2222,8 @@
       </c>
       <c r="P20" s="54" t="inlineStr"/>
       <c r="Q20" s="53" t="inlineStr"/>
+      <c r="R20" s="54" t="inlineStr"/>
+      <c r="S20" s="53" t="inlineStr"/>
     </row>
     <row r="21" ht="15.6" customHeight="1">
       <c r="A21" s="27" t="n">
@@ -2206,6 +2301,16 @@
       </c>
       <c r="P21" s="54" t="inlineStr"/>
       <c r="Q21" s="53" t="inlineStr"/>
+      <c r="R21" s="55" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="S21" s="56" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="22" ht="15.6" customHeight="1">
       <c r="A22" s="27" t="n">
@@ -2283,6 +2388,8 @@
       </c>
       <c r="P22" s="54" t="inlineStr"/>
       <c r="Q22" s="53" t="inlineStr"/>
+      <c r="R22" s="54" t="inlineStr"/>
+      <c r="S22" s="53" t="inlineStr"/>
     </row>
     <row r="23" ht="15.6" customHeight="1">
       <c r="A23" s="27" t="n">
@@ -2332,6 +2439,8 @@
       <c r="O23" s="39" t="inlineStr"/>
       <c r="P23" s="54" t="inlineStr"/>
       <c r="Q23" s="53" t="inlineStr"/>
+      <c r="R23" s="54" t="inlineStr"/>
+      <c r="S23" s="53" t="inlineStr"/>
     </row>
     <row r="24" ht="15.6" customHeight="1">
       <c r="A24" s="27" t="n">
@@ -2377,6 +2486,8 @@
       <c r="O24" s="39" t="inlineStr"/>
       <c r="P24" s="54" t="inlineStr"/>
       <c r="Q24" s="53" t="inlineStr"/>
+      <c r="R24" s="54" t="inlineStr"/>
+      <c r="S24" s="53" t="inlineStr"/>
     </row>
     <row r="25" ht="15.6" customHeight="1">
       <c r="A25" s="27" t="n">
@@ -2454,6 +2565,12 @@
       </c>
       <c r="P25" s="54" t="inlineStr"/>
       <c r="Q25" s="53" t="inlineStr"/>
+      <c r="R25" s="54" t="inlineStr"/>
+      <c r="S25" s="56" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="26" ht="15.6" customHeight="1">
       <c r="A26" s="27" t="n">
@@ -2535,6 +2652,16 @@
         </is>
       </c>
       <c r="Q26" s="53" t="inlineStr"/>
+      <c r="R26" s="55" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="S26" s="56" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="27" ht="15.6" customHeight="1">
       <c r="A27" s="27" t="n">
@@ -2612,6 +2739,8 @@
       </c>
       <c r="P27" s="54" t="inlineStr"/>
       <c r="Q27" s="53" t="inlineStr"/>
+      <c r="R27" s="54" t="inlineStr"/>
+      <c r="S27" s="53" t="inlineStr"/>
     </row>
     <row r="28" ht="15.6" customHeight="1">
       <c r="A28" s="27" t="n">
@@ -2685,6 +2814,8 @@
       </c>
       <c r="P28" s="54" t="inlineStr"/>
       <c r="Q28" s="53" t="inlineStr"/>
+      <c r="R28" s="54" t="inlineStr"/>
+      <c r="S28" s="53" t="inlineStr"/>
     </row>
     <row r="29" ht="15.6" customHeight="1">
       <c r="A29" s="27" t="n">
@@ -2762,6 +2893,8 @@
       </c>
       <c r="P29" s="54" t="inlineStr"/>
       <c r="Q29" s="53" t="inlineStr"/>
+      <c r="R29" s="54" t="inlineStr"/>
+      <c r="S29" s="53" t="inlineStr"/>
     </row>
     <row r="30" ht="15.6" customHeight="1">
       <c r="A30" s="27" t="n">
@@ -2799,6 +2932,8 @@
       <c r="O30" s="39" t="inlineStr"/>
       <c r="P30" s="54" t="inlineStr"/>
       <c r="Q30" s="53" t="inlineStr"/>
+      <c r="R30" s="54" t="inlineStr"/>
+      <c r="S30" s="53" t="inlineStr"/>
     </row>
     <row r="31" ht="15.6" customHeight="1">
       <c r="A31" s="27" t="n">
@@ -2868,6 +3003,8 @@
       <c r="O31" s="39" t="inlineStr"/>
       <c r="P31" s="54" t="inlineStr"/>
       <c r="Q31" s="53" t="inlineStr"/>
+      <c r="R31" s="54" t="inlineStr"/>
+      <c r="S31" s="53" t="inlineStr"/>
     </row>
     <row r="32" ht="15.6" customHeight="1">
       <c r="A32" s="27" t="n">
@@ -2943,8 +3080,18 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="P32" s="54" t="inlineStr"/>
+      <c r="P32" s="55" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="Q32" s="53" t="inlineStr"/>
+      <c r="R32" s="54" t="inlineStr"/>
+      <c r="S32" s="56" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="33" ht="15.6" customHeight="1">
       <c r="A33" s="27" t="n">
@@ -2986,6 +3133,8 @@
       <c r="O33" s="39" t="inlineStr"/>
       <c r="P33" s="54" t="inlineStr"/>
       <c r="Q33" s="53" t="inlineStr"/>
+      <c r="R33" s="54" t="inlineStr"/>
+      <c r="S33" s="53" t="inlineStr"/>
     </row>
     <row r="34" ht="15.6" customHeight="1">
       <c r="A34" s="27" t="n">
@@ -3059,6 +3208,12 @@
       </c>
       <c r="P34" s="54" t="inlineStr"/>
       <c r="Q34" s="53" t="inlineStr"/>
+      <c r="R34" s="54" t="inlineStr"/>
+      <c r="S34" s="56" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="35" ht="15.6" customHeight="1">
       <c r="A35" s="27" t="n">
@@ -3136,6 +3291,12 @@
       </c>
       <c r="P35" s="54" t="inlineStr"/>
       <c r="Q35" s="53" t="inlineStr"/>
+      <c r="R35" s="54" t="inlineStr"/>
+      <c r="S35" s="56" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="36" ht="15.6" customHeight="1">
       <c r="A36" s="27" t="n">
@@ -3217,6 +3378,16 @@
         </is>
       </c>
       <c r="Q36" s="53" t="inlineStr"/>
+      <c r="R36" s="55" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="S36" s="56" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="37" ht="15.6" customHeight="1">
       <c r="A37" s="27" t="n">
@@ -3290,6 +3461,12 @@
       </c>
       <c r="P37" s="54" t="inlineStr"/>
       <c r="Q37" s="53" t="inlineStr"/>
+      <c r="R37" s="54" t="inlineStr"/>
+      <c r="S37" s="56" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="38" ht="15.6" customHeight="1">
       <c r="A38" s="27" t="n">
@@ -3363,6 +3540,8 @@
       </c>
       <c r="P38" s="54" t="inlineStr"/>
       <c r="Q38" s="53" t="inlineStr"/>
+      <c r="R38" s="54" t="inlineStr"/>
+      <c r="S38" s="53" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -3371,7 +3550,7 @@
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="K1:O1"/>
-    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="P1:S1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Excel/Bulanan/Excel/List Tugas Bulanan Ke-2 (30 Juli 2021 - 27 September 2021).xlsx
+++ b/Excel/Bulanan/Excel/List Tugas Bulanan Ke-2 (30 Juli 2021 - 27 September 2021).xlsx
@@ -1186,7 +1186,11 @@
       <c r="P5" s="54" t="inlineStr"/>
       <c r="Q5" s="53" t="inlineStr"/>
       <c r="R5" s="54" t="inlineStr"/>
-      <c r="S5" s="53" t="inlineStr"/>
+      <c r="S5" s="56" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="6" ht="15.6" customHeight="1">
       <c r="A6" s="27" t="n">
@@ -2139,7 +2143,11 @@
       </c>
       <c r="P19" s="54" t="inlineStr"/>
       <c r="Q19" s="53" t="inlineStr"/>
-      <c r="R19" s="54" t="inlineStr"/>
+      <c r="R19" s="55" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="S19" s="56" t="inlineStr">
         <is>
           <t>ü</t>
@@ -2933,7 +2941,11 @@
       <c r="P30" s="54" t="inlineStr"/>
       <c r="Q30" s="53" t="inlineStr"/>
       <c r="R30" s="54" t="inlineStr"/>
-      <c r="S30" s="53" t="inlineStr"/>
+      <c r="S30" s="56" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="31" ht="15.6" customHeight="1">
       <c r="A31" s="27" t="n">

--- a/Excel/Bulanan/Excel/List Tugas Bulanan Ke-2 (30 Juli 2021 - 27 September 2021).xlsx
+++ b/Excel/Bulanan/Excel/List Tugas Bulanan Ke-2 (30 Juli 2021 - 27 September 2021).xlsx
@@ -786,7 +786,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S38"/>
+  <dimension ref="A1:T38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="K1" sqref="K1:N1"/>
@@ -847,6 +847,7 @@
       <c r="Q1" s="51" t="n"/>
       <c r="R1" s="51" t="n"/>
       <c r="S1" s="51" t="n"/>
+      <c r="T1" s="51" t="n"/>
     </row>
     <row r="2" ht="18" customHeight="1">
       <c r="A2" s="32" t="n"/>
@@ -936,6 +937,11 @@
           <t>Tugas 4</t>
         </is>
       </c>
+      <c r="T2" s="52" t="inlineStr">
+        <is>
+          <t>Tugas 5</t>
+        </is>
+      </c>
     </row>
     <row r="3" ht="15.6" customHeight="1">
       <c r="A3" s="36" t="n"/>
@@ -1025,6 +1031,11 @@
           <t>PAI9</t>
         </is>
       </c>
+      <c r="T3" s="53" t="inlineStr">
+        <is>
+          <t>BING6</t>
+        </is>
+      </c>
     </row>
     <row r="4" ht="15.6" customHeight="1">
       <c r="A4" s="27" t="n">
@@ -1108,6 +1119,7 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="T4" s="54" t="inlineStr"/>
     </row>
     <row r="5" ht="15.6" customHeight="1">
       <c r="A5" s="27" t="n">
@@ -1191,6 +1203,7 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="T5" s="54" t="inlineStr"/>
     </row>
     <row r="6" ht="15.6" customHeight="1">
       <c r="A6" s="27" t="n">
@@ -1270,6 +1283,11 @@
       <c r="Q6" s="53" t="inlineStr"/>
       <c r="R6" s="54" t="inlineStr"/>
       <c r="S6" s="56" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="T6" s="55" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -1337,6 +1355,7 @@
       <c r="Q7" s="53" t="inlineStr"/>
       <c r="R7" s="54" t="inlineStr"/>
       <c r="S7" s="53" t="inlineStr"/>
+      <c r="T7" s="54" t="inlineStr"/>
     </row>
     <row r="8" ht="15.6" customHeight="1">
       <c r="A8" s="27" t="n">
@@ -1420,6 +1439,7 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="T8" s="54" t="inlineStr"/>
     </row>
     <row r="9" ht="15.6" customHeight="1">
       <c r="A9" s="27" t="n">
@@ -1471,6 +1491,7 @@
       <c r="Q9" s="53" t="inlineStr"/>
       <c r="R9" s="54" t="inlineStr"/>
       <c r="S9" s="53" t="inlineStr"/>
+      <c r="T9" s="54" t="inlineStr"/>
     </row>
     <row r="10" ht="15.6" customHeight="1">
       <c r="A10" s="27" t="n">
@@ -1554,6 +1575,7 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="T10" s="54" t="inlineStr"/>
     </row>
     <row r="11" ht="15.6" customHeight="1">
       <c r="A11" s="27" t="n">
@@ -1585,6 +1607,7 @@
       <c r="Q11" s="53" t="inlineStr"/>
       <c r="R11" s="54" t="inlineStr"/>
       <c r="S11" s="53" t="inlineStr"/>
+      <c r="T11" s="54" t="inlineStr"/>
     </row>
     <row r="12" ht="15.6" customHeight="1">
       <c r="A12" s="27" t="n">
@@ -1676,6 +1699,7 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="T12" s="54" t="inlineStr"/>
     </row>
     <row r="13" ht="15.6" customHeight="1">
       <c r="A13" s="27" t="n">
@@ -1727,6 +1751,7 @@
       <c r="Q13" s="53" t="inlineStr"/>
       <c r="R13" s="54" t="inlineStr"/>
       <c r="S13" s="53" t="inlineStr"/>
+      <c r="T13" s="54" t="inlineStr"/>
     </row>
     <row r="14" ht="15.6" customHeight="1">
       <c r="A14" s="27" t="n">
@@ -1802,10 +1827,23 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="P14" s="54" t="inlineStr"/>
+      <c r="P14" s="55" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="Q14" s="53" t="inlineStr"/>
-      <c r="R14" s="54" t="inlineStr"/>
-      <c r="S14" s="53" t="inlineStr"/>
+      <c r="R14" s="55" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="S14" s="56" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="T14" s="54" t="inlineStr"/>
     </row>
     <row r="15" ht="15.6" customHeight="1">
       <c r="A15" s="27" t="n">
@@ -1881,10 +1919,27 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="P15" s="54" t="inlineStr"/>
+      <c r="P15" s="55" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="Q15" s="53" t="inlineStr"/>
-      <c r="R15" s="54" t="inlineStr"/>
-      <c r="S15" s="53" t="inlineStr"/>
+      <c r="R15" s="55" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="S15" s="53" t="inlineStr">
+        <is>
+          <t>NON-MUS</t>
+        </is>
+      </c>
+      <c r="T15" s="55" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="16" ht="15.6" customHeight="1">
       <c r="A16" s="27" t="n">
@@ -1964,6 +2019,7 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="T16" s="54" t="inlineStr"/>
     </row>
     <row r="17" ht="15.6" customHeight="1">
       <c r="A17" s="27" t="n">
@@ -2023,6 +2079,7 @@
       <c r="Q17" s="53" t="inlineStr"/>
       <c r="R17" s="54" t="inlineStr"/>
       <c r="S17" s="53" t="inlineStr"/>
+      <c r="T17" s="54" t="inlineStr"/>
     </row>
     <row r="18" ht="15.6" customHeight="1">
       <c r="A18" s="27" t="n">
@@ -2074,6 +2131,7 @@
       <c r="Q18" s="53" t="inlineStr"/>
       <c r="R18" s="54" t="inlineStr"/>
       <c r="S18" s="53" t="inlineStr"/>
+      <c r="T18" s="54" t="inlineStr"/>
     </row>
     <row r="19" ht="15.6" customHeight="1">
       <c r="A19" s="27" t="n">
@@ -2124,8 +2182,16 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="K19" s="39" t="inlineStr"/>
-      <c r="L19" s="44" t="inlineStr"/>
+      <c r="K19" s="45" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="L19" s="47" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="M19" s="45" t="inlineStr">
         <is>
           <t>ü</t>
@@ -2149,6 +2215,11 @@
         </is>
       </c>
       <c r="S19" s="56" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="T19" s="55" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -2231,7 +2302,12 @@
       <c r="P20" s="54" t="inlineStr"/>
       <c r="Q20" s="53" t="inlineStr"/>
       <c r="R20" s="54" t="inlineStr"/>
-      <c r="S20" s="53" t="inlineStr"/>
+      <c r="S20" s="56" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="T20" s="54" t="inlineStr"/>
     </row>
     <row r="21" ht="15.6" customHeight="1">
       <c r="A21" s="27" t="n">
@@ -2319,6 +2395,7 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="T21" s="54" t="inlineStr"/>
     </row>
     <row r="22" ht="15.6" customHeight="1">
       <c r="A22" s="27" t="n">
@@ -2394,10 +2471,19 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="P22" s="54" t="inlineStr"/>
+      <c r="P22" s="55" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="Q22" s="53" t="inlineStr"/>
       <c r="R22" s="54" t="inlineStr"/>
-      <c r="S22" s="53" t="inlineStr"/>
+      <c r="S22" s="56" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="T22" s="54" t="inlineStr"/>
     </row>
     <row r="23" ht="15.6" customHeight="1">
       <c r="A23" s="27" t="n">
@@ -2449,6 +2535,7 @@
       <c r="Q23" s="53" t="inlineStr"/>
       <c r="R23" s="54" t="inlineStr"/>
       <c r="S23" s="53" t="inlineStr"/>
+      <c r="T23" s="54" t="inlineStr"/>
     </row>
     <row r="24" ht="15.6" customHeight="1">
       <c r="A24" s="27" t="n">
@@ -2496,6 +2583,7 @@
       <c r="Q24" s="53" t="inlineStr"/>
       <c r="R24" s="54" t="inlineStr"/>
       <c r="S24" s="53" t="inlineStr"/>
+      <c r="T24" s="54" t="inlineStr"/>
     </row>
     <row r="25" ht="15.6" customHeight="1">
       <c r="A25" s="27" t="n">
@@ -2579,6 +2667,7 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="T25" s="54" t="inlineStr"/>
     </row>
     <row r="26" ht="15.6" customHeight="1">
       <c r="A26" s="27" t="n">
@@ -2670,6 +2759,11 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="T26" s="55" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="27" ht="15.6" customHeight="1">
       <c r="A27" s="27" t="n">
@@ -2748,7 +2842,12 @@
       <c r="P27" s="54" t="inlineStr"/>
       <c r="Q27" s="53" t="inlineStr"/>
       <c r="R27" s="54" t="inlineStr"/>
-      <c r="S27" s="53" t="inlineStr"/>
+      <c r="S27" s="53" t="inlineStr">
+        <is>
+          <t>NON-MUS</t>
+        </is>
+      </c>
+      <c r="T27" s="54" t="inlineStr"/>
     </row>
     <row r="28" ht="15.6" customHeight="1">
       <c r="A28" s="27" t="n">
@@ -2823,7 +2922,12 @@
       <c r="P28" s="54" t="inlineStr"/>
       <c r="Q28" s="53" t="inlineStr"/>
       <c r="R28" s="54" t="inlineStr"/>
-      <c r="S28" s="53" t="inlineStr"/>
+      <c r="S28" s="56" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="T28" s="54" t="inlineStr"/>
     </row>
     <row r="29" ht="15.6" customHeight="1">
       <c r="A29" s="27" t="n">
@@ -2902,7 +3006,12 @@
       <c r="P29" s="54" t="inlineStr"/>
       <c r="Q29" s="53" t="inlineStr"/>
       <c r="R29" s="54" t="inlineStr"/>
-      <c r="S29" s="53" t="inlineStr"/>
+      <c r="S29" s="53" t="inlineStr">
+        <is>
+          <t>NON-MUS</t>
+        </is>
+      </c>
+      <c r="T29" s="54" t="inlineStr"/>
     </row>
     <row r="30" ht="15.6" customHeight="1">
       <c r="A30" s="27" t="n">
@@ -2946,6 +3055,7 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="T30" s="54" t="inlineStr"/>
     </row>
     <row r="31" ht="15.6" customHeight="1">
       <c r="A31" s="27" t="n">
@@ -3017,6 +3127,7 @@
       <c r="Q31" s="53" t="inlineStr"/>
       <c r="R31" s="54" t="inlineStr"/>
       <c r="S31" s="53" t="inlineStr"/>
+      <c r="T31" s="54" t="inlineStr"/>
     </row>
     <row r="32" ht="15.6" customHeight="1">
       <c r="A32" s="27" t="n">
@@ -3100,6 +3211,11 @@
       <c r="Q32" s="53" t="inlineStr"/>
       <c r="R32" s="54" t="inlineStr"/>
       <c r="S32" s="56" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="T32" s="55" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -3147,6 +3263,7 @@
       <c r="Q33" s="53" t="inlineStr"/>
       <c r="R33" s="54" t="inlineStr"/>
       <c r="S33" s="53" t="inlineStr"/>
+      <c r="T33" s="54" t="inlineStr"/>
     </row>
     <row r="34" ht="15.6" customHeight="1">
       <c r="A34" s="27" t="n">
@@ -3226,6 +3343,7 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="T34" s="54" t="inlineStr"/>
     </row>
     <row r="35" ht="15.6" customHeight="1">
       <c r="A35" s="27" t="n">
@@ -3303,12 +3421,17 @@
       </c>
       <c r="P35" s="54" t="inlineStr"/>
       <c r="Q35" s="53" t="inlineStr"/>
-      <c r="R35" s="54" t="inlineStr"/>
+      <c r="R35" s="55" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="S35" s="56" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
+      <c r="T35" s="54" t="inlineStr"/>
     </row>
     <row r="36" ht="15.6" customHeight="1">
       <c r="A36" s="27" t="n">
@@ -3400,6 +3523,11 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="T36" s="55" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="37" ht="15.6" customHeight="1">
       <c r="A37" s="27" t="n">
@@ -3479,6 +3607,7 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="T37" s="54" t="inlineStr"/>
     </row>
     <row r="38" ht="15.6" customHeight="1">
       <c r="A38" s="27" t="n">
@@ -3553,7 +3682,12 @@
       <c r="P38" s="54" t="inlineStr"/>
       <c r="Q38" s="53" t="inlineStr"/>
       <c r="R38" s="54" t="inlineStr"/>
-      <c r="S38" s="53" t="inlineStr"/>
+      <c r="S38" s="53" t="inlineStr">
+        <is>
+          <t>NON-MUS</t>
+        </is>
+      </c>
+      <c r="T38" s="54" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -3562,7 +3696,7 @@
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="K1:O1"/>
-    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="P1:T1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Excel/Bulanan/Excel/List Tugas Bulanan Ke-2 (30 Juli 2021 - 27 September 2021).xlsx
+++ b/Excel/Bulanan/Excel/List Tugas Bulanan Ke-2 (30 Juli 2021 - 27 September 2021).xlsx
@@ -1203,7 +1203,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="T5" s="54" t="inlineStr"/>
+      <c r="T5" s="55" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="6" ht="15.6" customHeight="1">
       <c r="A6" s="27" t="n">
@@ -3005,7 +3009,11 @@
       </c>
       <c r="P29" s="54" t="inlineStr"/>
       <c r="Q29" s="53" t="inlineStr"/>
-      <c r="R29" s="54" t="inlineStr"/>
+      <c r="R29" s="55" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="S29" s="53" t="inlineStr">
         <is>
           <t>NON-MUS</t>

--- a/Excel/Bulanan/Excel/List Tugas Bulanan Ke-2 (30 Juli 2021 - 27 September 2021).xlsx
+++ b/Excel/Bulanan/Excel/List Tugas Bulanan Ke-2 (30 Juli 2021 - 27 September 2021).xlsx
@@ -1156,14 +1156,26 @@
       </c>
       <c r="P4" s="55" t="inlineStr"/>
       <c r="Q4" s="48" t="inlineStr"/>
-      <c r="R4" s="55" t="inlineStr"/>
+      <c r="R4" s="57" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="S4" s="56" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
-      <c r="T4" s="55" t="inlineStr"/>
-      <c r="U4" s="48" t="inlineStr"/>
+      <c r="T4" s="57" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="U4" s="56" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="5" ht="15.6" customHeight="1">
       <c r="A5" s="33" t="n">

--- a/Excel/Bulanan/Excel/List Tugas Bulanan Ke-2 (30 Juli 2021 - 27 September 2021).xlsx
+++ b/Excel/Bulanan/Excel/List Tugas Bulanan Ke-2 (30 Juli 2021 - 27 September 2021).xlsx
@@ -2430,8 +2430,16 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="T20" s="55" t="inlineStr"/>
-      <c r="U20" s="48" t="inlineStr"/>
+      <c r="T20" s="57" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="U20" s="56" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="21" ht="15.6" customHeight="1">
       <c r="A21" s="33" t="n">
@@ -2819,7 +2827,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="T25" s="55" t="inlineStr"/>
+      <c r="T25" s="57" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="U25" s="56" t="inlineStr">
         <is>
           <t>ü</t>
@@ -3084,7 +3096,11 @@
       </c>
       <c r="P28" s="55" t="inlineStr"/>
       <c r="Q28" s="48" t="inlineStr"/>
-      <c r="R28" s="55" t="inlineStr"/>
+      <c r="R28" s="57" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="S28" s="56" t="inlineStr">
         <is>
           <t>ü</t>
@@ -3642,7 +3658,11 @@
         </is>
       </c>
       <c r="T35" s="55" t="inlineStr"/>
-      <c r="U35" s="48" t="inlineStr"/>
+      <c r="U35" s="56" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="36" ht="15.6" customHeight="1">
       <c r="A36" s="33" t="n">

--- a/Excel/Bulanan/Excel/List Tugas Bulanan Ke-2 (30 Juli 2021 - 27 September 2021).xlsx
+++ b/Excel/Bulanan/Excel/List Tugas Bulanan Ke-2 (30 Juli 2021 - 27 September 2021).xlsx
@@ -1346,7 +1346,11 @@
       </c>
       <c r="P6" s="55" t="inlineStr"/>
       <c r="Q6" s="48" t="inlineStr"/>
-      <c r="R6" s="55" t="inlineStr"/>
+      <c r="R6" s="57" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="S6" s="56" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1510,7 +1514,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="T8" s="55" t="inlineStr"/>
+      <c r="T8" s="57" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="U8" s="56" t="inlineStr">
         <is>
           <t>ü</t>
@@ -2247,7 +2255,11 @@
       <c r="P18" s="55" t="inlineStr"/>
       <c r="Q18" s="48" t="inlineStr"/>
       <c r="R18" s="55" t="inlineStr"/>
-      <c r="S18" s="48" t="inlineStr"/>
+      <c r="S18" s="56" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="T18" s="55" t="inlineStr"/>
       <c r="U18" s="48" t="inlineStr"/>
     </row>
@@ -3015,14 +3027,26 @@
       </c>
       <c r="P27" s="55" t="inlineStr"/>
       <c r="Q27" s="48" t="inlineStr"/>
-      <c r="R27" s="55" t="inlineStr"/>
+      <c r="R27" s="57" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="S27" s="48" t="inlineStr">
         <is>
           <t>NON-MUS</t>
         </is>
       </c>
-      <c r="T27" s="55" t="inlineStr"/>
-      <c r="U27" s="48" t="inlineStr"/>
+      <c r="T27" s="57" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="U27" s="56" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="28" ht="15.6" customHeight="1">
       <c r="A28" s="33" t="n">

--- a/Excel/Bulanan/Excel/List Tugas Bulanan Ke-2 (30 Juli 2021 - 27 September 2021).xlsx
+++ b/Excel/Bulanan/Excel/List Tugas Bulanan Ke-2 (30 Juli 2021 - 27 September 2021).xlsx
@@ -3861,7 +3861,11 @@
       </c>
       <c r="P37" s="55" t="inlineStr"/>
       <c r="Q37" s="48" t="inlineStr"/>
-      <c r="R37" s="55" t="inlineStr"/>
+      <c r="R37" s="57" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="S37" s="56" t="inlineStr">
         <is>
           <t>ü</t>

--- a/Excel/Bulanan/Excel/List Tugas Bulanan Ke-2 (30 Juli 2021 - 27 September 2021).xlsx
+++ b/Excel/Bulanan/Excel/List Tugas Bulanan Ke-2 (30 Juli 2021 - 27 September 2021).xlsx
@@ -1253,7 +1253,11 @@
       </c>
       <c r="P5" s="55" t="inlineStr"/>
       <c r="Q5" s="48" t="inlineStr"/>
-      <c r="R5" s="55" t="inlineStr"/>
+      <c r="R5" s="57" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="S5" s="56" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1508,7 +1512,11 @@
       </c>
       <c r="P8" s="55" t="inlineStr"/>
       <c r="Q8" s="48" t="inlineStr"/>
-      <c r="R8" s="55" t="inlineStr"/>
+      <c r="R8" s="57" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="S8" s="56" t="inlineStr">
         <is>
           <t>ü</t>
@@ -2436,7 +2444,11 @@
       </c>
       <c r="P20" s="55" t="inlineStr"/>
       <c r="Q20" s="48" t="inlineStr"/>
-      <c r="R20" s="55" t="inlineStr"/>
+      <c r="R20" s="57" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="S20" s="56" t="inlineStr">
         <is>
           <t>ü</t>

--- a/Excel/Bulanan/Excel/List Tugas Bulanan Ke-2 (30 Juli 2021 - 27 September 2021).xlsx
+++ b/Excel/Bulanan/Excel/List Tugas Bulanan Ke-2 (30 Juli 2021 - 27 September 2021).xlsx
@@ -2839,7 +2839,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="P25" s="55" t="inlineStr"/>
+      <c r="P25" s="57" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="Q25" s="48" t="inlineStr"/>
       <c r="R25" s="57" t="inlineStr">
         <is>
@@ -3240,7 +3244,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="U29" s="48" t="inlineStr"/>
+      <c r="U29" s="56" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="30" ht="15.6" customHeight="1">
       <c r="A30" s="33" t="n">

--- a/Excel/Bulanan/Excel/List Tugas Bulanan Ke-2 (30 Juli 2021 - 27 September 2021).xlsx
+++ b/Excel/Bulanan/Excel/List Tugas Bulanan Ke-2 (30 Juli 2021 - 27 September 2021).xlsx
@@ -76,6 +76,11 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF8EF5F3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFEB972A"/>
       </patternFill>
     </fill>
@@ -87,11 +92,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFE66CB5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF8EF5F3"/>
       </patternFill>
     </fill>
     <fill>
@@ -316,6 +316,9 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -325,49 +328,49 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -375,9 +378,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -451,22 +451,22 @@
     <xf numFmtId="0" fontId="1" fillId="16" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="17" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -814,25 +814,26 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U38"/>
+  <dimension ref="A1:V38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="W5" sqref="W5"/>
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col width="4.6640625" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="4.88671875" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="39.5546875" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="8.88671875" bestFit="1" customWidth="1" min="3" max="4"/>
+    <col width="9.109375" bestFit="1" customWidth="1" min="3" max="4"/>
     <col width="10.33203125" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="8.88671875" bestFit="1" customWidth="1" min="6" max="9"/>
+    <col width="9.109375" bestFit="1" customWidth="1" min="6" max="9"/>
     <col width="10.33203125" bestFit="1" customWidth="1" min="10" max="10"/>
-    <col width="8.88671875" bestFit="1" customWidth="1" min="11" max="12"/>
+    <col width="9.109375" bestFit="1" customWidth="1" min="11" max="12"/>
     <col width="10.33203125" bestFit="1" customWidth="1" min="13" max="13"/>
-    <col width="8.88671875" bestFit="1" customWidth="1" min="14" max="18"/>
+    <col width="9.109375" bestFit="1" customWidth="1" min="14" max="18"/>
     <col width="10.33203125" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="8.88671875" bestFit="1" customWidth="1" min="20" max="21"/>
+    <col width="9.109375" bestFit="1" customWidth="1" min="20" max="21"/>
+    <col width="16.109375" bestFit="1" customWidth="1" min="22" max="22"/>
   </cols>
   <sheetData>
     <row r="1" ht="18" customHeight="1">
@@ -881,6 +882,11 @@
       <c r="S1" s="38" t="n"/>
       <c r="T1" s="38" t="n"/>
       <c r="U1" s="38" t="n"/>
+      <c r="V1" s="35" t="inlineStr">
+        <is>
+          <t>Minggu Ke-6</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="18" customHeight="1">
       <c r="A2" s="39" t="n"/>
@@ -980,6 +986,11 @@
           <t>Tugas 6</t>
         </is>
       </c>
+      <c r="V2" s="40" t="inlineStr">
+        <is>
+          <t>Tugas 1</t>
+        </is>
+      </c>
     </row>
     <row r="3" ht="15.6" customHeight="1">
       <c r="A3" s="44" t="n"/>
@@ -1079,6 +1090,11 @@
           <t>PKK5</t>
         </is>
       </c>
+      <c r="V3" s="45" t="inlineStr">
+        <is>
+          <t>MAT10</t>
+        </is>
+      </c>
     </row>
     <row r="4" ht="15.6" customHeight="1">
       <c r="A4" s="33" t="n">
@@ -1154,9 +1170,13 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="P4" s="55" t="inlineStr"/>
+      <c r="P4" s="55" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="Q4" s="48" t="inlineStr"/>
-      <c r="R4" s="57" t="inlineStr">
+      <c r="R4" s="55" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -1166,7 +1186,7 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="T4" s="57" t="inlineStr">
+      <c r="T4" s="55" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -1176,6 +1196,7 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="V4" s="57" t="inlineStr"/>
     </row>
     <row r="5" ht="15.6" customHeight="1">
       <c r="A5" s="33" t="n">
@@ -1251,9 +1272,13 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="P5" s="55" t="inlineStr"/>
+      <c r="P5" s="55" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="Q5" s="48" t="inlineStr"/>
-      <c r="R5" s="57" t="inlineStr">
+      <c r="R5" s="55" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -1263,7 +1288,7 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="T5" s="57" t="inlineStr">
+      <c r="T5" s="55" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -1273,6 +1298,7 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="V5" s="57" t="inlineStr"/>
     </row>
     <row r="6" ht="15.6" customHeight="1">
       <c r="A6" s="33" t="n">
@@ -1348,9 +1374,13 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="P6" s="55" t="inlineStr"/>
+      <c r="P6" s="55" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="Q6" s="48" t="inlineStr"/>
-      <c r="R6" s="57" t="inlineStr">
+      <c r="R6" s="55" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -1360,7 +1390,7 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="T6" s="57" t="inlineStr">
+      <c r="T6" s="55" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -1370,6 +1400,7 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="V6" s="57" t="inlineStr"/>
     </row>
     <row r="7" ht="15.6" customHeight="1">
       <c r="A7" s="33" t="n">
@@ -1429,12 +1460,13 @@
         </is>
       </c>
       <c r="O7" s="47" t="inlineStr"/>
-      <c r="P7" s="55" t="inlineStr"/>
+      <c r="P7" s="59" t="inlineStr"/>
       <c r="Q7" s="48" t="inlineStr"/>
-      <c r="R7" s="55" t="inlineStr"/>
+      <c r="R7" s="59" t="inlineStr"/>
       <c r="S7" s="48" t="inlineStr"/>
-      <c r="T7" s="55" t="inlineStr"/>
+      <c r="T7" s="59" t="inlineStr"/>
       <c r="U7" s="48" t="inlineStr"/>
+      <c r="V7" s="57" t="inlineStr"/>
     </row>
     <row r="8" ht="15.6" customHeight="1">
       <c r="A8" s="33" t="n">
@@ -1510,9 +1542,13 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="P8" s="55" t="inlineStr"/>
+      <c r="P8" s="55" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="Q8" s="48" t="inlineStr"/>
-      <c r="R8" s="57" t="inlineStr">
+      <c r="R8" s="55" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -1522,7 +1558,7 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="T8" s="57" t="inlineStr">
+      <c r="T8" s="55" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -1532,6 +1568,7 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="V8" s="57" t="inlineStr"/>
     </row>
     <row r="9" ht="15.6" customHeight="1">
       <c r="A9" s="33" t="n">
@@ -1559,7 +1596,7 @@
         </is>
       </c>
       <c r="G9" s="45" t="inlineStr"/>
-      <c r="H9" s="59" t="inlineStr"/>
+      <c r="H9" s="60" t="inlineStr"/>
       <c r="I9" s="52" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1579,12 +1616,13 @@
       </c>
       <c r="N9" s="58" t="inlineStr"/>
       <c r="O9" s="47" t="inlineStr"/>
-      <c r="P9" s="55" t="inlineStr"/>
+      <c r="P9" s="59" t="inlineStr"/>
       <c r="Q9" s="48" t="inlineStr"/>
-      <c r="R9" s="55" t="inlineStr"/>
+      <c r="R9" s="59" t="inlineStr"/>
       <c r="S9" s="48" t="inlineStr"/>
-      <c r="T9" s="55" t="inlineStr"/>
+      <c r="T9" s="59" t="inlineStr"/>
       <c r="U9" s="48" t="inlineStr"/>
+      <c r="V9" s="57" t="inlineStr"/>
     </row>
     <row r="10" ht="15.6" customHeight="1">
       <c r="A10" s="33" t="n">
@@ -1660,9 +1698,13 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="P10" s="55" t="inlineStr"/>
+      <c r="P10" s="55" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="Q10" s="48" t="inlineStr"/>
-      <c r="R10" s="57" t="inlineStr">
+      <c r="R10" s="55" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -1672,7 +1714,7 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="T10" s="57" t="inlineStr">
+      <c r="T10" s="55" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -1682,6 +1724,7 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="V10" s="57" t="inlineStr"/>
     </row>
     <row r="11" ht="15.6" customHeight="1">
       <c r="A11" s="33" t="n">
@@ -1693,11 +1736,11 @@
         </is>
       </c>
       <c r="C11" s="45" t="inlineStr"/>
-      <c r="D11" s="60" t="inlineStr"/>
+      <c r="D11" s="57" t="inlineStr"/>
       <c r="E11" s="45" t="inlineStr"/>
-      <c r="F11" s="60" t="inlineStr"/>
+      <c r="F11" s="57" t="inlineStr"/>
       <c r="G11" s="45" t="inlineStr"/>
-      <c r="H11" s="59" t="inlineStr"/>
+      <c r="H11" s="60" t="inlineStr"/>
       <c r="I11" s="46" t="inlineStr"/>
       <c r="J11" s="51" t="inlineStr">
         <is>
@@ -1709,12 +1752,13 @@
       <c r="M11" s="47" t="inlineStr"/>
       <c r="N11" s="58" t="inlineStr"/>
       <c r="O11" s="47" t="inlineStr"/>
-      <c r="P11" s="55" t="inlineStr"/>
+      <c r="P11" s="59" t="inlineStr"/>
       <c r="Q11" s="48" t="inlineStr"/>
-      <c r="R11" s="55" t="inlineStr"/>
+      <c r="R11" s="59" t="inlineStr"/>
       <c r="S11" s="48" t="inlineStr"/>
-      <c r="T11" s="55" t="inlineStr"/>
+      <c r="T11" s="59" t="inlineStr"/>
       <c r="U11" s="48" t="inlineStr"/>
+      <c r="V11" s="57" t="inlineStr"/>
     </row>
     <row r="12" ht="15.6" customHeight="1">
       <c r="A12" s="33" t="n">
@@ -1790,13 +1834,13 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="P12" s="57" t="inlineStr">
+      <c r="P12" s="55" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
       <c r="Q12" s="48" t="inlineStr"/>
-      <c r="R12" s="57" t="inlineStr">
+      <c r="R12" s="55" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -1806,7 +1850,7 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="T12" s="57" t="inlineStr">
+      <c r="T12" s="55" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -1816,6 +1860,7 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="V12" s="57" t="inlineStr"/>
     </row>
     <row r="13" ht="15.6" customHeight="1">
       <c r="A13" s="33" t="n">
@@ -1827,13 +1872,13 @@
         </is>
       </c>
       <c r="C13" s="45" t="inlineStr"/>
-      <c r="D13" s="60" t="inlineStr"/>
+      <c r="D13" s="57" t="inlineStr"/>
       <c r="E13" s="49" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
-      <c r="F13" s="60" t="inlineStr"/>
+      <c r="F13" s="57" t="inlineStr"/>
       <c r="G13" s="45" t="inlineStr"/>
       <c r="H13" s="51" t="inlineStr">
         <is>
@@ -1863,12 +1908,13 @@
         </is>
       </c>
       <c r="O13" s="47" t="inlineStr"/>
-      <c r="P13" s="55" t="inlineStr"/>
+      <c r="P13" s="59" t="inlineStr"/>
       <c r="Q13" s="48" t="inlineStr"/>
-      <c r="R13" s="55" t="inlineStr"/>
+      <c r="R13" s="59" t="inlineStr"/>
       <c r="S13" s="48" t="inlineStr"/>
-      <c r="T13" s="55" t="inlineStr"/>
+      <c r="T13" s="59" t="inlineStr"/>
       <c r="U13" s="48" t="inlineStr"/>
+      <c r="V13" s="57" t="inlineStr"/>
     </row>
     <row r="14" ht="15.6" customHeight="1">
       <c r="A14" s="33" t="n">
@@ -1944,13 +1990,13 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="P14" s="57" t="inlineStr">
+      <c r="P14" s="55" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
       <c r="Q14" s="48" t="inlineStr"/>
-      <c r="R14" s="57" t="inlineStr">
+      <c r="R14" s="55" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -1960,7 +2006,7 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="T14" s="57" t="inlineStr">
+      <c r="T14" s="55" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -1970,6 +2016,7 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="V14" s="57" t="inlineStr"/>
     </row>
     <row r="15" ht="15.6" customHeight="1">
       <c r="A15" s="33" t="n">
@@ -2015,7 +2062,7 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="J15" s="59" t="inlineStr">
+      <c r="J15" s="60" t="inlineStr">
         <is>
           <t>NON-MUS</t>
         </is>
@@ -2045,13 +2092,13 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="P15" s="57" t="inlineStr">
+      <c r="P15" s="55" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
       <c r="Q15" s="48" t="inlineStr"/>
-      <c r="R15" s="57" t="inlineStr">
+      <c r="R15" s="55" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -2061,7 +2108,7 @@
           <t>NON-MUS</t>
         </is>
       </c>
-      <c r="T15" s="57" t="inlineStr">
+      <c r="T15" s="55" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -2071,6 +2118,7 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="V15" s="57" t="inlineStr"/>
     </row>
     <row r="16" ht="15.6" customHeight="1">
       <c r="A16" s="33" t="n">
@@ -2142,16 +2190,33 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="P16" s="55" t="inlineStr"/>
+      <c r="P16" s="55" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="Q16" s="48" t="inlineStr"/>
-      <c r="R16" s="55" t="inlineStr"/>
+      <c r="R16" s="55" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="S16" s="56" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
-      <c r="T16" s="55" t="inlineStr"/>
-      <c r="U16" s="48" t="inlineStr"/>
+      <c r="T16" s="55" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="U16" s="56" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="V16" s="57" t="inlineStr"/>
     </row>
     <row r="17" ht="15.6" customHeight="1">
       <c r="A17" s="33" t="n">
@@ -2207,12 +2272,13 @@
       </c>
       <c r="N17" s="58" t="inlineStr"/>
       <c r="O17" s="47" t="inlineStr"/>
-      <c r="P17" s="55" t="inlineStr"/>
+      <c r="P17" s="59" t="inlineStr"/>
       <c r="Q17" s="48" t="inlineStr"/>
-      <c r="R17" s="55" t="inlineStr"/>
+      <c r="R17" s="59" t="inlineStr"/>
       <c r="S17" s="48" t="inlineStr"/>
-      <c r="T17" s="55" t="inlineStr"/>
+      <c r="T17" s="59" t="inlineStr"/>
       <c r="U17" s="48" t="inlineStr"/>
+      <c r="V17" s="57" t="inlineStr"/>
     </row>
     <row r="18" ht="15.6" customHeight="1">
       <c r="A18" s="33" t="n">
@@ -2224,7 +2290,7 @@
         </is>
       </c>
       <c r="C18" s="45" t="inlineStr"/>
-      <c r="D18" s="60" t="inlineStr"/>
+      <c r="D18" s="57" t="inlineStr"/>
       <c r="E18" s="49" t="inlineStr">
         <is>
           <t>ü</t>
@@ -2236,7 +2302,7 @@
         </is>
       </c>
       <c r="G18" s="45" t="inlineStr"/>
-      <c r="H18" s="59" t="inlineStr"/>
+      <c r="H18" s="60" t="inlineStr"/>
       <c r="I18" s="52" t="inlineStr">
         <is>
           <t>ü</t>
@@ -2260,16 +2326,17 @@
         </is>
       </c>
       <c r="O18" s="47" t="inlineStr"/>
-      <c r="P18" s="55" t="inlineStr"/>
+      <c r="P18" s="59" t="inlineStr"/>
       <c r="Q18" s="48" t="inlineStr"/>
-      <c r="R18" s="55" t="inlineStr"/>
+      <c r="R18" s="59" t="inlineStr"/>
       <c r="S18" s="56" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
-      <c r="T18" s="55" t="inlineStr"/>
+      <c r="T18" s="59" t="inlineStr"/>
       <c r="U18" s="48" t="inlineStr"/>
+      <c r="V18" s="57" t="inlineStr"/>
     </row>
     <row r="19" ht="15.6" customHeight="1">
       <c r="A19" s="33" t="n">
@@ -2345,9 +2412,13 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="P19" s="55" t="inlineStr"/>
+      <c r="P19" s="55" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="Q19" s="48" t="inlineStr"/>
-      <c r="R19" s="57" t="inlineStr">
+      <c r="R19" s="55" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -2357,7 +2428,7 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="T19" s="57" t="inlineStr">
+      <c r="T19" s="55" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -2367,6 +2438,7 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="V19" s="57" t="inlineStr"/>
     </row>
     <row r="20" ht="15.6" customHeight="1">
       <c r="A20" s="33" t="n">
@@ -2442,9 +2514,13 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="P20" s="55" t="inlineStr"/>
+      <c r="P20" s="55" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="Q20" s="48" t="inlineStr"/>
-      <c r="R20" s="57" t="inlineStr">
+      <c r="R20" s="55" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -2454,7 +2530,7 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="T20" s="57" t="inlineStr">
+      <c r="T20" s="55" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -2464,6 +2540,7 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="V20" s="57" t="inlineStr"/>
     </row>
     <row r="21" ht="15.6" customHeight="1">
       <c r="A21" s="33" t="n">
@@ -2539,13 +2616,13 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="P21" s="57" t="inlineStr">
+      <c r="P21" s="55" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
       <c r="Q21" s="48" t="inlineStr"/>
-      <c r="R21" s="57" t="inlineStr">
+      <c r="R21" s="55" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -2555,7 +2632,7 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="T21" s="57" t="inlineStr">
+      <c r="T21" s="55" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -2565,6 +2642,7 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="V21" s="57" t="inlineStr"/>
     </row>
     <row r="22" ht="15.6" customHeight="1">
       <c r="A22" s="33" t="n">
@@ -2640,13 +2718,13 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="P22" s="57" t="inlineStr">
+      <c r="P22" s="55" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
       <c r="Q22" s="48" t="inlineStr"/>
-      <c r="R22" s="57" t="inlineStr">
+      <c r="R22" s="55" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -2656,12 +2734,13 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="T22" s="55" t="inlineStr"/>
+      <c r="T22" s="59" t="inlineStr"/>
       <c r="U22" s="56" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
+      <c r="V22" s="57" t="inlineStr"/>
     </row>
     <row r="23" ht="15.6" customHeight="1">
       <c r="A23" s="33" t="n">
@@ -2683,7 +2762,7 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="F23" s="60" t="inlineStr"/>
+      <c r="F23" s="57" t="inlineStr"/>
       <c r="G23" s="45" t="inlineStr"/>
       <c r="H23" s="51" t="inlineStr">
         <is>
@@ -2709,12 +2788,17 @@
       </c>
       <c r="N23" s="58" t="inlineStr"/>
       <c r="O23" s="47" t="inlineStr"/>
-      <c r="P23" s="55" t="inlineStr"/>
+      <c r="P23" s="59" t="inlineStr"/>
       <c r="Q23" s="48" t="inlineStr"/>
-      <c r="R23" s="55" t="inlineStr"/>
-      <c r="S23" s="48" t="inlineStr"/>
-      <c r="T23" s="55" t="inlineStr"/>
+      <c r="R23" s="59" t="inlineStr"/>
+      <c r="S23" s="56" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="T23" s="59" t="inlineStr"/>
       <c r="U23" s="48" t="inlineStr"/>
+      <c r="V23" s="57" t="inlineStr"/>
     </row>
     <row r="24" ht="15.6" customHeight="1">
       <c r="A24" s="33" t="n">
@@ -2730,7 +2814,7 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="D24" s="60" t="inlineStr"/>
+      <c r="D24" s="57" t="inlineStr"/>
       <c r="E24" s="49" t="inlineStr">
         <is>
           <t>ü</t>
@@ -2742,7 +2826,7 @@
         </is>
       </c>
       <c r="G24" s="45" t="inlineStr"/>
-      <c r="H24" s="59" t="inlineStr"/>
+      <c r="H24" s="60" t="inlineStr"/>
       <c r="I24" s="52" t="inlineStr">
         <is>
           <t>ü</t>
@@ -2758,12 +2842,13 @@
       <c r="M24" s="47" t="inlineStr"/>
       <c r="N24" s="58" t="inlineStr"/>
       <c r="O24" s="47" t="inlineStr"/>
-      <c r="P24" s="55" t="inlineStr"/>
+      <c r="P24" s="59" t="inlineStr"/>
       <c r="Q24" s="48" t="inlineStr"/>
-      <c r="R24" s="55" t="inlineStr"/>
+      <c r="R24" s="59" t="inlineStr"/>
       <c r="S24" s="48" t="inlineStr"/>
-      <c r="T24" s="55" t="inlineStr"/>
+      <c r="T24" s="59" t="inlineStr"/>
       <c r="U24" s="48" t="inlineStr"/>
+      <c r="V24" s="57" t="inlineStr"/>
     </row>
     <row r="25" ht="15.6" customHeight="1">
       <c r="A25" s="33" t="n">
@@ -2839,13 +2924,13 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="P25" s="57" t="inlineStr">
+      <c r="P25" s="55" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
       <c r="Q25" s="48" t="inlineStr"/>
-      <c r="R25" s="57" t="inlineStr">
+      <c r="R25" s="55" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -2855,7 +2940,7 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="T25" s="57" t="inlineStr">
+      <c r="T25" s="55" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -2865,6 +2950,7 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="V25" s="57" t="inlineStr"/>
     </row>
     <row r="26" ht="15.6" customHeight="1">
       <c r="A26" s="33" t="n">
@@ -2940,13 +3026,13 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="P26" s="57" t="inlineStr">
+      <c r="P26" s="55" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
       <c r="Q26" s="48" t="inlineStr"/>
-      <c r="R26" s="57" t="inlineStr">
+      <c r="R26" s="55" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -2956,7 +3042,7 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="T26" s="57" t="inlineStr">
+      <c r="T26" s="55" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -2966,6 +3052,7 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="V26" s="57" t="inlineStr"/>
     </row>
     <row r="27" ht="15.6" customHeight="1">
       <c r="A27" s="33" t="n">
@@ -3011,7 +3098,7 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="J27" s="59" t="inlineStr">
+      <c r="J27" s="60" t="inlineStr">
         <is>
           <t>NON-MUS</t>
         </is>
@@ -3041,9 +3128,13 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="P27" s="55" t="inlineStr"/>
+      <c r="P27" s="55" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="Q27" s="48" t="inlineStr"/>
-      <c r="R27" s="57" t="inlineStr">
+      <c r="R27" s="55" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -3053,7 +3144,7 @@
           <t>NON-MUS</t>
         </is>
       </c>
-      <c r="T27" s="57" t="inlineStr">
+      <c r="T27" s="55" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -3063,6 +3154,7 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="V27" s="57" t="inlineStr"/>
     </row>
     <row r="28" ht="15.6" customHeight="1">
       <c r="A28" s="33" t="n">
@@ -3134,9 +3226,13 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="P28" s="55" t="inlineStr"/>
+      <c r="P28" s="55" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="Q28" s="48" t="inlineStr"/>
-      <c r="R28" s="57" t="inlineStr">
+      <c r="R28" s="55" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -3146,12 +3242,13 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="T28" s="57" t="inlineStr">
+      <c r="T28" s="55" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
       <c r="U28" s="48" t="inlineStr"/>
+      <c r="V28" s="57" t="inlineStr"/>
     </row>
     <row r="29" ht="15.6" customHeight="1">
       <c r="A29" s="33" t="n">
@@ -3197,7 +3294,7 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="J29" s="59" t="inlineStr">
+      <c r="J29" s="60" t="inlineStr">
         <is>
           <t>NON-MUS</t>
         </is>
@@ -3227,9 +3324,9 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="P29" s="55" t="inlineStr"/>
+      <c r="P29" s="59" t="inlineStr"/>
       <c r="Q29" s="48" t="inlineStr"/>
-      <c r="R29" s="57" t="inlineStr">
+      <c r="R29" s="55" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -3239,12 +3336,17 @@
           <t>NON-MUS</t>
         </is>
       </c>
-      <c r="T29" s="57" t="inlineStr">
+      <c r="T29" s="55" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
       <c r="U29" s="56" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="V29" s="50" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -3260,11 +3362,11 @@
         </is>
       </c>
       <c r="C30" s="45" t="inlineStr"/>
-      <c r="D30" s="60" t="inlineStr"/>
+      <c r="D30" s="57" t="inlineStr"/>
       <c r="E30" s="45" t="inlineStr"/>
-      <c r="F30" s="60" t="inlineStr"/>
+      <c r="F30" s="57" t="inlineStr"/>
       <c r="G30" s="45" t="inlineStr"/>
-      <c r="H30" s="59" t="inlineStr"/>
+      <c r="H30" s="60" t="inlineStr"/>
       <c r="I30" s="46" t="inlineStr"/>
       <c r="J30" s="51" t="inlineStr">
         <is>
@@ -3284,16 +3386,17 @@
         </is>
       </c>
       <c r="O30" s="47" t="inlineStr"/>
-      <c r="P30" s="55" t="inlineStr"/>
+      <c r="P30" s="59" t="inlineStr"/>
       <c r="Q30" s="48" t="inlineStr"/>
-      <c r="R30" s="55" t="inlineStr"/>
+      <c r="R30" s="59" t="inlineStr"/>
       <c r="S30" s="56" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
-      <c r="T30" s="55" t="inlineStr"/>
+      <c r="T30" s="59" t="inlineStr"/>
       <c r="U30" s="48" t="inlineStr"/>
+      <c r="V30" s="57" t="inlineStr"/>
     </row>
     <row r="31" ht="15.6" customHeight="1">
       <c r="A31" s="33" t="n">
@@ -3361,16 +3464,17 @@
       </c>
       <c r="N31" s="58" t="inlineStr"/>
       <c r="O31" s="47" t="inlineStr"/>
-      <c r="P31" s="55" t="inlineStr"/>
+      <c r="P31" s="59" t="inlineStr"/>
       <c r="Q31" s="48" t="inlineStr"/>
-      <c r="R31" s="55" t="inlineStr"/>
+      <c r="R31" s="59" t="inlineStr"/>
       <c r="S31" s="56" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
-      <c r="T31" s="55" t="inlineStr"/>
+      <c r="T31" s="59" t="inlineStr"/>
       <c r="U31" s="48" t="inlineStr"/>
+      <c r="V31" s="57" t="inlineStr"/>
     </row>
     <row r="32" ht="15.6" customHeight="1">
       <c r="A32" s="33" t="n">
@@ -3446,13 +3550,13 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="P32" s="57" t="inlineStr">
+      <c r="P32" s="55" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
       <c r="Q32" s="48" t="inlineStr"/>
-      <c r="R32" s="57" t="inlineStr">
+      <c r="R32" s="55" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -3462,7 +3566,7 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="T32" s="57" t="inlineStr">
+      <c r="T32" s="55" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -3472,6 +3576,7 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="V32" s="57" t="inlineStr"/>
     </row>
     <row r="33" ht="15.6" customHeight="1">
       <c r="A33" s="33" t="n">
@@ -3493,15 +3598,15 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="F33" s="60" t="inlineStr"/>
+      <c r="F33" s="57" t="inlineStr"/>
       <c r="G33" s="45" t="inlineStr"/>
-      <c r="H33" s="59" t="inlineStr"/>
+      <c r="H33" s="60" t="inlineStr"/>
       <c r="I33" s="52" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
-      <c r="J33" s="59" t="inlineStr"/>
+      <c r="J33" s="60" t="inlineStr"/>
       <c r="K33" s="47" t="inlineStr"/>
       <c r="L33" s="58" t="inlineStr"/>
       <c r="M33" s="47" t="inlineStr"/>
@@ -3511,12 +3616,13 @@
         </is>
       </c>
       <c r="O33" s="47" t="inlineStr"/>
-      <c r="P33" s="55" t="inlineStr"/>
+      <c r="P33" s="59" t="inlineStr"/>
       <c r="Q33" s="48" t="inlineStr"/>
-      <c r="R33" s="55" t="inlineStr"/>
+      <c r="R33" s="59" t="inlineStr"/>
       <c r="S33" s="48" t="inlineStr"/>
-      <c r="T33" s="55" t="inlineStr"/>
+      <c r="T33" s="59" t="inlineStr"/>
       <c r="U33" s="48" t="inlineStr"/>
+      <c r="V33" s="57" t="inlineStr"/>
     </row>
     <row r="34" ht="15.6" customHeight="1">
       <c r="A34" s="33" t="n">
@@ -3588,13 +3694,13 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="P34" s="57" t="inlineStr">
+      <c r="P34" s="55" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
       <c r="Q34" s="48" t="inlineStr"/>
-      <c r="R34" s="57" t="inlineStr">
+      <c r="R34" s="55" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -3604,7 +3710,7 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="T34" s="57" t="inlineStr">
+      <c r="T34" s="55" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -3614,6 +3720,7 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="V34" s="57" t="inlineStr"/>
     </row>
     <row r="35" ht="15.6" customHeight="1">
       <c r="A35" s="33" t="n">
@@ -3689,9 +3796,9 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="P35" s="55" t="inlineStr"/>
+      <c r="P35" s="59" t="inlineStr"/>
       <c r="Q35" s="48" t="inlineStr"/>
-      <c r="R35" s="57" t="inlineStr">
+      <c r="R35" s="55" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -3701,12 +3808,13 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="T35" s="55" t="inlineStr"/>
+      <c r="T35" s="59" t="inlineStr"/>
       <c r="U35" s="56" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
+      <c r="V35" s="57" t="inlineStr"/>
     </row>
     <row r="36" ht="15.6" customHeight="1">
       <c r="A36" s="33" t="n">
@@ -3782,13 +3890,13 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="P36" s="57" t="inlineStr">
+      <c r="P36" s="55" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
       <c r="Q36" s="48" t="inlineStr"/>
-      <c r="R36" s="57" t="inlineStr">
+      <c r="R36" s="55" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -3798,12 +3906,17 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="T36" s="57" t="inlineStr">
+      <c r="T36" s="55" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
       <c r="U36" s="56" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="V36" s="50" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -3879,9 +3992,9 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="P37" s="55" t="inlineStr"/>
+      <c r="P37" s="59" t="inlineStr"/>
       <c r="Q37" s="48" t="inlineStr"/>
-      <c r="R37" s="57" t="inlineStr">
+      <c r="R37" s="55" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -3891,12 +4004,13 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="T37" s="55" t="inlineStr"/>
+      <c r="T37" s="59" t="inlineStr"/>
       <c r="U37" s="56" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
+      <c r="V37" s="57" t="inlineStr"/>
     </row>
     <row r="38" ht="15.6" customHeight="1">
       <c r="A38" s="33" t="n">
@@ -3938,7 +4052,7 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="J38" s="59" t="inlineStr">
+      <c r="J38" s="60" t="inlineStr">
         <is>
           <t>NON-MUS</t>
         </is>
@@ -3968,9 +4082,9 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="P38" s="55" t="inlineStr"/>
+      <c r="P38" s="59" t="inlineStr"/>
       <c r="Q38" s="48" t="inlineStr"/>
-      <c r="R38" s="57" t="inlineStr">
+      <c r="R38" s="55" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -3980,21 +4094,27 @@
           <t>NON-MUS</t>
         </is>
       </c>
-      <c r="T38" s="57" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="U38" s="48" t="inlineStr"/>
+      <c r="T38" s="55" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="U38" s="56" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="V38" s="57" t="inlineStr"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:B3"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="K1:O1"/>
     <mergeCell ref="P1:U1"/>
+    <mergeCell ref="V1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Excel/Bulanan/Excel/List Tugas Bulanan Ke-2 (30 Juli 2021 - 27 September 2021).xlsx
+++ b/Excel/Bulanan/Excel/List Tugas Bulanan Ke-2 (30 Juli 2021 - 27 September 2021).xlsx
@@ -884,7 +884,7 @@
       <c r="U1" s="38" t="n"/>
       <c r="V1" s="35" t="inlineStr">
         <is>
-          <t>Minggu Ke-6</t>
+          <t>Minggu Ke-10</t>
         </is>
       </c>
     </row>
@@ -2275,7 +2275,11 @@
       <c r="P17" s="59" t="inlineStr"/>
       <c r="Q17" s="48" t="inlineStr"/>
       <c r="R17" s="59" t="inlineStr"/>
-      <c r="S17" s="48" t="inlineStr"/>
+      <c r="S17" s="56" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="T17" s="59" t="inlineStr"/>
       <c r="U17" s="48" t="inlineStr"/>
       <c r="V17" s="57" t="inlineStr"/>
@@ -3466,7 +3470,11 @@
       <c r="O31" s="47" t="inlineStr"/>
       <c r="P31" s="59" t="inlineStr"/>
       <c r="Q31" s="48" t="inlineStr"/>
-      <c r="R31" s="59" t="inlineStr"/>
+      <c r="R31" s="55" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="S31" s="56" t="inlineStr">
         <is>
           <t>ü</t>

--- a/Excel/Bulanan/Excel/List Tugas Bulanan Ke-2 (30 Juli 2021 - 27 September 2021).xlsx
+++ b/Excel/Bulanan/Excel/List Tugas Bulanan Ke-2 (30 Juli 2021 - 27 September 2021).xlsx
@@ -814,7 +814,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V38"/>
+  <dimension ref="A1:X38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="P8" sqref="P8"/>
@@ -887,6 +887,8 @@
           <t>Minggu Ke-10</t>
         </is>
       </c>
+      <c r="W1" s="35" t="n"/>
+      <c r="X1" s="35" t="n"/>
     </row>
     <row r="2" ht="18" customHeight="1">
       <c r="A2" s="39" t="n"/>
@@ -991,6 +993,16 @@
           <t>Tugas 1</t>
         </is>
       </c>
+      <c r="W2" s="40" t="inlineStr">
+        <is>
+          <t>Tugas 2</t>
+        </is>
+      </c>
+      <c r="X2" s="40" t="inlineStr">
+        <is>
+          <t>Tugas 3</t>
+        </is>
+      </c>
     </row>
     <row r="3" ht="15.6" customHeight="1">
       <c r="A3" s="44" t="n"/>
@@ -1095,6 +1107,16 @@
           <t>MAT10</t>
         </is>
       </c>
+      <c r="W3" s="45" t="inlineStr">
+        <is>
+          <t>BINDO5</t>
+        </is>
+      </c>
+      <c r="X3" s="45" t="inlineStr">
+        <is>
+          <t>BINDO6</t>
+        </is>
+      </c>
     </row>
     <row r="4" ht="15.6" customHeight="1">
       <c r="A4" s="33" t="n">
@@ -1197,6 +1219,8 @@
         </is>
       </c>
       <c r="V4" s="57" t="inlineStr"/>
+      <c r="W4" s="45" t="inlineStr"/>
+      <c r="X4" s="57" t="inlineStr"/>
     </row>
     <row r="5" ht="15.6" customHeight="1">
       <c r="A5" s="33" t="n">
@@ -1299,6 +1323,8 @@
         </is>
       </c>
       <c r="V5" s="57" t="inlineStr"/>
+      <c r="W5" s="45" t="inlineStr"/>
+      <c r="X5" s="57" t="inlineStr"/>
     </row>
     <row r="6" ht="15.6" customHeight="1">
       <c r="A6" s="33" t="n">
@@ -1401,6 +1427,8 @@
         </is>
       </c>
       <c r="V6" s="57" t="inlineStr"/>
+      <c r="W6" s="45" t="inlineStr"/>
+      <c r="X6" s="57" t="inlineStr"/>
     </row>
     <row r="7" ht="15.6" customHeight="1">
       <c r="A7" s="33" t="n">
@@ -1467,6 +1495,8 @@
       <c r="T7" s="59" t="inlineStr"/>
       <c r="U7" s="48" t="inlineStr"/>
       <c r="V7" s="57" t="inlineStr"/>
+      <c r="W7" s="45" t="inlineStr"/>
+      <c r="X7" s="57" t="inlineStr"/>
     </row>
     <row r="8" ht="15.6" customHeight="1">
       <c r="A8" s="33" t="n">
@@ -1569,6 +1599,8 @@
         </is>
       </c>
       <c r="V8" s="57" t="inlineStr"/>
+      <c r="W8" s="45" t="inlineStr"/>
+      <c r="X8" s="57" t="inlineStr"/>
     </row>
     <row r="9" ht="15.6" customHeight="1">
       <c r="A9" s="33" t="n">
@@ -1623,6 +1655,8 @@
       <c r="T9" s="59" t="inlineStr"/>
       <c r="U9" s="48" t="inlineStr"/>
       <c r="V9" s="57" t="inlineStr"/>
+      <c r="W9" s="45" t="inlineStr"/>
+      <c r="X9" s="57" t="inlineStr"/>
     </row>
     <row r="10" ht="15.6" customHeight="1">
       <c r="A10" s="33" t="n">
@@ -1725,6 +1759,8 @@
         </is>
       </c>
       <c r="V10" s="57" t="inlineStr"/>
+      <c r="W10" s="45" t="inlineStr"/>
+      <c r="X10" s="57" t="inlineStr"/>
     </row>
     <row r="11" ht="15.6" customHeight="1">
       <c r="A11" s="33" t="n">
@@ -1759,6 +1795,8 @@
       <c r="T11" s="59" t="inlineStr"/>
       <c r="U11" s="48" t="inlineStr"/>
       <c r="V11" s="57" t="inlineStr"/>
+      <c r="W11" s="45" t="inlineStr"/>
+      <c r="X11" s="57" t="inlineStr"/>
     </row>
     <row r="12" ht="15.6" customHeight="1">
       <c r="A12" s="33" t="n">
@@ -1861,6 +1899,8 @@
         </is>
       </c>
       <c r="V12" s="57" t="inlineStr"/>
+      <c r="W12" s="45" t="inlineStr"/>
+      <c r="X12" s="57" t="inlineStr"/>
     </row>
     <row r="13" ht="15.6" customHeight="1">
       <c r="A13" s="33" t="n">
@@ -1915,6 +1955,8 @@
       <c r="T13" s="59" t="inlineStr"/>
       <c r="U13" s="48" t="inlineStr"/>
       <c r="V13" s="57" t="inlineStr"/>
+      <c r="W13" s="45" t="inlineStr"/>
+      <c r="X13" s="57" t="inlineStr"/>
     </row>
     <row r="14" ht="15.6" customHeight="1">
       <c r="A14" s="33" t="n">
@@ -2017,6 +2059,8 @@
         </is>
       </c>
       <c r="V14" s="57" t="inlineStr"/>
+      <c r="W14" s="45" t="inlineStr"/>
+      <c r="X14" s="57" t="inlineStr"/>
     </row>
     <row r="15" ht="15.6" customHeight="1">
       <c r="A15" s="33" t="n">
@@ -2119,6 +2163,8 @@
         </is>
       </c>
       <c r="V15" s="57" t="inlineStr"/>
+      <c r="W15" s="45" t="inlineStr"/>
+      <c r="X15" s="57" t="inlineStr"/>
     </row>
     <row r="16" ht="15.6" customHeight="1">
       <c r="A16" s="33" t="n">
@@ -2217,6 +2263,8 @@
         </is>
       </c>
       <c r="V16" s="57" t="inlineStr"/>
+      <c r="W16" s="45" t="inlineStr"/>
+      <c r="X16" s="57" t="inlineStr"/>
     </row>
     <row r="17" ht="15.6" customHeight="1">
       <c r="A17" s="33" t="n">
@@ -2283,6 +2331,8 @@
       <c r="T17" s="59" t="inlineStr"/>
       <c r="U17" s="48" t="inlineStr"/>
       <c r="V17" s="57" t="inlineStr"/>
+      <c r="W17" s="45" t="inlineStr"/>
+      <c r="X17" s="57" t="inlineStr"/>
     </row>
     <row r="18" ht="15.6" customHeight="1">
       <c r="A18" s="33" t="n">
@@ -2341,6 +2391,8 @@
       <c r="T18" s="59" t="inlineStr"/>
       <c r="U18" s="48" t="inlineStr"/>
       <c r="V18" s="57" t="inlineStr"/>
+      <c r="W18" s="45" t="inlineStr"/>
+      <c r="X18" s="57" t="inlineStr"/>
     </row>
     <row r="19" ht="15.6" customHeight="1">
       <c r="A19" s="33" t="n">
@@ -2443,6 +2495,8 @@
         </is>
       </c>
       <c r="V19" s="57" t="inlineStr"/>
+      <c r="W19" s="45" t="inlineStr"/>
+      <c r="X19" s="57" t="inlineStr"/>
     </row>
     <row r="20" ht="15.6" customHeight="1">
       <c r="A20" s="33" t="n">
@@ -2545,6 +2599,8 @@
         </is>
       </c>
       <c r="V20" s="57" t="inlineStr"/>
+      <c r="W20" s="45" t="inlineStr"/>
+      <c r="X20" s="57" t="inlineStr"/>
     </row>
     <row r="21" ht="15.6" customHeight="1">
       <c r="A21" s="33" t="n">
@@ -2647,6 +2703,8 @@
         </is>
       </c>
       <c r="V21" s="57" t="inlineStr"/>
+      <c r="W21" s="45" t="inlineStr"/>
+      <c r="X21" s="57" t="inlineStr"/>
     </row>
     <row r="22" ht="15.6" customHeight="1">
       <c r="A22" s="33" t="n">
@@ -2745,6 +2803,8 @@
         </is>
       </c>
       <c r="V22" s="57" t="inlineStr"/>
+      <c r="W22" s="45" t="inlineStr"/>
+      <c r="X22" s="57" t="inlineStr"/>
     </row>
     <row r="23" ht="15.6" customHeight="1">
       <c r="A23" s="33" t="n">
@@ -2803,6 +2863,8 @@
       <c r="T23" s="59" t="inlineStr"/>
       <c r="U23" s="48" t="inlineStr"/>
       <c r="V23" s="57" t="inlineStr"/>
+      <c r="W23" s="45" t="inlineStr"/>
+      <c r="X23" s="57" t="inlineStr"/>
     </row>
     <row r="24" ht="15.6" customHeight="1">
       <c r="A24" s="33" t="n">
@@ -2843,16 +2905,26 @@
       </c>
       <c r="K24" s="47" t="inlineStr"/>
       <c r="L24" s="58" t="inlineStr"/>
-      <c r="M24" s="47" t="inlineStr"/>
+      <c r="M24" s="53" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="N24" s="58" t="inlineStr"/>
       <c r="O24" s="47" t="inlineStr"/>
       <c r="P24" s="59" t="inlineStr"/>
       <c r="Q24" s="48" t="inlineStr"/>
       <c r="R24" s="59" t="inlineStr"/>
-      <c r="S24" s="48" t="inlineStr"/>
+      <c r="S24" s="56" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="T24" s="59" t="inlineStr"/>
       <c r="U24" s="48" t="inlineStr"/>
       <c r="V24" s="57" t="inlineStr"/>
+      <c r="W24" s="45" t="inlineStr"/>
+      <c r="X24" s="57" t="inlineStr"/>
     </row>
     <row r="25" ht="15.6" customHeight="1">
       <c r="A25" s="33" t="n">
@@ -2955,6 +3027,8 @@
         </is>
       </c>
       <c r="V25" s="57" t="inlineStr"/>
+      <c r="W25" s="45" t="inlineStr"/>
+      <c r="X25" s="57" t="inlineStr"/>
     </row>
     <row r="26" ht="15.6" customHeight="1">
       <c r="A26" s="33" t="n">
@@ -3057,6 +3131,12 @@
         </is>
       </c>
       <c r="V26" s="57" t="inlineStr"/>
+      <c r="W26" s="45" t="inlineStr"/>
+      <c r="X26" s="50" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="27" ht="15.6" customHeight="1">
       <c r="A27" s="33" t="n">
@@ -3159,6 +3239,8 @@
         </is>
       </c>
       <c r="V27" s="57" t="inlineStr"/>
+      <c r="W27" s="45" t="inlineStr"/>
+      <c r="X27" s="57" t="inlineStr"/>
     </row>
     <row r="28" ht="15.6" customHeight="1">
       <c r="A28" s="33" t="n">
@@ -3253,6 +3335,8 @@
       </c>
       <c r="U28" s="48" t="inlineStr"/>
       <c r="V28" s="57" t="inlineStr"/>
+      <c r="W28" s="45" t="inlineStr"/>
+      <c r="X28" s="57" t="inlineStr"/>
     </row>
     <row r="29" ht="15.6" customHeight="1">
       <c r="A29" s="33" t="n">
@@ -3355,6 +3439,8 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="W29" s="45" t="inlineStr"/>
+      <c r="X29" s="57" t="inlineStr"/>
     </row>
     <row r="30" ht="15.6" customHeight="1">
       <c r="A30" s="33" t="n">
@@ -3401,6 +3487,8 @@
       <c r="T30" s="59" t="inlineStr"/>
       <c r="U30" s="48" t="inlineStr"/>
       <c r="V30" s="57" t="inlineStr"/>
+      <c r="W30" s="45" t="inlineStr"/>
+      <c r="X30" s="57" t="inlineStr"/>
     </row>
     <row r="31" ht="15.6" customHeight="1">
       <c r="A31" s="33" t="n">
@@ -3483,6 +3571,8 @@
       <c r="T31" s="59" t="inlineStr"/>
       <c r="U31" s="48" t="inlineStr"/>
       <c r="V31" s="57" t="inlineStr"/>
+      <c r="W31" s="45" t="inlineStr"/>
+      <c r="X31" s="57" t="inlineStr"/>
     </row>
     <row r="32" ht="15.6" customHeight="1">
       <c r="A32" s="33" t="n">
@@ -3585,6 +3675,8 @@
         </is>
       </c>
       <c r="V32" s="57" t="inlineStr"/>
+      <c r="W32" s="45" t="inlineStr"/>
+      <c r="X32" s="57" t="inlineStr"/>
     </row>
     <row r="33" ht="15.6" customHeight="1">
       <c r="A33" s="33" t="n">
@@ -3617,7 +3709,11 @@
       <c r="J33" s="60" t="inlineStr"/>
       <c r="K33" s="47" t="inlineStr"/>
       <c r="L33" s="58" t="inlineStr"/>
-      <c r="M33" s="47" t="inlineStr"/>
+      <c r="M33" s="53" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="N33" s="54" t="inlineStr">
         <is>
           <t>ü</t>
@@ -3627,10 +3723,16 @@
       <c r="P33" s="59" t="inlineStr"/>
       <c r="Q33" s="48" t="inlineStr"/>
       <c r="R33" s="59" t="inlineStr"/>
-      <c r="S33" s="48" t="inlineStr"/>
+      <c r="S33" s="56" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="T33" s="59" t="inlineStr"/>
       <c r="U33" s="48" t="inlineStr"/>
       <c r="V33" s="57" t="inlineStr"/>
+      <c r="W33" s="45" t="inlineStr"/>
+      <c r="X33" s="57" t="inlineStr"/>
     </row>
     <row r="34" ht="15.6" customHeight="1">
       <c r="A34" s="33" t="n">
@@ -3729,6 +3831,8 @@
         </is>
       </c>
       <c r="V34" s="57" t="inlineStr"/>
+      <c r="W34" s="45" t="inlineStr"/>
+      <c r="X34" s="57" t="inlineStr"/>
     </row>
     <row r="35" ht="15.6" customHeight="1">
       <c r="A35" s="33" t="n">
@@ -3823,6 +3927,8 @@
         </is>
       </c>
       <c r="V35" s="57" t="inlineStr"/>
+      <c r="W35" s="45" t="inlineStr"/>
+      <c r="X35" s="57" t="inlineStr"/>
     </row>
     <row r="36" ht="15.6" customHeight="1">
       <c r="A36" s="33" t="n">
@@ -3929,6 +4035,8 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="W36" s="45" t="inlineStr"/>
+      <c r="X36" s="57" t="inlineStr"/>
     </row>
     <row r="37" ht="15.6" customHeight="1">
       <c r="A37" s="33" t="n">
@@ -4019,6 +4127,8 @@
         </is>
       </c>
       <c r="V37" s="57" t="inlineStr"/>
+      <c r="W37" s="45" t="inlineStr"/>
+      <c r="X37" s="57" t="inlineStr"/>
     </row>
     <row r="38" ht="15.6" customHeight="1">
       <c r="A38" s="33" t="n">
@@ -4113,6 +4223,8 @@
         </is>
       </c>
       <c r="V38" s="57" t="inlineStr"/>
+      <c r="W38" s="45" t="inlineStr"/>
+      <c r="X38" s="57" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -4122,7 +4234,7 @@
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="K1:O1"/>
     <mergeCell ref="P1:U1"/>
-    <mergeCell ref="V1"/>
+    <mergeCell ref="V1:X1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Excel/Bulanan/Excel/List Tugas Bulanan Ke-2 (30 Juli 2021 - 27 September 2021).xlsx
+++ b/Excel/Bulanan/Excel/List Tugas Bulanan Ke-2 (30 Juli 2021 - 27 September 2021).xlsx
@@ -140,7 +140,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -267,39 +267,11 @@
       <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -349,28 +321,22 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -378,10 +344,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -469,8 +441,6 @@
     <xf numFmtId="0" fontId="5" fillId="15" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -814,10 +784,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X38"/>
+  <dimension ref="A1:Y38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+      <selection activeCell="J10" sqref="A1:Y38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -832,8 +802,8 @@
     <col width="10.33203125" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="9.109375" bestFit="1" customWidth="1" min="14" max="18"/>
     <col width="10.33203125" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="9.109375" bestFit="1" customWidth="1" min="20" max="21"/>
-    <col width="16.109375" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="9.109375" bestFit="1" customWidth="1" min="20" max="24"/>
+    <col width="10.33203125" bestFit="1" customWidth="1" min="25" max="25"/>
   </cols>
   <sheetData>
     <row r="1" ht="18" customHeight="1">
@@ -889,6 +859,7 @@
       </c>
       <c r="W1" s="35" t="n"/>
       <c r="X1" s="35" t="n"/>
+      <c r="Y1" s="35" t="n"/>
     </row>
     <row r="2" ht="18" customHeight="1">
       <c r="A2" s="39" t="n"/>
@@ -1003,6 +974,11 @@
           <t>Tugas 3</t>
         </is>
       </c>
+      <c r="Y2" s="40" t="inlineStr">
+        <is>
+          <t>Tugas 4</t>
+        </is>
+      </c>
     </row>
     <row r="3" ht="15.6" customHeight="1">
       <c r="A3" s="44" t="n"/>
@@ -1117,6 +1093,11 @@
           <t>BINDO6</t>
         </is>
       </c>
+      <c r="Y3" s="45" t="inlineStr">
+        <is>
+          <t>PAI10</t>
+        </is>
+      </c>
     </row>
     <row r="4" ht="15.6" customHeight="1">
       <c r="A4" s="33" t="n">
@@ -1197,7 +1178,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="Q4" s="48" t="inlineStr"/>
+      <c r="Q4" s="56" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="R4" s="55" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1221,6 +1206,7 @@
       <c r="V4" s="57" t="inlineStr"/>
       <c r="W4" s="45" t="inlineStr"/>
       <c r="X4" s="57" t="inlineStr"/>
+      <c r="Y4" s="45" t="inlineStr"/>
     </row>
     <row r="5" ht="15.6" customHeight="1">
       <c r="A5" s="33" t="n">
@@ -1301,7 +1287,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="Q5" s="48" t="inlineStr"/>
+      <c r="Q5" s="56" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="R5" s="55" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1325,6 +1315,11 @@
       <c r="V5" s="57" t="inlineStr"/>
       <c r="W5" s="45" t="inlineStr"/>
       <c r="X5" s="57" t="inlineStr"/>
+      <c r="Y5" s="49" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="6" ht="15.6" customHeight="1">
       <c r="A6" s="33" t="n">
@@ -1405,7 +1400,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="Q6" s="48" t="inlineStr"/>
+      <c r="Q6" s="56" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="R6" s="55" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1429,6 +1428,11 @@
       <c r="V6" s="57" t="inlineStr"/>
       <c r="W6" s="45" t="inlineStr"/>
       <c r="X6" s="57" t="inlineStr"/>
+      <c r="Y6" s="49" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="7" ht="15.6" customHeight="1">
       <c r="A7" s="33" t="n">
@@ -1497,6 +1501,7 @@
       <c r="V7" s="57" t="inlineStr"/>
       <c r="W7" s="45" t="inlineStr"/>
       <c r="X7" s="57" t="inlineStr"/>
+      <c r="Y7" s="45" t="inlineStr"/>
     </row>
     <row r="8" ht="15.6" customHeight="1">
       <c r="A8" s="33" t="n">
@@ -1601,6 +1606,11 @@
       <c r="V8" s="57" t="inlineStr"/>
       <c r="W8" s="45" t="inlineStr"/>
       <c r="X8" s="57" t="inlineStr"/>
+      <c r="Y8" s="49" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="9" ht="15.6" customHeight="1">
       <c r="A9" s="33" t="n">
@@ -1657,6 +1667,7 @@
       <c r="V9" s="57" t="inlineStr"/>
       <c r="W9" s="45" t="inlineStr"/>
       <c r="X9" s="57" t="inlineStr"/>
+      <c r="Y9" s="45" t="inlineStr"/>
     </row>
     <row r="10" ht="15.6" customHeight="1">
       <c r="A10" s="33" t="n">
@@ -1761,6 +1772,11 @@
       <c r="V10" s="57" t="inlineStr"/>
       <c r="W10" s="45" t="inlineStr"/>
       <c r="X10" s="57" t="inlineStr"/>
+      <c r="Y10" s="49" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="11" ht="15.6" customHeight="1">
       <c r="A11" s="33" t="n">
@@ -1797,6 +1813,7 @@
       <c r="V11" s="57" t="inlineStr"/>
       <c r="W11" s="45" t="inlineStr"/>
       <c r="X11" s="57" t="inlineStr"/>
+      <c r="Y11" s="45" t="inlineStr"/>
     </row>
     <row r="12" ht="15.6" customHeight="1">
       <c r="A12" s="33" t="n">
@@ -1877,7 +1894,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="Q12" s="48" t="inlineStr"/>
+      <c r="Q12" s="56" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="R12" s="55" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1901,6 +1922,11 @@
       <c r="V12" s="57" t="inlineStr"/>
       <c r="W12" s="45" t="inlineStr"/>
       <c r="X12" s="57" t="inlineStr"/>
+      <c r="Y12" s="49" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="13" ht="15.6" customHeight="1">
       <c r="A13" s="33" t="n">
@@ -1957,6 +1983,7 @@
       <c r="V13" s="57" t="inlineStr"/>
       <c r="W13" s="45" t="inlineStr"/>
       <c r="X13" s="57" t="inlineStr"/>
+      <c r="Y13" s="45" t="inlineStr"/>
     </row>
     <row r="14" ht="15.6" customHeight="1">
       <c r="A14" s="33" t="n">
@@ -2061,6 +2088,11 @@
       <c r="V14" s="57" t="inlineStr"/>
       <c r="W14" s="45" t="inlineStr"/>
       <c r="X14" s="57" t="inlineStr"/>
+      <c r="Y14" s="49" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="15" ht="15.6" customHeight="1">
       <c r="A15" s="33" t="n">
@@ -2165,6 +2197,11 @@
       <c r="V15" s="57" t="inlineStr"/>
       <c r="W15" s="45" t="inlineStr"/>
       <c r="X15" s="57" t="inlineStr"/>
+      <c r="Y15" s="45" t="inlineStr">
+        <is>
+          <t>NON-MUS</t>
+        </is>
+      </c>
     </row>
     <row r="16" ht="15.6" customHeight="1">
       <c r="A16" s="33" t="n">
@@ -2241,7 +2278,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="Q16" s="48" t="inlineStr"/>
+      <c r="Q16" s="56" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="R16" s="55" t="inlineStr">
         <is>
           <t>ü</t>
@@ -2265,6 +2306,7 @@
       <c r="V16" s="57" t="inlineStr"/>
       <c r="W16" s="45" t="inlineStr"/>
       <c r="X16" s="57" t="inlineStr"/>
+      <c r="Y16" s="45" t="inlineStr"/>
     </row>
     <row r="17" ht="15.6" customHeight="1">
       <c r="A17" s="33" t="n">
@@ -2333,6 +2375,11 @@
       <c r="V17" s="57" t="inlineStr"/>
       <c r="W17" s="45" t="inlineStr"/>
       <c r="X17" s="57" t="inlineStr"/>
+      <c r="Y17" s="49" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="18" ht="15.6" customHeight="1">
       <c r="A18" s="33" t="n">
@@ -2393,6 +2440,7 @@
       <c r="V18" s="57" t="inlineStr"/>
       <c r="W18" s="45" t="inlineStr"/>
       <c r="X18" s="57" t="inlineStr"/>
+      <c r="Y18" s="45" t="inlineStr"/>
     </row>
     <row r="19" ht="15.6" customHeight="1">
       <c r="A19" s="33" t="n">
@@ -2473,7 +2521,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="Q19" s="48" t="inlineStr"/>
+      <c r="Q19" s="56" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="R19" s="55" t="inlineStr">
         <is>
           <t>ü</t>
@@ -2497,6 +2549,11 @@
       <c r="V19" s="57" t="inlineStr"/>
       <c r="W19" s="45" t="inlineStr"/>
       <c r="X19" s="57" t="inlineStr"/>
+      <c r="Y19" s="49" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="20" ht="15.6" customHeight="1">
       <c r="A20" s="33" t="n">
@@ -2601,6 +2658,7 @@
       <c r="V20" s="57" t="inlineStr"/>
       <c r="W20" s="45" t="inlineStr"/>
       <c r="X20" s="57" t="inlineStr"/>
+      <c r="Y20" s="45" t="inlineStr"/>
     </row>
     <row r="21" ht="15.6" customHeight="1">
       <c r="A21" s="33" t="n">
@@ -2681,7 +2739,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="Q21" s="48" t="inlineStr"/>
+      <c r="Q21" s="56" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="R21" s="55" t="inlineStr">
         <is>
           <t>ü</t>
@@ -2704,7 +2766,12 @@
       </c>
       <c r="V21" s="57" t="inlineStr"/>
       <c r="W21" s="45" t="inlineStr"/>
-      <c r="X21" s="57" t="inlineStr"/>
+      <c r="X21" s="50" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="Y21" s="45" t="inlineStr"/>
     </row>
     <row r="22" ht="15.6" customHeight="1">
       <c r="A22" s="33" t="n">
@@ -2805,6 +2872,7 @@
       <c r="V22" s="57" t="inlineStr"/>
       <c r="W22" s="45" t="inlineStr"/>
       <c r="X22" s="57" t="inlineStr"/>
+      <c r="Y22" s="45" t="inlineStr"/>
     </row>
     <row r="23" ht="15.6" customHeight="1">
       <c r="A23" s="33" t="n">
@@ -2865,6 +2933,11 @@
       <c r="V23" s="57" t="inlineStr"/>
       <c r="W23" s="45" t="inlineStr"/>
       <c r="X23" s="57" t="inlineStr"/>
+      <c r="Y23" s="49" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="24" ht="15.6" customHeight="1">
       <c r="A24" s="33" t="n">
@@ -2925,6 +2998,7 @@
       <c r="V24" s="57" t="inlineStr"/>
       <c r="W24" s="45" t="inlineStr"/>
       <c r="X24" s="57" t="inlineStr"/>
+      <c r="Y24" s="45" t="inlineStr"/>
     </row>
     <row r="25" ht="15.6" customHeight="1">
       <c r="A25" s="33" t="n">
@@ -3029,6 +3103,7 @@
       <c r="V25" s="57" t="inlineStr"/>
       <c r="W25" s="45" t="inlineStr"/>
       <c r="X25" s="57" t="inlineStr"/>
+      <c r="Y25" s="45" t="inlineStr"/>
     </row>
     <row r="26" ht="15.6" customHeight="1">
       <c r="A26" s="33" t="n">
@@ -3130,9 +3205,18 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="V26" s="57" t="inlineStr"/>
+      <c r="V26" s="50" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="W26" s="45" t="inlineStr"/>
       <c r="X26" s="50" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="Y26" s="49" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -3241,6 +3325,11 @@
       <c r="V27" s="57" t="inlineStr"/>
       <c r="W27" s="45" t="inlineStr"/>
       <c r="X27" s="57" t="inlineStr"/>
+      <c r="Y27" s="45" t="inlineStr">
+        <is>
+          <t>NON-MUS</t>
+        </is>
+      </c>
     </row>
     <row r="28" ht="15.6" customHeight="1">
       <c r="A28" s="33" t="n">
@@ -3337,6 +3426,7 @@
       <c r="V28" s="57" t="inlineStr"/>
       <c r="W28" s="45" t="inlineStr"/>
       <c r="X28" s="57" t="inlineStr"/>
+      <c r="Y28" s="45" t="inlineStr"/>
     </row>
     <row r="29" ht="15.6" customHeight="1">
       <c r="A29" s="33" t="n">
@@ -3441,6 +3531,11 @@
       </c>
       <c r="W29" s="45" t="inlineStr"/>
       <c r="X29" s="57" t="inlineStr"/>
+      <c r="Y29" s="45" t="inlineStr">
+        <is>
+          <t>NON-MUS</t>
+        </is>
+      </c>
     </row>
     <row r="30" ht="15.6" customHeight="1">
       <c r="A30" s="33" t="n">
@@ -3489,6 +3584,7 @@
       <c r="V30" s="57" t="inlineStr"/>
       <c r="W30" s="45" t="inlineStr"/>
       <c r="X30" s="57" t="inlineStr"/>
+      <c r="Y30" s="45" t="inlineStr"/>
     </row>
     <row r="31" ht="15.6" customHeight="1">
       <c r="A31" s="33" t="n">
@@ -3573,6 +3669,7 @@
       <c r="V31" s="57" t="inlineStr"/>
       <c r="W31" s="45" t="inlineStr"/>
       <c r="X31" s="57" t="inlineStr"/>
+      <c r="Y31" s="45" t="inlineStr"/>
     </row>
     <row r="32" ht="15.6" customHeight="1">
       <c r="A32" s="33" t="n">
@@ -3653,7 +3750,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="Q32" s="48" t="inlineStr"/>
+      <c r="Q32" s="56" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="R32" s="55" t="inlineStr">
         <is>
           <t>ü</t>
@@ -3674,9 +3775,18 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="V32" s="57" t="inlineStr"/>
+      <c r="V32" s="50" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="W32" s="45" t="inlineStr"/>
       <c r="X32" s="57" t="inlineStr"/>
+      <c r="Y32" s="49" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="33" ht="15.6" customHeight="1">
       <c r="A33" s="33" t="n">
@@ -3733,6 +3843,7 @@
       <c r="V33" s="57" t="inlineStr"/>
       <c r="W33" s="45" t="inlineStr"/>
       <c r="X33" s="57" t="inlineStr"/>
+      <c r="Y33" s="45" t="inlineStr"/>
     </row>
     <row r="34" ht="15.6" customHeight="1">
       <c r="A34" s="33" t="n">
@@ -3833,6 +3944,11 @@
       <c r="V34" s="57" t="inlineStr"/>
       <c r="W34" s="45" t="inlineStr"/>
       <c r="X34" s="57" t="inlineStr"/>
+      <c r="Y34" s="49" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="35" ht="15.6" customHeight="1">
       <c r="A35" s="33" t="n">
@@ -3909,7 +4025,11 @@
         </is>
       </c>
       <c r="P35" s="59" t="inlineStr"/>
-      <c r="Q35" s="48" t="inlineStr"/>
+      <c r="Q35" s="56" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="R35" s="55" t="inlineStr">
         <is>
           <t>ü</t>
@@ -3929,6 +4049,7 @@
       <c r="V35" s="57" t="inlineStr"/>
       <c r="W35" s="45" t="inlineStr"/>
       <c r="X35" s="57" t="inlineStr"/>
+      <c r="Y35" s="45" t="inlineStr"/>
     </row>
     <row r="36" ht="15.6" customHeight="1">
       <c r="A36" s="33" t="n">
@@ -4009,7 +4130,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="Q36" s="48" t="inlineStr"/>
+      <c r="Q36" s="56" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="R36" s="55" t="inlineStr">
         <is>
           <t>ü</t>
@@ -4037,6 +4162,11 @@
       </c>
       <c r="W36" s="45" t="inlineStr"/>
       <c r="X36" s="57" t="inlineStr"/>
+      <c r="Y36" s="49" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="37" ht="15.6" customHeight="1">
       <c r="A37" s="33" t="n">
@@ -4109,7 +4239,11 @@
         </is>
       </c>
       <c r="P37" s="59" t="inlineStr"/>
-      <c r="Q37" s="48" t="inlineStr"/>
+      <c r="Q37" s="56" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="R37" s="55" t="inlineStr">
         <is>
           <t>ü</t>
@@ -4129,6 +4263,11 @@
       <c r="V37" s="57" t="inlineStr"/>
       <c r="W37" s="45" t="inlineStr"/>
       <c r="X37" s="57" t="inlineStr"/>
+      <c r="Y37" s="49" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="38" ht="15.6" customHeight="1">
       <c r="A38" s="33" t="n">
@@ -4225,6 +4364,11 @@
       <c r="V38" s="57" t="inlineStr"/>
       <c r="W38" s="45" t="inlineStr"/>
       <c r="X38" s="57" t="inlineStr"/>
+      <c r="Y38" s="45" t="inlineStr">
+        <is>
+          <t>NON-MUS</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -4234,7 +4378,7 @@
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="K1:O1"/>
     <mergeCell ref="P1:U1"/>
-    <mergeCell ref="V1:X1"/>
+    <mergeCell ref="V1:Y1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Excel/Bulanan/Excel/List Tugas Bulanan Ke-2 (30 Juli 2021 - 27 September 2021).xlsx
+++ b/Excel/Bulanan/Excel/List Tugas Bulanan Ke-2 (30 Juli 2021 - 27 September 2021).xlsx
@@ -140,7 +140,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -267,11 +267,39 @@
       <bottom style="thin"/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -441,6 +469,8 @@
     <xf numFmtId="0" fontId="5" fillId="15" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2064,7 +2094,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="Q14" s="48" t="inlineStr"/>
+      <c r="Q14" s="56" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="R14" s="55" t="inlineStr">
         <is>
           <t>ü</t>
@@ -2194,7 +2228,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="V15" s="57" t="inlineStr"/>
+      <c r="V15" s="50" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="W15" s="45" t="inlineStr"/>
       <c r="X15" s="57" t="inlineStr"/>
       <c r="Y15" s="45" t="inlineStr">
@@ -2546,7 +2584,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="V19" s="57" t="inlineStr"/>
+      <c r="V19" s="50" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="W19" s="45" t="inlineStr"/>
       <c r="X19" s="57" t="inlineStr"/>
       <c r="Y19" s="49" t="inlineStr">
@@ -3502,7 +3544,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="P29" s="59" t="inlineStr"/>
+      <c r="P29" s="55" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="Q29" s="48" t="inlineStr"/>
       <c r="R29" s="55" t="inlineStr">
         <is>

--- a/Excel/Bulanan/Excel/List Tugas Bulanan Ke-2 (30 Juli 2021 - 27 September 2021).xlsx
+++ b/Excel/Bulanan/Excel/List Tugas Bulanan Ke-2 (30 Juli 2021 - 27 September 2021).xlsx
@@ -1612,7 +1612,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="Q8" s="48" t="inlineStr"/>
+      <c r="Q8" s="56" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="R8" s="55" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1778,7 +1782,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="Q10" s="48" t="inlineStr"/>
+      <c r="Q10" s="56" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="R10" s="55" t="inlineStr">
         <is>
           <t>ü</t>
@@ -2676,7 +2684,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="Q20" s="48" t="inlineStr"/>
+      <c r="Q20" s="56" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="R20" s="55" t="inlineStr">
         <is>
           <t>ü</t>
@@ -3226,7 +3238,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="Q26" s="48" t="inlineStr"/>
+      <c r="Q26" s="56" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="R26" s="55" t="inlineStr">
         <is>
           <t>ü</t>
@@ -3343,7 +3359,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="Q27" s="48" t="inlineStr"/>
+      <c r="Q27" s="56" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="R27" s="55" t="inlineStr">
         <is>
           <t>ü</t>

--- a/Excel/Bulanan/Excel/List Tugas Bulanan Ke-2 (30 Juli 2021 - 27 September 2021).xlsx
+++ b/Excel/Bulanan/Excel/List Tugas Bulanan Ke-2 (30 Juli 2021 - 27 September 2021).xlsx
@@ -140,7 +140,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -267,11 +267,39 @@
       <bottom style="thin"/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -441,6 +469,8 @@
     <xf numFmtId="0" fontId="5" fillId="15" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1582,7 +1612,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="Q8" s="48" t="inlineStr"/>
+      <c r="Q8" s="56" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="R8" s="55" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1748,7 +1782,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="Q10" s="48" t="inlineStr"/>
+      <c r="Q10" s="56" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="R10" s="55" t="inlineStr">
         <is>
           <t>ü</t>
@@ -2064,7 +2102,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="Q14" s="48" t="inlineStr"/>
+      <c r="Q14" s="56" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="R14" s="55" t="inlineStr">
         <is>
           <t>ü</t>
@@ -2194,7 +2236,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="V15" s="57" t="inlineStr"/>
+      <c r="V15" s="50" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="W15" s="45" t="inlineStr"/>
       <c r="X15" s="57" t="inlineStr"/>
       <c r="Y15" s="45" t="inlineStr">
@@ -2546,7 +2592,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="V19" s="57" t="inlineStr"/>
+      <c r="V19" s="50" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="W19" s="45" t="inlineStr"/>
       <c r="X19" s="57" t="inlineStr"/>
       <c r="Y19" s="49" t="inlineStr">
@@ -2634,7 +2684,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="Q20" s="48" t="inlineStr"/>
+      <c r="Q20" s="56" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="R20" s="55" t="inlineStr">
         <is>
           <t>ü</t>
@@ -3184,7 +3238,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="Q26" s="48" t="inlineStr"/>
+      <c r="Q26" s="56" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="R26" s="55" t="inlineStr">
         <is>
           <t>ü</t>
@@ -3301,7 +3359,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="Q27" s="48" t="inlineStr"/>
+      <c r="Q27" s="56" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="R27" s="55" t="inlineStr">
         <is>
           <t>ü</t>
@@ -3502,7 +3564,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="P29" s="59" t="inlineStr"/>
+      <c r="P29" s="55" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="Q29" s="48" t="inlineStr"/>
       <c r="R29" s="55" t="inlineStr">
         <is>

--- a/Excel/Bulanan/Excel/List Tugas Bulanan Ke-2 (30 Juli 2021 - 27 September 2021).xlsx
+++ b/Excel/Bulanan/Excel/List Tugas Bulanan Ke-2 (30 Juli 2021 - 27 September 2021).xlsx
@@ -814,7 +814,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y38"/>
+  <dimension ref="A1:AA38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="J10" sqref="A1:Y38"/>
@@ -890,6 +890,8 @@
       <c r="W1" s="35" t="n"/>
       <c r="X1" s="35" t="n"/>
       <c r="Y1" s="35" t="n"/>
+      <c r="Z1" s="35" t="n"/>
+      <c r="AA1" s="35" t="n"/>
     </row>
     <row r="2" ht="18" customHeight="1">
       <c r="A2" s="39" t="n"/>
@@ -1009,6 +1011,16 @@
           <t>Tugas 4</t>
         </is>
       </c>
+      <c r="Z2" s="40" t="inlineStr">
+        <is>
+          <t>Tugas 5</t>
+        </is>
+      </c>
+      <c r="AA2" s="40" t="inlineStr">
+        <is>
+          <t>Tugas 6</t>
+        </is>
+      </c>
     </row>
     <row r="3" ht="15.6" customHeight="1">
       <c r="A3" s="44" t="n"/>
@@ -1128,6 +1140,16 @@
           <t>PAI10</t>
         </is>
       </c>
+      <c r="Z3" s="45" t="inlineStr">
+        <is>
+          <t>PKK6</t>
+        </is>
+      </c>
+      <c r="AA3" s="45" t="inlineStr">
+        <is>
+          <t>PWPB5</t>
+        </is>
+      </c>
     </row>
     <row r="4" ht="15.6" customHeight="1">
       <c r="A4" s="33" t="n">
@@ -1237,6 +1259,8 @@
       <c r="W4" s="45" t="inlineStr"/>
       <c r="X4" s="57" t="inlineStr"/>
       <c r="Y4" s="45" t="inlineStr"/>
+      <c r="Z4" s="57" t="inlineStr"/>
+      <c r="AA4" s="45" t="inlineStr"/>
     </row>
     <row r="5" ht="15.6" customHeight="1">
       <c r="A5" s="33" t="n">
@@ -1350,6 +1374,8 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="Z5" s="57" t="inlineStr"/>
+      <c r="AA5" s="45" t="inlineStr"/>
     </row>
     <row r="6" ht="15.6" customHeight="1">
       <c r="A6" s="33" t="n">
@@ -1463,6 +1489,8 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="Z6" s="57" t="inlineStr"/>
+      <c r="AA6" s="45" t="inlineStr"/>
     </row>
     <row r="7" ht="15.6" customHeight="1">
       <c r="A7" s="33" t="n">
@@ -1532,6 +1560,8 @@
       <c r="W7" s="45" t="inlineStr"/>
       <c r="X7" s="57" t="inlineStr"/>
       <c r="Y7" s="45" t="inlineStr"/>
+      <c r="Z7" s="57" t="inlineStr"/>
+      <c r="AA7" s="45" t="inlineStr"/>
     </row>
     <row r="8" ht="15.6" customHeight="1">
       <c r="A8" s="33" t="n">
@@ -1645,6 +1675,8 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="Z8" s="57" t="inlineStr"/>
+      <c r="AA8" s="45" t="inlineStr"/>
     </row>
     <row r="9" ht="15.6" customHeight="1">
       <c r="A9" s="33" t="n">
@@ -1702,6 +1734,8 @@
       <c r="W9" s="45" t="inlineStr"/>
       <c r="X9" s="57" t="inlineStr"/>
       <c r="Y9" s="45" t="inlineStr"/>
+      <c r="Z9" s="57" t="inlineStr"/>
+      <c r="AA9" s="45" t="inlineStr"/>
     </row>
     <row r="10" ht="15.6" customHeight="1">
       <c r="A10" s="33" t="n">
@@ -1815,6 +1849,8 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="Z10" s="57" t="inlineStr"/>
+      <c r="AA10" s="45" t="inlineStr"/>
     </row>
     <row r="11" ht="15.6" customHeight="1">
       <c r="A11" s="33" t="n">
@@ -1852,6 +1888,8 @@
       <c r="W11" s="45" t="inlineStr"/>
       <c r="X11" s="57" t="inlineStr"/>
       <c r="Y11" s="45" t="inlineStr"/>
+      <c r="Z11" s="57" t="inlineStr"/>
+      <c r="AA11" s="45" t="inlineStr"/>
     </row>
     <row r="12" ht="15.6" customHeight="1">
       <c r="A12" s="33" t="n">
@@ -1965,6 +2003,8 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="Z12" s="57" t="inlineStr"/>
+      <c r="AA12" s="45" t="inlineStr"/>
     </row>
     <row r="13" ht="15.6" customHeight="1">
       <c r="A13" s="33" t="n">
@@ -2022,6 +2062,8 @@
       <c r="W13" s="45" t="inlineStr"/>
       <c r="X13" s="57" t="inlineStr"/>
       <c r="Y13" s="45" t="inlineStr"/>
+      <c r="Z13" s="57" t="inlineStr"/>
+      <c r="AA13" s="45" t="inlineStr"/>
     </row>
     <row r="14" ht="15.6" customHeight="1">
       <c r="A14" s="33" t="n">
@@ -2135,6 +2177,8 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="Z14" s="57" t="inlineStr"/>
+      <c r="AA14" s="45" t="inlineStr"/>
     </row>
     <row r="15" ht="15.6" customHeight="1">
       <c r="A15" s="33" t="n">
@@ -2248,6 +2292,8 @@
           <t>NON-MUS</t>
         </is>
       </c>
+      <c r="Z15" s="57" t="inlineStr"/>
+      <c r="AA15" s="45" t="inlineStr"/>
     </row>
     <row r="16" ht="15.6" customHeight="1">
       <c r="A16" s="33" t="n">
@@ -2353,6 +2399,8 @@
       <c r="W16" s="45" t="inlineStr"/>
       <c r="X16" s="57" t="inlineStr"/>
       <c r="Y16" s="45" t="inlineStr"/>
+      <c r="Z16" s="57" t="inlineStr"/>
+      <c r="AA16" s="45" t="inlineStr"/>
     </row>
     <row r="17" ht="15.6" customHeight="1">
       <c r="A17" s="33" t="n">
@@ -2426,6 +2474,8 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="Z17" s="57" t="inlineStr"/>
+      <c r="AA17" s="45" t="inlineStr"/>
     </row>
     <row r="18" ht="15.6" customHeight="1">
       <c r="A18" s="33" t="n">
@@ -2487,6 +2537,8 @@
       <c r="W18" s="45" t="inlineStr"/>
       <c r="X18" s="57" t="inlineStr"/>
       <c r="Y18" s="45" t="inlineStr"/>
+      <c r="Z18" s="57" t="inlineStr"/>
+      <c r="AA18" s="45" t="inlineStr"/>
     </row>
     <row r="19" ht="15.6" customHeight="1">
       <c r="A19" s="33" t="n">
@@ -2604,6 +2656,8 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="Z19" s="57" t="inlineStr"/>
+      <c r="AA19" s="45" t="inlineStr"/>
     </row>
     <row r="20" ht="15.6" customHeight="1">
       <c r="A20" s="33" t="n">
@@ -2709,10 +2763,16 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="V20" s="57" t="inlineStr"/>
+      <c r="V20" s="50" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="W20" s="45" t="inlineStr"/>
       <c r="X20" s="57" t="inlineStr"/>
       <c r="Y20" s="45" t="inlineStr"/>
+      <c r="Z20" s="57" t="inlineStr"/>
+      <c r="AA20" s="45" t="inlineStr"/>
     </row>
     <row r="21" ht="15.6" customHeight="1">
       <c r="A21" s="33" t="n">
@@ -2826,6 +2886,8 @@
         </is>
       </c>
       <c r="Y21" s="45" t="inlineStr"/>
+      <c r="Z21" s="57" t="inlineStr"/>
+      <c r="AA21" s="45" t="inlineStr"/>
     </row>
     <row r="22" ht="15.6" customHeight="1">
       <c r="A22" s="33" t="n">
@@ -2927,6 +2989,8 @@
       <c r="W22" s="45" t="inlineStr"/>
       <c r="X22" s="57" t="inlineStr"/>
       <c r="Y22" s="45" t="inlineStr"/>
+      <c r="Z22" s="57" t="inlineStr"/>
+      <c r="AA22" s="45" t="inlineStr"/>
     </row>
     <row r="23" ht="15.6" customHeight="1">
       <c r="A23" s="33" t="n">
@@ -2992,6 +3056,8 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="Z23" s="57" t="inlineStr"/>
+      <c r="AA23" s="45" t="inlineStr"/>
     </row>
     <row r="24" ht="15.6" customHeight="1">
       <c r="A24" s="33" t="n">
@@ -3053,6 +3119,8 @@
       <c r="W24" s="45" t="inlineStr"/>
       <c r="X24" s="57" t="inlineStr"/>
       <c r="Y24" s="45" t="inlineStr"/>
+      <c r="Z24" s="57" t="inlineStr"/>
+      <c r="AA24" s="45" t="inlineStr"/>
     </row>
     <row r="25" ht="15.6" customHeight="1">
       <c r="A25" s="33" t="n">
@@ -3158,6 +3226,8 @@
       <c r="W25" s="45" t="inlineStr"/>
       <c r="X25" s="57" t="inlineStr"/>
       <c r="Y25" s="45" t="inlineStr"/>
+      <c r="Z25" s="57" t="inlineStr"/>
+      <c r="AA25" s="45" t="inlineStr"/>
     </row>
     <row r="26" ht="15.6" customHeight="1">
       <c r="A26" s="33" t="n">
@@ -3279,6 +3349,8 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="Z26" s="57" t="inlineStr"/>
+      <c r="AA26" s="45" t="inlineStr"/>
     </row>
     <row r="27" ht="15.6" customHeight="1">
       <c r="A27" s="33" t="n">
@@ -3392,6 +3464,8 @@
           <t>NON-MUS</t>
         </is>
       </c>
+      <c r="Z27" s="57" t="inlineStr"/>
+      <c r="AA27" s="45" t="inlineStr"/>
     </row>
     <row r="28" ht="15.6" customHeight="1">
       <c r="A28" s="33" t="n">
@@ -3489,6 +3563,8 @@
       <c r="W28" s="45" t="inlineStr"/>
       <c r="X28" s="57" t="inlineStr"/>
       <c r="Y28" s="45" t="inlineStr"/>
+      <c r="Z28" s="57" t="inlineStr"/>
+      <c r="AA28" s="45" t="inlineStr"/>
     </row>
     <row r="29" ht="15.6" customHeight="1">
       <c r="A29" s="33" t="n">
@@ -3602,6 +3678,8 @@
           <t>NON-MUS</t>
         </is>
       </c>
+      <c r="Z29" s="57" t="inlineStr"/>
+      <c r="AA29" s="45" t="inlineStr"/>
     </row>
     <row r="30" ht="15.6" customHeight="1">
       <c r="A30" s="33" t="n">
@@ -3651,6 +3729,8 @@
       <c r="W30" s="45" t="inlineStr"/>
       <c r="X30" s="57" t="inlineStr"/>
       <c r="Y30" s="45" t="inlineStr"/>
+      <c r="Z30" s="57" t="inlineStr"/>
+      <c r="AA30" s="45" t="inlineStr"/>
     </row>
     <row r="31" ht="15.6" customHeight="1">
       <c r="A31" s="33" t="n">
@@ -3736,6 +3816,8 @@
       <c r="W31" s="45" t="inlineStr"/>
       <c r="X31" s="57" t="inlineStr"/>
       <c r="Y31" s="45" t="inlineStr"/>
+      <c r="Z31" s="57" t="inlineStr"/>
+      <c r="AA31" s="45" t="inlineStr"/>
     </row>
     <row r="32" ht="15.6" customHeight="1">
       <c r="A32" s="33" t="n">
@@ -3853,6 +3935,8 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="Z32" s="57" t="inlineStr"/>
+      <c r="AA32" s="45" t="inlineStr"/>
     </row>
     <row r="33" ht="15.6" customHeight="1">
       <c r="A33" s="33" t="n">
@@ -3910,6 +3994,8 @@
       <c r="W33" s="45" t="inlineStr"/>
       <c r="X33" s="57" t="inlineStr"/>
       <c r="Y33" s="45" t="inlineStr"/>
+      <c r="Z33" s="57" t="inlineStr"/>
+      <c r="AA33" s="45" t="inlineStr"/>
     </row>
     <row r="34" ht="15.6" customHeight="1">
       <c r="A34" s="33" t="n">
@@ -3986,7 +4072,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="Q34" s="48" t="inlineStr"/>
+      <c r="Q34" s="56" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="R34" s="55" t="inlineStr">
         <is>
           <t>ü</t>
@@ -4015,6 +4105,8 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="Z34" s="57" t="inlineStr"/>
+      <c r="AA34" s="45" t="inlineStr"/>
     </row>
     <row r="35" ht="15.6" customHeight="1">
       <c r="A35" s="33" t="n">
@@ -4090,7 +4182,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="P35" s="59" t="inlineStr"/>
+      <c r="P35" s="55" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="Q35" s="56" t="inlineStr">
         <is>
           <t>ü</t>
@@ -4116,6 +4212,8 @@
       <c r="W35" s="45" t="inlineStr"/>
       <c r="X35" s="57" t="inlineStr"/>
       <c r="Y35" s="45" t="inlineStr"/>
+      <c r="Z35" s="57" t="inlineStr"/>
+      <c r="AA35" s="45" t="inlineStr"/>
     </row>
     <row r="36" ht="15.6" customHeight="1">
       <c r="A36" s="33" t="n">
@@ -4233,6 +4331,8 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="Z36" s="57" t="inlineStr"/>
+      <c r="AA36" s="45" t="inlineStr"/>
     </row>
     <row r="37" ht="15.6" customHeight="1">
       <c r="A37" s="33" t="n">
@@ -4334,6 +4434,8 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="Z37" s="57" t="inlineStr"/>
+      <c r="AA37" s="45" t="inlineStr"/>
     </row>
     <row r="38" ht="15.6" customHeight="1">
       <c r="A38" s="33" t="n">
@@ -4435,6 +4537,8 @@
           <t>NON-MUS</t>
         </is>
       </c>
+      <c r="Z38" s="57" t="inlineStr"/>
+      <c r="AA38" s="45" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -4444,7 +4548,7 @@
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="K1:O1"/>
     <mergeCell ref="P1:U1"/>
-    <mergeCell ref="V1:Y1"/>
+    <mergeCell ref="V1:AA1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Excel/Bulanan/Excel/List Tugas Bulanan Ke-2 (30 Juli 2021 - 27 September 2021).xlsx
+++ b/Excel/Bulanan/Excel/List Tugas Bulanan Ke-2 (30 Juli 2021 - 27 September 2021).xlsx
@@ -1557,7 +1557,11 @@
       <c r="T7" s="59" t="inlineStr"/>
       <c r="U7" s="48" t="inlineStr"/>
       <c r="V7" s="57" t="inlineStr"/>
-      <c r="W7" s="45" t="inlineStr"/>
+      <c r="W7" s="49" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="X7" s="57" t="inlineStr"/>
       <c r="Y7" s="45" t="inlineStr"/>
       <c r="Z7" s="57" t="inlineStr"/>
@@ -2169,9 +2173,21 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="V14" s="57" t="inlineStr"/>
-      <c r="W14" s="45" t="inlineStr"/>
-      <c r="X14" s="57" t="inlineStr"/>
+      <c r="V14" s="50" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="W14" s="49" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="X14" s="50" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="Y14" s="49" t="inlineStr">
         <is>
           <t>ü</t>
@@ -2396,7 +2412,11 @@
         </is>
       </c>
       <c r="V16" s="57" t="inlineStr"/>
-      <c r="W16" s="45" t="inlineStr"/>
+      <c r="W16" s="49" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="X16" s="57" t="inlineStr"/>
       <c r="Y16" s="45" t="inlineStr"/>
       <c r="Z16" s="57" t="inlineStr"/>
@@ -3457,7 +3477,11 @@
         </is>
       </c>
       <c r="V27" s="57" t="inlineStr"/>
-      <c r="W27" s="45" t="inlineStr"/>
+      <c r="W27" s="49" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="X27" s="57" t="inlineStr"/>
       <c r="Y27" s="45" t="inlineStr">
         <is>
@@ -4324,7 +4348,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="W36" s="45" t="inlineStr"/>
+      <c r="W36" s="49" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="X36" s="57" t="inlineStr"/>
       <c r="Y36" s="49" t="inlineStr">
         <is>
@@ -4530,7 +4558,11 @@
         </is>
       </c>
       <c r="V38" s="57" t="inlineStr"/>
-      <c r="W38" s="45" t="inlineStr"/>
+      <c r="W38" s="49" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="X38" s="57" t="inlineStr"/>
       <c r="Y38" s="45" t="inlineStr">
         <is>

--- a/Excel/Bulanan/Excel/List Tugas Bulanan Ke-2 (30 Juli 2021 - 27 September 2021).xlsx
+++ b/Excel/Bulanan/Excel/List Tugas Bulanan Ke-2 (30 Juli 2021 - 27 September 2021).xlsx
@@ -1671,9 +1671,17 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="V8" s="57" t="inlineStr"/>
+      <c r="V8" s="50" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="W8" s="45" t="inlineStr"/>
-      <c r="X8" s="57" t="inlineStr"/>
+      <c r="X8" s="50" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="Y8" s="49" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1999,7 +2007,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="V12" s="57" t="inlineStr"/>
+      <c r="V12" s="50" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="W12" s="45" t="inlineStr"/>
       <c r="X12" s="57" t="inlineStr"/>
       <c r="Y12" s="49" t="inlineStr">
@@ -2275,7 +2287,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="Q15" s="48" t="inlineStr"/>
+      <c r="Q15" s="56" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="R15" s="55" t="inlineStr">
         <is>
           <t>ü</t>
@@ -3221,7 +3237,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="Q25" s="48" t="inlineStr"/>
+      <c r="Q25" s="56" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="R25" s="55" t="inlineStr">
         <is>
           <t>ü</t>
@@ -3242,7 +3262,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="V25" s="57" t="inlineStr"/>
+      <c r="V25" s="50" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="W25" s="45" t="inlineStr"/>
       <c r="X25" s="57" t="inlineStr"/>
       <c r="Y25" s="45" t="inlineStr"/>
@@ -3953,7 +3977,11 @@
         </is>
       </c>
       <c r="W32" s="45" t="inlineStr"/>
-      <c r="X32" s="57" t="inlineStr"/>
+      <c r="X32" s="50" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="Y32" s="49" t="inlineStr">
         <is>
           <t>ü</t>

--- a/Excel/Bulanan/Excel/List Tugas Bulanan Ke-2 (30 Juli 2021 - 27 September 2021).xlsx
+++ b/Excel/Bulanan/Excel/List Tugas Bulanan Ke-2 (30 Juli 2021 - 27 September 2021).xlsx
@@ -1260,7 +1260,11 @@
       <c r="X4" s="57" t="inlineStr"/>
       <c r="Y4" s="45" t="inlineStr"/>
       <c r="Z4" s="57" t="inlineStr"/>
-      <c r="AA4" s="45" t="inlineStr"/>
+      <c r="AA4" s="49" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="5" ht="15.6" customHeight="1">
       <c r="A5" s="33" t="n">
@@ -1490,7 +1494,11 @@
         </is>
       </c>
       <c r="Z6" s="57" t="inlineStr"/>
-      <c r="AA6" s="45" t="inlineStr"/>
+      <c r="AA6" s="49" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="7" ht="15.6" customHeight="1">
       <c r="A7" s="33" t="n">
@@ -1737,7 +1745,11 @@
       <c r="N9" s="58" t="inlineStr"/>
       <c r="O9" s="47" t="inlineStr"/>
       <c r="P9" s="59" t="inlineStr"/>
-      <c r="Q9" s="48" t="inlineStr"/>
+      <c r="Q9" s="56" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="R9" s="59" t="inlineStr"/>
       <c r="S9" s="48" t="inlineStr"/>
       <c r="T9" s="59" t="inlineStr"/>
@@ -1862,7 +1874,11 @@
         </is>
       </c>
       <c r="Z10" s="57" t="inlineStr"/>
-      <c r="AA10" s="45" t="inlineStr"/>
+      <c r="AA10" s="49" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="11" ht="15.6" customHeight="1">
       <c r="A11" s="33" t="n">
@@ -2020,7 +2036,11 @@
         </is>
       </c>
       <c r="Z12" s="57" t="inlineStr"/>
-      <c r="AA12" s="45" t="inlineStr"/>
+      <c r="AA12" s="49" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="13" ht="15.6" customHeight="1">
       <c r="A13" s="33" t="n">
@@ -2206,7 +2226,11 @@
         </is>
       </c>
       <c r="Z14" s="57" t="inlineStr"/>
-      <c r="AA14" s="45" t="inlineStr"/>
+      <c r="AA14" s="49" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="15" ht="15.6" customHeight="1">
       <c r="A15" s="33" t="n">
@@ -2325,7 +2349,11 @@
         </is>
       </c>
       <c r="Z15" s="57" t="inlineStr"/>
-      <c r="AA15" s="45" t="inlineStr"/>
+      <c r="AA15" s="49" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="16" ht="15.6" customHeight="1">
       <c r="A16" s="33" t="n">
@@ -2436,7 +2464,11 @@
       <c r="X16" s="57" t="inlineStr"/>
       <c r="Y16" s="45" t="inlineStr"/>
       <c r="Z16" s="57" t="inlineStr"/>
-      <c r="AA16" s="45" t="inlineStr"/>
+      <c r="AA16" s="49" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="17" ht="15.6" customHeight="1">
       <c r="A17" s="33" t="n">
@@ -2561,7 +2593,11 @@
       <c r="O18" s="47" t="inlineStr"/>
       <c r="P18" s="59" t="inlineStr"/>
       <c r="Q18" s="48" t="inlineStr"/>
-      <c r="R18" s="59" t="inlineStr"/>
+      <c r="R18" s="55" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="S18" s="56" t="inlineStr">
         <is>
           <t>ü</t>
@@ -2923,7 +2959,11 @@
       </c>
       <c r="Y21" s="45" t="inlineStr"/>
       <c r="Z21" s="57" t="inlineStr"/>
-      <c r="AA21" s="45" t="inlineStr"/>
+      <c r="AA21" s="49" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="22" ht="15.6" customHeight="1">
       <c r="A22" s="33" t="n">
@@ -3271,7 +3311,11 @@
       <c r="X25" s="57" t="inlineStr"/>
       <c r="Y25" s="45" t="inlineStr"/>
       <c r="Z25" s="57" t="inlineStr"/>
-      <c r="AA25" s="45" t="inlineStr"/>
+      <c r="AA25" s="49" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="26" ht="15.6" customHeight="1">
       <c r="A26" s="33" t="n">
@@ -3394,7 +3438,11 @@
         </is>
       </c>
       <c r="Z26" s="57" t="inlineStr"/>
-      <c r="AA26" s="45" t="inlineStr"/>
+      <c r="AA26" s="49" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="27" ht="15.6" customHeight="1">
       <c r="A27" s="33" t="n">
@@ -3720,7 +3768,11 @@
         </is>
       </c>
       <c r="W29" s="45" t="inlineStr"/>
-      <c r="X29" s="57" t="inlineStr"/>
+      <c r="X29" s="50" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="Y29" s="45" t="inlineStr">
         <is>
           <t>NON-MUS</t>
@@ -3988,7 +4040,11 @@
         </is>
       </c>
       <c r="Z32" s="57" t="inlineStr"/>
-      <c r="AA32" s="45" t="inlineStr"/>
+      <c r="AA32" s="49" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="33" ht="15.6" customHeight="1">
       <c r="A33" s="33" t="n">
@@ -4388,7 +4444,11 @@
         </is>
       </c>
       <c r="Z36" s="57" t="inlineStr"/>
-      <c r="AA36" s="45" t="inlineStr"/>
+      <c r="AA36" s="49" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="37" ht="15.6" customHeight="1">
       <c r="A37" s="33" t="n">

--- a/Excel/Bulanan/Excel/List Tugas Bulanan Ke-2 (30 Juli 2021 - 27 September 2021).xlsx
+++ b/Excel/Bulanan/Excel/List Tugas Bulanan Ke-2 (30 Juli 2021 - 27 September 2021).xlsx
@@ -1255,9 +1255,21 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="V4" s="57" t="inlineStr"/>
-      <c r="W4" s="45" t="inlineStr"/>
-      <c r="X4" s="57" t="inlineStr"/>
+      <c r="V4" s="50" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="W4" s="49" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="X4" s="50" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="Y4" s="45" t="inlineStr"/>
       <c r="Z4" s="57" t="inlineStr"/>
       <c r="AA4" s="49" t="inlineStr">
@@ -1486,7 +1498,11 @@
         </is>
       </c>
       <c r="V6" s="57" t="inlineStr"/>
-      <c r="W6" s="45" t="inlineStr"/>
+      <c r="W6" s="49" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="X6" s="57" t="inlineStr"/>
       <c r="Y6" s="49" t="inlineStr">
         <is>
@@ -1696,7 +1712,11 @@
         </is>
       </c>
       <c r="Z8" s="57" t="inlineStr"/>
-      <c r="AA8" s="45" t="inlineStr"/>
+      <c r="AA8" s="49" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="9" ht="15.6" customHeight="1">
       <c r="A9" s="33" t="n">
@@ -2461,7 +2481,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="X16" s="57" t="inlineStr"/>
+      <c r="X16" s="50" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="Y16" s="45" t="inlineStr"/>
       <c r="Z16" s="57" t="inlineStr"/>
       <c r="AA16" s="49" t="inlineStr">
@@ -2610,7 +2634,11 @@
       <c r="X18" s="57" t="inlineStr"/>
       <c r="Y18" s="45" t="inlineStr"/>
       <c r="Z18" s="57" t="inlineStr"/>
-      <c r="AA18" s="45" t="inlineStr"/>
+      <c r="AA18" s="49" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="19" ht="15.6" customHeight="1">
       <c r="A19" s="33" t="n">
@@ -2729,7 +2757,11 @@
         </is>
       </c>
       <c r="Z19" s="57" t="inlineStr"/>
-      <c r="AA19" s="45" t="inlineStr"/>
+      <c r="AA19" s="49" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="20" ht="15.6" customHeight="1">
       <c r="A20" s="33" t="n">
@@ -2844,7 +2876,11 @@
       <c r="X20" s="57" t="inlineStr"/>
       <c r="Y20" s="45" t="inlineStr"/>
       <c r="Z20" s="57" t="inlineStr"/>
-      <c r="AA20" s="45" t="inlineStr"/>
+      <c r="AA20" s="49" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="21" ht="15.6" customHeight="1">
       <c r="A21" s="33" t="n">
@@ -3062,8 +3098,16 @@
         </is>
       </c>
       <c r="V22" s="57" t="inlineStr"/>
-      <c r="W22" s="45" t="inlineStr"/>
-      <c r="X22" s="57" t="inlineStr"/>
+      <c r="W22" s="49" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="X22" s="50" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="Y22" s="45" t="inlineStr"/>
       <c r="Z22" s="57" t="inlineStr"/>
       <c r="AA22" s="45" t="inlineStr"/>
@@ -3192,7 +3236,11 @@
       <c r="T24" s="59" t="inlineStr"/>
       <c r="U24" s="48" t="inlineStr"/>
       <c r="V24" s="57" t="inlineStr"/>
-      <c r="W24" s="45" t="inlineStr"/>
+      <c r="W24" s="49" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="X24" s="57" t="inlineStr"/>
       <c r="Y24" s="45" t="inlineStr"/>
       <c r="Z24" s="57" t="inlineStr"/>
@@ -3561,7 +3609,11 @@
         </is>
       </c>
       <c r="Z27" s="57" t="inlineStr"/>
-      <c r="AA27" s="45" t="inlineStr"/>
+      <c r="AA27" s="49" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="28" ht="15.6" customHeight="1">
       <c r="A28" s="33" t="n">
@@ -3767,7 +3819,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="W29" s="45" t="inlineStr"/>
+      <c r="W29" s="49" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="X29" s="50" t="inlineStr">
         <is>
           <t>ü</t>
@@ -4551,7 +4607,11 @@
         </is>
       </c>
       <c r="Z37" s="57" t="inlineStr"/>
-      <c r="AA37" s="45" t="inlineStr"/>
+      <c r="AA37" s="49" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="38" ht="15.6" customHeight="1">
       <c r="A38" s="33" t="n">
